--- a/outgoing/PITcleanr/PRO_Steelhead_2019.xlsx
+++ b/outgoing/PITcleanr/PRO_Steelhead_2019.xlsx
@@ -10,14 +10,14 @@
     <sheet name="ProcCapHist" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ProcCapHist!$A$1:$P$339</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ProcCapHist!$A$1:$P$340</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4262" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4275" uniqueCount="646">
   <si>
     <t>TagID</t>
   </si>
@@ -1112,6 +1112,18 @@
   </si>
   <si>
     <t>2019-04-23 07:28:02</t>
+  </si>
+  <si>
+    <t>2019-05-01 22:19:16</t>
+  </si>
+  <si>
+    <t>2019-05-06 20:50:53</t>
+  </si>
+  <si>
+    <t>LMT</t>
+  </si>
+  <si>
+    <t>LMTA0</t>
   </si>
   <si>
     <t>3DD.007736D7A6</t>
@@ -2283,7 +2295,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P339"/>
+  <dimension ref="A1:P340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -10467,25 +10479,31 @@
     </row>
     <row r="182" spans="1:15">
       <c r="A182" t="s">
+        <v>331</v>
+      </c>
+      <c r="B182" t="s">
+        <v>325</v>
+      </c>
+      <c r="C182" t="s">
         <v>365</v>
       </c>
-      <c r="B182" t="s">
+      <c r="D182" t="s">
         <v>366</v>
       </c>
-      <c r="C182" t="s">
+      <c r="E182">
+        <v>8</v>
+      </c>
+      <c r="F182" t="s">
+        <v>25</v>
+      </c>
+      <c r="G182" t="s">
         <v>367</v>
       </c>
-      <c r="D182" t="s">
+      <c r="H182" t="s">
         <v>368</v>
       </c>
-      <c r="G182" t="s">
-        <v>20</v>
-      </c>
-      <c r="H182" t="s">
-        <v>20</v>
-      </c>
       <c r="I182">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J182" t="s">
         <v>21</v>
@@ -10511,13 +10529,13 @@
         <v>369</v>
       </c>
       <c r="B183" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C183" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D183" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G183" t="s">
         <v>20</v>
@@ -10549,31 +10567,25 @@
     </row>
     <row r="184" spans="1:15">
       <c r="A184" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B184" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C184" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D184" t="s">
-        <v>371</v>
-      </c>
-      <c r="E184">
-        <v>7</v>
-      </c>
-      <c r="F184" t="s">
-        <v>54</v>
+        <v>374</v>
       </c>
       <c r="G184" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H184" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="I184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J184" t="s">
         <v>21</v>
@@ -10596,16 +10608,16 @@
     </row>
     <row r="185" spans="1:15">
       <c r="A185" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B185" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C185" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D185" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E185">
         <v>7</v>
@@ -10617,10 +10629,10 @@
         <v>55</v>
       </c>
       <c r="H185" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I185">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J185" t="s">
         <v>21</v>
@@ -10643,16 +10655,16 @@
     </row>
     <row r="186" spans="1:15">
       <c r="A186" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B186" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C186" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D186" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E186">
         <v>7</v>
@@ -10661,13 +10673,13 @@
         <v>54</v>
       </c>
       <c r="G186" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H186" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I186">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J186" t="s">
         <v>21</v>
@@ -10690,16 +10702,16 @@
     </row>
     <row r="187" spans="1:15">
       <c r="A187" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B187" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C187" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D187" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="E187">
         <v>7</v>
@@ -10711,10 +10723,10 @@
         <v>60</v>
       </c>
       <c r="H187" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I187">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J187" t="s">
         <v>21</v>
@@ -10737,25 +10749,31 @@
     </row>
     <row r="188" spans="1:15">
       <c r="A188" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B188" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C188" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D188" t="s">
-        <v>377</v>
+        <v>378</v>
+      </c>
+      <c r="E188">
+        <v>7</v>
+      </c>
+      <c r="F188" t="s">
+        <v>54</v>
       </c>
       <c r="G188" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H188" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J188" t="s">
         <v>21</v>
@@ -10766,37 +10784,37 @@
       <c r="L188" t="s">
         <v>23</v>
       </c>
+      <c r="M188" t="s">
+        <v>23</v>
+      </c>
+      <c r="N188" t="s">
+        <v>23</v>
+      </c>
       <c r="O188" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="189" spans="1:15">
       <c r="A189" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B189" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C189" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D189" t="s">
-        <v>379</v>
-      </c>
-      <c r="E189">
-        <v>3</v>
-      </c>
-      <c r="F189" t="s">
-        <v>66</v>
+        <v>381</v>
       </c>
       <c r="G189" t="s">
-        <v>380</v>
+        <v>20</v>
       </c>
       <c r="H189" t="s">
-        <v>381</v>
+        <v>20</v>
       </c>
       <c r="I189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
         <v>21</v>
@@ -10805,7 +10823,7 @@
         <v>22</v>
       </c>
       <c r="L189" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="O189" t="s">
         <v>39</v>
@@ -10813,10 +10831,10 @@
     </row>
     <row r="190" spans="1:15">
       <c r="A190" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B190" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C190" t="s">
         <v>382</v>
@@ -10825,7 +10843,7 @@
         <v>383</v>
       </c>
       <c r="E190">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F190" t="s">
         <v>66</v>
@@ -10839,11 +10857,14 @@
       <c r="I190">
         <v>2</v>
       </c>
+      <c r="J190" t="s">
+        <v>21</v>
+      </c>
       <c r="K190" t="s">
         <v>22</v>
       </c>
       <c r="L190" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O190" t="s">
         <v>39</v>
@@ -10851,10 +10872,10 @@
     </row>
     <row r="191" spans="1:15">
       <c r="A191" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B191" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C191" t="s">
         <v>386</v>
@@ -10875,10 +10896,7 @@
         <v>389</v>
       </c>
       <c r="I191">
-        <v>3</v>
-      </c>
-      <c r="J191" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="K191" t="s">
         <v>22</v>
@@ -10892,25 +10910,31 @@
     </row>
     <row r="192" spans="1:15">
       <c r="A192" t="s">
+        <v>379</v>
+      </c>
+      <c r="B192" t="s">
+        <v>380</v>
+      </c>
+      <c r="C192" t="s">
         <v>390</v>
       </c>
-      <c r="B192" t="s">
+      <c r="D192" t="s">
         <v>391</v>
       </c>
-      <c r="C192" t="s">
+      <c r="E192">
+        <v>4</v>
+      </c>
+      <c r="F192" t="s">
+        <v>66</v>
+      </c>
+      <c r="G192" t="s">
         <v>392</v>
       </c>
-      <c r="D192" t="s">
-        <v>392</v>
-      </c>
-      <c r="G192" t="s">
-        <v>20</v>
-      </c>
       <c r="H192" t="s">
-        <v>20</v>
+        <v>393</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J192" t="s">
         <v>21</v>
@@ -10921,43 +10945,31 @@
       <c r="L192" t="s">
         <v>23</v>
       </c>
-      <c r="M192" t="s">
-        <v>23</v>
-      </c>
-      <c r="N192" t="s">
-        <v>23</v>
-      </c>
       <c r="O192" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="193" spans="1:15">
       <c r="A193" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B193" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C193" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D193" t="s">
-        <v>393</v>
-      </c>
-      <c r="E193">
-        <v>7</v>
-      </c>
-      <c r="F193" t="s">
-        <v>54</v>
+        <v>396</v>
       </c>
       <c r="G193" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H193" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="I193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J193" t="s">
         <v>21</v>
@@ -10980,16 +10992,16 @@
     </row>
     <row r="194" spans="1:15">
       <c r="A194" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B194" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C194" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D194" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E194">
         <v>7</v>
@@ -11001,10 +11013,10 @@
         <v>55</v>
       </c>
       <c r="H194" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I194">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J194" t="s">
         <v>21</v>
@@ -11027,16 +11039,16 @@
     </row>
     <row r="195" spans="1:15">
       <c r="A195" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B195" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C195" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D195" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E195">
         <v>7</v>
@@ -11045,13 +11057,13 @@
         <v>54</v>
       </c>
       <c r="G195" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H195" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I195">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J195" t="s">
         <v>21</v>
@@ -11074,16 +11086,16 @@
     </row>
     <row r="196" spans="1:15">
       <c r="A196" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B196" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C196" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D196" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E196">
         <v>7</v>
@@ -11095,10 +11107,10 @@
         <v>60</v>
       </c>
       <c r="H196" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I196">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J196" t="s">
         <v>21</v>
@@ -11121,16 +11133,16 @@
     </row>
     <row r="197" spans="1:15">
       <c r="A197" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B197" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C197" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D197" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E197">
         <v>7</v>
@@ -11142,16 +11154,16 @@
         <v>60</v>
       </c>
       <c r="H197" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I197">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J197" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="K197" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="L197" t="s">
         <v>23</v>
@@ -11160,7 +11172,7 @@
         <v>23</v>
       </c>
       <c r="N197" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="O197" t="s">
         <v>23</v>
@@ -11168,31 +11180,37 @@
     </row>
     <row r="198" spans="1:15">
       <c r="A198" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B198" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C198" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D198" t="s">
-        <v>400</v>
+        <v>401</v>
+      </c>
+      <c r="E198">
+        <v>7</v>
+      </c>
+      <c r="F198" t="s">
+        <v>54</v>
       </c>
       <c r="G198" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H198" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J198" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K198" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="L198" t="s">
         <v>23</v>
@@ -11201,7 +11219,7 @@
         <v>23</v>
       </c>
       <c r="N198" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O198" t="s">
         <v>23</v>
@@ -11209,31 +11227,25 @@
     </row>
     <row r="199" spans="1:15">
       <c r="A199" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B199" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C199" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D199" t="s">
-        <v>401</v>
-      </c>
-      <c r="E199">
-        <v>8</v>
-      </c>
-      <c r="F199" t="s">
-        <v>25</v>
+        <v>404</v>
       </c>
       <c r="G199" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H199" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J199" t="s">
         <v>21</v>
@@ -11259,22 +11271,28 @@
         <v>402</v>
       </c>
       <c r="B200" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C200" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D200" t="s">
-        <v>403</v>
+        <v>405</v>
+      </c>
+      <c r="E200">
+        <v>8</v>
+      </c>
+      <c r="F200" t="s">
+        <v>25</v>
       </c>
       <c r="G200" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H200" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J200" t="s">
         <v>21</v>
@@ -11297,31 +11315,25 @@
     </row>
     <row r="201" spans="1:15">
       <c r="A201" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B201" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C201" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D201" t="s">
-        <v>404</v>
-      </c>
-      <c r="E201">
-        <v>8</v>
-      </c>
-      <c r="F201" t="s">
-        <v>25</v>
+        <v>407</v>
       </c>
       <c r="G201" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="H201" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="I201">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J201" t="s">
         <v>21</v>
@@ -11344,25 +11356,31 @@
     </row>
     <row r="202" spans="1:15">
       <c r="A202" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B202" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C202" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D202" t="s">
-        <v>407</v>
+        <v>408</v>
+      </c>
+      <c r="E202">
+        <v>8</v>
+      </c>
+      <c r="F202" t="s">
+        <v>25</v>
       </c>
       <c r="G202" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="H202" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="I202">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J202" t="s">
         <v>21</v>
@@ -11385,31 +11403,25 @@
     </row>
     <row r="203" spans="1:15">
       <c r="A203" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B203" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C203" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D203" t="s">
-        <v>408</v>
-      </c>
-      <c r="E203">
-        <v>8</v>
-      </c>
-      <c r="F203" t="s">
-        <v>25</v>
+        <v>411</v>
       </c>
       <c r="G203" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H203" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I203">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J203" t="s">
         <v>21</v>
@@ -11432,16 +11444,16 @@
     </row>
     <row r="204" spans="1:15">
       <c r="A204" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B204" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C204" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D204" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E204">
         <v>8</v>
@@ -11453,10 +11465,10 @@
         <v>32</v>
       </c>
       <c r="H204" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I204">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J204" t="s">
         <v>21</v>
@@ -11479,16 +11491,16 @@
     </row>
     <row r="205" spans="1:15">
       <c r="A205" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B205" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C205" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D205" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E205">
         <v>8</v>
@@ -11497,13 +11509,13 @@
         <v>25</v>
       </c>
       <c r="G205" t="s">
-        <v>412</v>
+        <v>32</v>
       </c>
       <c r="H205" t="s">
-        <v>413</v>
+        <v>35</v>
       </c>
       <c r="I205">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J205" t="s">
         <v>21</v>
@@ -11526,13 +11538,13 @@
     </row>
     <row r="206" spans="1:15">
       <c r="A206" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B206" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C206" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D206" t="s">
         <v>415</v>
@@ -11544,13 +11556,13 @@
         <v>25</v>
       </c>
       <c r="G206" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="H206" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="I206">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J206" t="s">
         <v>21</v>
@@ -11573,16 +11585,16 @@
     </row>
     <row r="207" spans="1:15">
       <c r="A207" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B207" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C207" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D207" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E207">
         <v>8</v>
@@ -11591,19 +11603,19 @@
         <v>25</v>
       </c>
       <c r="G207" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="H207" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="I207">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J207" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="K207" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="L207" t="s">
         <v>23</v>
@@ -11612,7 +11624,7 @@
         <v>23</v>
       </c>
       <c r="N207" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="O207" t="s">
         <v>23</v>
@@ -11620,31 +11632,37 @@
     </row>
     <row r="208" spans="1:15">
       <c r="A208" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="B208" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C208" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D208" t="s">
-        <v>419</v>
+        <v>421</v>
+      </c>
+      <c r="E208">
+        <v>8</v>
+      </c>
+      <c r="F208" t="s">
+        <v>25</v>
       </c>
       <c r="G208" t="s">
-        <v>20</v>
+        <v>416</v>
       </c>
       <c r="H208" t="s">
-        <v>20</v>
+        <v>417</v>
       </c>
       <c r="I208">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J208" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K208" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="L208" t="s">
         <v>23</v>
@@ -11653,7 +11671,7 @@
         <v>23</v>
       </c>
       <c r="N208" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O208" t="s">
         <v>23</v>
@@ -11661,31 +11679,25 @@
     </row>
     <row r="209" spans="1:15">
       <c r="A209" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B209" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C209" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D209" t="s">
-        <v>420</v>
-      </c>
-      <c r="E209">
-        <v>6</v>
-      </c>
-      <c r="F209" t="s">
-        <v>75</v>
+        <v>423</v>
       </c>
       <c r="G209" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="H209" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I209">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J209" t="s">
         <v>21</v>
@@ -11708,25 +11720,31 @@
     </row>
     <row r="210" spans="1:15">
       <c r="A210" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B210" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C210" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D210" t="s">
-        <v>422</v>
+        <v>424</v>
+      </c>
+      <c r="E210">
+        <v>6</v>
+      </c>
+      <c r="F210" t="s">
+        <v>75</v>
       </c>
       <c r="G210" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="H210" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="I210">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J210" t="s">
         <v>21</v>
@@ -11749,31 +11767,25 @@
     </row>
     <row r="211" spans="1:15">
       <c r="A211" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B211" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C211" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D211" t="s">
-        <v>423</v>
-      </c>
-      <c r="E211">
-        <v>6</v>
-      </c>
-      <c r="F211" t="s">
-        <v>75</v>
+        <v>426</v>
       </c>
       <c r="G211" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="H211" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I211">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J211" t="s">
         <v>21</v>
@@ -11796,31 +11808,37 @@
     </row>
     <row r="212" spans="1:15">
       <c r="A212" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B212" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C212" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D212" t="s">
-        <v>200</v>
+        <v>427</v>
+      </c>
+      <c r="E212">
+        <v>6</v>
+      </c>
+      <c r="F212" t="s">
+        <v>75</v>
       </c>
       <c r="G212" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="H212" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J212" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="K212" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="L212" t="s">
         <v>23</v>
@@ -11829,7 +11847,7 @@
         <v>23</v>
       </c>
       <c r="N212" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="O212" t="s">
         <v>23</v>
@@ -11840,13 +11858,13 @@
         <v>425</v>
       </c>
       <c r="B213" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C213" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D213" t="s">
-        <v>426</v>
+        <v>200</v>
       </c>
       <c r="G213" t="s">
         <v>20</v>
@@ -11858,10 +11876,10 @@
         <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K213" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="L213" t="s">
         <v>23</v>
@@ -11870,7 +11888,7 @@
         <v>23</v>
       </c>
       <c r="N213" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O213" t="s">
         <v>23</v>
@@ -11878,31 +11896,25 @@
     </row>
     <row r="214" spans="1:15">
       <c r="A214" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B214" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C214" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D214" t="s">
-        <v>427</v>
-      </c>
-      <c r="E214">
-        <v>8</v>
-      </c>
-      <c r="F214" t="s">
-        <v>25</v>
+        <v>430</v>
       </c>
       <c r="G214" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="H214" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="I214">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J214" t="s">
         <v>21</v>
@@ -11925,25 +11937,31 @@
     </row>
     <row r="215" spans="1:15">
       <c r="A215" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B215" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C215" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D215" t="s">
-        <v>429</v>
+        <v>431</v>
+      </c>
+      <c r="E215">
+        <v>8</v>
+      </c>
+      <c r="F215" t="s">
+        <v>25</v>
       </c>
       <c r="G215" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="H215" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J215" t="s">
         <v>21</v>
@@ -11966,31 +11984,25 @@
     </row>
     <row r="216" spans="1:15">
       <c r="A216" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B216" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C216" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D216" t="s">
-        <v>430</v>
-      </c>
-      <c r="E216">
-        <v>8</v>
-      </c>
-      <c r="F216" t="s">
-        <v>25</v>
+        <v>433</v>
       </c>
       <c r="G216" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H216" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I216">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J216" t="s">
         <v>21</v>
@@ -12013,16 +12025,16 @@
     </row>
     <row r="217" spans="1:15">
       <c r="A217" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B217" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C217" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D217" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E217">
         <v>8</v>
@@ -12034,10 +12046,10 @@
         <v>46</v>
       </c>
       <c r="H217" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I217">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J217" t="s">
         <v>21</v>
@@ -12060,16 +12072,16 @@
     </row>
     <row r="218" spans="1:15">
       <c r="A218" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B218" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C218" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D218" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E218">
         <v>8</v>
@@ -12081,16 +12093,16 @@
         <v>46</v>
       </c>
       <c r="H218" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I218">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J218" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="K218" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="L218" t="s">
         <v>23</v>
@@ -12099,7 +12111,7 @@
         <v>23</v>
       </c>
       <c r="N218" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="O218" t="s">
         <v>23</v>
@@ -12107,31 +12119,37 @@
     </row>
     <row r="219" spans="1:15">
       <c r="A219" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B219" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C219" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D219" t="s">
-        <v>435</v>
+        <v>437</v>
+      </c>
+      <c r="E219">
+        <v>8</v>
+      </c>
+      <c r="F219" t="s">
+        <v>25</v>
       </c>
       <c r="G219" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H219" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I219">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J219" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K219" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="L219" t="s">
         <v>23</v>
@@ -12140,7 +12158,7 @@
         <v>23</v>
       </c>
       <c r="N219" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O219" t="s">
         <v>23</v>
@@ -12148,31 +12166,25 @@
     </row>
     <row r="220" spans="1:15">
       <c r="A220" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B220" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C220" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D220" t="s">
-        <v>436</v>
-      </c>
-      <c r="E220">
-        <v>8</v>
-      </c>
-      <c r="F220" t="s">
-        <v>25</v>
+        <v>439</v>
       </c>
       <c r="G220" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="H220" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="I220">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J220" t="s">
         <v>21</v>
@@ -12195,25 +12207,31 @@
     </row>
     <row r="221" spans="1:15">
       <c r="A221" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B221" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C221" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D221" t="s">
-        <v>438</v>
+        <v>440</v>
+      </c>
+      <c r="E221">
+        <v>8</v>
+      </c>
+      <c r="F221" t="s">
+        <v>25</v>
       </c>
       <c r="G221" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="H221" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="I221">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J221" t="s">
         <v>21</v>
@@ -12236,31 +12254,25 @@
     </row>
     <row r="222" spans="1:15">
       <c r="A222" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B222" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C222" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D222" t="s">
-        <v>439</v>
-      </c>
-      <c r="E222">
-        <v>8</v>
-      </c>
-      <c r="F222" t="s">
-        <v>25</v>
+        <v>442</v>
       </c>
       <c r="G222" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H222" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J222" t="s">
         <v>21</v>
@@ -12283,16 +12295,16 @@
     </row>
     <row r="223" spans="1:15">
       <c r="A223" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B223" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C223" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D223" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E223">
         <v>8</v>
@@ -12301,13 +12313,13 @@
         <v>25</v>
       </c>
       <c r="G223" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H223" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I223">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J223" t="s">
         <v>21</v>
@@ -12330,16 +12342,16 @@
     </row>
     <row r="224" spans="1:15">
       <c r="A224" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B224" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C224" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D224" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E224">
         <v>8</v>
@@ -12351,10 +12363,10 @@
         <v>32</v>
       </c>
       <c r="H224" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I224">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J224" t="s">
         <v>21</v>
@@ -12377,25 +12389,31 @@
     </row>
     <row r="225" spans="1:15">
       <c r="A225" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B225" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C225" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D225" t="s">
-        <v>445</v>
+        <v>447</v>
+      </c>
+      <c r="E225">
+        <v>8</v>
+      </c>
+      <c r="F225" t="s">
+        <v>25</v>
       </c>
       <c r="G225" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H225" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I225">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J225" t="s">
         <v>21</v>
@@ -12418,31 +12436,25 @@
     </row>
     <row r="226" spans="1:15">
       <c r="A226" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B226" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C226" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D226" t="s">
-        <v>446</v>
-      </c>
-      <c r="E226">
-        <v>6</v>
-      </c>
-      <c r="F226" t="s">
-        <v>75</v>
+        <v>449</v>
       </c>
       <c r="G226" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="H226" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I226">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J226" t="s">
         <v>21</v>
@@ -12465,31 +12477,37 @@
     </row>
     <row r="227" spans="1:15">
       <c r="A227" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B227" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C227" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D227" t="s">
-        <v>447</v>
+        <v>450</v>
+      </c>
+      <c r="E227">
+        <v>6</v>
+      </c>
+      <c r="F227" t="s">
+        <v>75</v>
       </c>
       <c r="G227" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="H227" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="I227">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J227" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="K227" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="L227" t="s">
         <v>23</v>
@@ -12498,7 +12516,7 @@
         <v>23</v>
       </c>
       <c r="N227" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="O227" t="s">
         <v>23</v>
@@ -12509,13 +12527,13 @@
         <v>448</v>
       </c>
       <c r="B228" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C228" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D228" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G228" t="s">
         <v>20</v>
@@ -12527,10 +12545,10 @@
         <v>1</v>
       </c>
       <c r="J228" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K228" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="L228" t="s">
         <v>23</v>
@@ -12539,7 +12557,7 @@
         <v>23</v>
       </c>
       <c r="N228" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O228" t="s">
         <v>23</v>
@@ -12547,16 +12565,16 @@
     </row>
     <row r="229" spans="1:15">
       <c r="A229" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B229" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C229" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D229" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G229" t="s">
         <v>20</v>
@@ -12588,31 +12606,25 @@
     </row>
     <row r="230" spans="1:15">
       <c r="A230" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B230" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C230" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="D230" t="s">
-        <v>453</v>
-      </c>
-      <c r="E230">
-        <v>8</v>
-      </c>
-      <c r="F230" t="s">
-        <v>25</v>
+        <v>456</v>
       </c>
       <c r="G230" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H230" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I230">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J230" t="s">
         <v>21</v>
@@ -12635,16 +12647,16 @@
     </row>
     <row r="231" spans="1:15">
       <c r="A231" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B231" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C231" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D231" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="E231">
         <v>8</v>
@@ -12653,13 +12665,13 @@
         <v>25</v>
       </c>
       <c r="G231" t="s">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="H231" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="I231">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J231" t="s">
         <v>21</v>
@@ -12685,22 +12697,28 @@
         <v>455</v>
       </c>
       <c r="B232" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C232" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D232" t="s">
-        <v>456</v>
+        <v>458</v>
+      </c>
+      <c r="E232">
+        <v>8</v>
+      </c>
+      <c r="F232" t="s">
+        <v>25</v>
       </c>
       <c r="G232" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="H232" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="I232">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J232" t="s">
         <v>21</v>
@@ -12723,31 +12741,25 @@
     </row>
     <row r="233" spans="1:15">
       <c r="A233" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B233" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C233" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D233" t="s">
-        <v>457</v>
-      </c>
-      <c r="E233">
-        <v>6</v>
-      </c>
-      <c r="F233" t="s">
-        <v>75</v>
+        <v>460</v>
       </c>
       <c r="G233" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="H233" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="I233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J233" t="s">
         <v>21</v>
@@ -12770,25 +12782,31 @@
     </row>
     <row r="234" spans="1:15">
       <c r="A234" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B234" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C234" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D234" t="s">
-        <v>459</v>
+        <v>461</v>
+      </c>
+      <c r="E234">
+        <v>6</v>
+      </c>
+      <c r="F234" t="s">
+        <v>75</v>
       </c>
       <c r="G234" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="H234" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="I234">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J234" t="s">
         <v>21</v>
@@ -12811,31 +12829,25 @@
     </row>
     <row r="235" spans="1:15">
       <c r="A235" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B235" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C235" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D235" t="s">
-        <v>460</v>
-      </c>
-      <c r="E235">
-        <v>8</v>
-      </c>
-      <c r="F235" t="s">
-        <v>25</v>
+        <v>463</v>
       </c>
       <c r="G235" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="H235" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="I235">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J235" t="s">
         <v>21</v>
@@ -12858,31 +12870,37 @@
     </row>
     <row r="236" spans="1:15">
       <c r="A236" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B236" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C236" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D236" t="s">
-        <v>461</v>
+        <v>464</v>
+      </c>
+      <c r="E236">
+        <v>8</v>
+      </c>
+      <c r="F236" t="s">
+        <v>25</v>
       </c>
       <c r="G236" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="H236" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="I236">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J236" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="K236" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="L236" t="s">
         <v>23</v>
@@ -12891,7 +12909,7 @@
         <v>23</v>
       </c>
       <c r="N236" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="O236" t="s">
         <v>23</v>
@@ -12902,13 +12920,13 @@
         <v>462</v>
       </c>
       <c r="B237" t="s">
-        <v>463</v>
+        <v>410</v>
       </c>
       <c r="C237" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D237" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G237" t="s">
         <v>20</v>
@@ -12920,10 +12938,10 @@
         <v>1</v>
       </c>
       <c r="J237" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K237" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="L237" t="s">
         <v>23</v>
@@ -12932,7 +12950,7 @@
         <v>23</v>
       </c>
       <c r="N237" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O237" t="s">
         <v>23</v>
@@ -12940,31 +12958,25 @@
     </row>
     <row r="238" spans="1:15">
       <c r="A238" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B238" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C238" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D238" t="s">
-        <v>465</v>
-      </c>
-      <c r="E238">
-        <v>8</v>
-      </c>
-      <c r="F238" t="s">
-        <v>25</v>
+        <v>468</v>
       </c>
       <c r="G238" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="H238" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="I238">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J238" t="s">
         <v>21</v>
@@ -12987,31 +12999,37 @@
     </row>
     <row r="239" spans="1:15">
       <c r="A239" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B239" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C239" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="D239" t="s">
-        <v>466</v>
+        <v>469</v>
+      </c>
+      <c r="E239">
+        <v>8</v>
+      </c>
+      <c r="F239" t="s">
+        <v>25</v>
       </c>
       <c r="G239" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="H239" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="I239">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J239" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="K239" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="L239" t="s">
         <v>23</v>
@@ -13020,7 +13038,7 @@
         <v>23</v>
       </c>
       <c r="N239" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="O239" t="s">
         <v>23</v>
@@ -13028,16 +13046,16 @@
     </row>
     <row r="240" spans="1:15">
       <c r="A240" t="s">
+        <v>466</v>
+      </c>
+      <c r="B240" t="s">
         <v>467</v>
       </c>
-      <c r="B240" t="s">
-        <v>463</v>
-      </c>
       <c r="C240" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D240" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G240" t="s">
         <v>20</v>
@@ -13049,10 +13067,10 @@
         <v>1</v>
       </c>
       <c r="J240" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K240" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="L240" t="s">
         <v>23</v>
@@ -13061,7 +13079,7 @@
         <v>23</v>
       </c>
       <c r="N240" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O240" t="s">
         <v>23</v>
@@ -13069,16 +13087,16 @@
     </row>
     <row r="241" spans="1:15">
       <c r="A241" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B241" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C241" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D241" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="G241" t="s">
         <v>20</v>
@@ -13110,31 +13128,25 @@
     </row>
     <row r="242" spans="1:15">
       <c r="A242" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B242" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C242" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="D242" t="s">
-        <v>471</v>
-      </c>
-      <c r="E242">
-        <v>8</v>
-      </c>
-      <c r="F242" t="s">
-        <v>25</v>
+        <v>474</v>
       </c>
       <c r="G242" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H242" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I242">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J242" t="s">
         <v>21</v>
@@ -13157,16 +13169,16 @@
     </row>
     <row r="243" spans="1:15">
       <c r="A243" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B243" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C243" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D243" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E243">
         <v>8</v>
@@ -13175,13 +13187,13 @@
         <v>25</v>
       </c>
       <c r="G243" t="s">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="H243" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="I243">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J243" t="s">
         <v>21</v>
@@ -13207,22 +13219,28 @@
         <v>473</v>
       </c>
       <c r="B244" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="C244" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D244" t="s">
-        <v>475</v>
+        <v>476</v>
+      </c>
+      <c r="E244">
+        <v>8</v>
+      </c>
+      <c r="F244" t="s">
+        <v>25</v>
       </c>
       <c r="G244" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="H244" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="I244">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J244" t="s">
         <v>21</v>
@@ -13245,31 +13263,25 @@
     </row>
     <row r="245" spans="1:15">
       <c r="A245" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B245" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C245" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D245" t="s">
-        <v>476</v>
-      </c>
-      <c r="E245">
-        <v>8</v>
-      </c>
-      <c r="F245" t="s">
-        <v>25</v>
+        <v>479</v>
       </c>
       <c r="G245" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H245" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I245">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J245" t="s">
         <v>21</v>
@@ -13292,16 +13304,16 @@
     </row>
     <row r="246" spans="1:15">
       <c r="A246" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B246" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C246" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="D246" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="E246">
         <v>8</v>
@@ -13310,13 +13322,13 @@
         <v>25</v>
       </c>
       <c r="G246" t="s">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="H246" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="I246">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J246" t="s">
         <v>21</v>
@@ -13339,25 +13351,31 @@
     </row>
     <row r="247" spans="1:15">
       <c r="A247" t="s">
+        <v>477</v>
+      </c>
+      <c r="B247" t="s">
         <v>478</v>
       </c>
-      <c r="B247" t="s">
-        <v>474</v>
-      </c>
       <c r="C247" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D247" t="s">
-        <v>479</v>
+        <v>481</v>
+      </c>
+      <c r="E247">
+        <v>8</v>
+      </c>
+      <c r="F247" t="s">
+        <v>25</v>
       </c>
       <c r="G247" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="H247" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="I247">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J247" t="s">
         <v>21</v>
@@ -13380,31 +13398,25 @@
     </row>
     <row r="248" spans="1:15">
       <c r="A248" t="s">
+        <v>482</v>
+      </c>
+      <c r="B248" t="s">
         <v>478</v>
       </c>
-      <c r="B248" t="s">
-        <v>474</v>
-      </c>
       <c r="C248" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D248" t="s">
-        <v>480</v>
-      </c>
-      <c r="E248">
-        <v>8</v>
-      </c>
-      <c r="F248" t="s">
-        <v>25</v>
+        <v>483</v>
       </c>
       <c r="G248" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="H248" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="I248">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J248" t="s">
         <v>21</v>
@@ -13427,25 +13439,31 @@
     </row>
     <row r="249" spans="1:15">
       <c r="A249" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B249" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C249" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D249" t="s">
-        <v>482</v>
+        <v>484</v>
+      </c>
+      <c r="E249">
+        <v>8</v>
+      </c>
+      <c r="F249" t="s">
+        <v>25</v>
       </c>
       <c r="G249" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="H249" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="I249">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J249" t="s">
         <v>21</v>
@@ -13468,16 +13486,16 @@
     </row>
     <row r="250" spans="1:15">
       <c r="A250" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B250" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C250" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D250" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G250" t="s">
         <v>20</v>
@@ -13509,31 +13527,25 @@
     </row>
     <row r="251" spans="1:15">
       <c r="A251" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B251" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C251" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D251" t="s">
-        <v>486</v>
-      </c>
-      <c r="E251">
-        <v>8</v>
-      </c>
-      <c r="F251" t="s">
-        <v>25</v>
+        <v>489</v>
       </c>
       <c r="G251" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="H251" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="I251">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J251" t="s">
         <v>21</v>
@@ -13559,22 +13571,28 @@
         <v>487</v>
       </c>
       <c r="B252" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="C252" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D252" t="s">
-        <v>489</v>
+        <v>490</v>
+      </c>
+      <c r="E252">
+        <v>8</v>
+      </c>
+      <c r="F252" t="s">
+        <v>25</v>
       </c>
       <c r="G252" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="H252" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="I252">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J252" t="s">
         <v>21</v>
@@ -13597,16 +13615,16 @@
     </row>
     <row r="253" spans="1:15">
       <c r="A253" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B253" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C253" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D253" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="G253" t="s">
         <v>20</v>
@@ -13638,31 +13656,25 @@
     </row>
     <row r="254" spans="1:15">
       <c r="A254" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B254" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C254" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="D254" t="s">
-        <v>492</v>
-      </c>
-      <c r="E254">
-        <v>8</v>
-      </c>
-      <c r="F254" t="s">
-        <v>25</v>
+        <v>495</v>
       </c>
       <c r="G254" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H254" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I254">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J254" t="s">
         <v>21</v>
@@ -13685,16 +13697,16 @@
     </row>
     <row r="255" spans="1:15">
       <c r="A255" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B255" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C255" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="D255" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="E255">
         <v>8</v>
@@ -13703,13 +13715,13 @@
         <v>25</v>
       </c>
       <c r="G255" t="s">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="H255" t="s">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="I255">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J255" t="s">
         <v>21</v>
@@ -13735,22 +13747,28 @@
         <v>494</v>
       </c>
       <c r="B256" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C256" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D256" t="s">
-        <v>496</v>
+        <v>497</v>
+      </c>
+      <c r="E256">
+        <v>8</v>
+      </c>
+      <c r="F256" t="s">
+        <v>25</v>
       </c>
       <c r="G256" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="H256" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="I256">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J256" t="s">
         <v>21</v>
@@ -13773,16 +13791,16 @@
     </row>
     <row r="257" spans="1:15">
       <c r="A257" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B257" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C257" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D257" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G257" t="s">
         <v>20</v>
@@ -13814,31 +13832,25 @@
     </row>
     <row r="258" spans="1:15">
       <c r="A258" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="B258" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C258" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D258" t="s">
-        <v>500</v>
-      </c>
-      <c r="E258">
-        <v>6</v>
-      </c>
-      <c r="F258" t="s">
-        <v>75</v>
+        <v>503</v>
       </c>
       <c r="G258" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="H258" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="I258">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J258" t="s">
         <v>21</v>
@@ -13864,22 +13876,28 @@
         <v>501</v>
       </c>
       <c r="B259" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C259" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D259" t="s">
-        <v>502</v>
+        <v>504</v>
+      </c>
+      <c r="E259">
+        <v>6</v>
+      </c>
+      <c r="F259" t="s">
+        <v>75</v>
       </c>
       <c r="G259" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="H259" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="I259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J259" t="s">
         <v>21</v>
@@ -13902,31 +13920,25 @@
     </row>
     <row r="260" spans="1:15">
       <c r="A260" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B260" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C260" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="D260" t="s">
-        <v>504</v>
-      </c>
-      <c r="E260">
-        <v>8</v>
-      </c>
-      <c r="F260" t="s">
-        <v>25</v>
+        <v>506</v>
       </c>
       <c r="G260" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H260" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I260">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J260" t="s">
         <v>21</v>
@@ -13949,31 +13961,37 @@
     </row>
     <row r="261" spans="1:15">
       <c r="A261" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B261" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C261" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D261" t="s">
-        <v>505</v>
+        <v>508</v>
+      </c>
+      <c r="E261">
+        <v>8</v>
+      </c>
+      <c r="F261" t="s">
+        <v>25</v>
       </c>
       <c r="G261" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H261" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I261">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J261" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="K261" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="L261" t="s">
         <v>23</v>
@@ -13982,7 +14000,7 @@
         <v>23</v>
       </c>
       <c r="N261" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="O261" t="s">
         <v>23</v>
@@ -13990,16 +14008,16 @@
     </row>
     <row r="262" spans="1:15">
       <c r="A262" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B262" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C262" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D262" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="G262" t="s">
         <v>20</v>
@@ -14011,10 +14029,10 @@
         <v>1</v>
       </c>
       <c r="J262" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K262" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="L262" t="s">
         <v>23</v>
@@ -14023,7 +14041,7 @@
         <v>23</v>
       </c>
       <c r="N262" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O262" t="s">
         <v>23</v>
@@ -14031,31 +14049,25 @@
     </row>
     <row r="263" spans="1:15">
       <c r="A263" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B263" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C263" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="D263" t="s">
-        <v>508</v>
-      </c>
-      <c r="E263">
-        <v>6</v>
-      </c>
-      <c r="F263" t="s">
-        <v>75</v>
+        <v>511</v>
       </c>
       <c r="G263" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="H263" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="I263">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J263" t="s">
         <v>21</v>
@@ -14078,16 +14090,16 @@
     </row>
     <row r="264" spans="1:15">
       <c r="A264" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B264" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C264" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="D264" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E264">
         <v>6</v>
@@ -14099,10 +14111,10 @@
         <v>76</v>
       </c>
       <c r="H264" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I264">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J264" t="s">
         <v>21</v>
@@ -14125,16 +14137,16 @@
     </row>
     <row r="265" spans="1:15">
       <c r="A265" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B265" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C265" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D265" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E265">
         <v>6</v>
@@ -14146,16 +14158,16 @@
         <v>76</v>
       </c>
       <c r="H265" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I265">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J265" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="K265" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="L265" t="s">
         <v>23</v>
@@ -14164,7 +14176,7 @@
         <v>23</v>
       </c>
       <c r="N265" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="O265" t="s">
         <v>23</v>
@@ -14172,31 +14184,37 @@
     </row>
     <row r="266" spans="1:15">
       <c r="A266" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B266" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="C266" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D266" t="s">
-        <v>514</v>
+        <v>515</v>
+      </c>
+      <c r="E266">
+        <v>6</v>
+      </c>
+      <c r="F266" t="s">
+        <v>75</v>
       </c>
       <c r="G266" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="H266" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="I266">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J266" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K266" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="L266" t="s">
         <v>23</v>
@@ -14205,7 +14223,7 @@
         <v>23</v>
       </c>
       <c r="N266" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O266" t="s">
         <v>23</v>
@@ -14213,31 +14231,25 @@
     </row>
     <row r="267" spans="1:15">
       <c r="A267" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B267" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="C267" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="D267" t="s">
-        <v>515</v>
-      </c>
-      <c r="E267">
-        <v>6</v>
-      </c>
-      <c r="F267" t="s">
-        <v>75</v>
+        <v>518</v>
       </c>
       <c r="G267" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="H267" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I267">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J267" t="s">
         <v>21</v>
@@ -14263,22 +14275,28 @@
         <v>516</v>
       </c>
       <c r="B268" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="C268" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D268" t="s">
-        <v>517</v>
+        <v>519</v>
+      </c>
+      <c r="E268">
+        <v>6</v>
+      </c>
+      <c r="F268" t="s">
+        <v>75</v>
       </c>
       <c r="G268" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="H268" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="I268">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J268" t="s">
         <v>21</v>
@@ -14301,31 +14319,25 @@
     </row>
     <row r="269" spans="1:15">
       <c r="A269" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B269" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="C269" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D269" t="s">
-        <v>518</v>
-      </c>
-      <c r="E269">
-        <v>8</v>
-      </c>
-      <c r="F269" t="s">
-        <v>25</v>
+        <v>521</v>
       </c>
       <c r="G269" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H269" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I269">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J269" t="s">
         <v>21</v>
@@ -14348,25 +14360,31 @@
     </row>
     <row r="270" spans="1:15">
       <c r="A270" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B270" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="C270" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D270" t="s">
-        <v>520</v>
+        <v>522</v>
+      </c>
+      <c r="E270">
+        <v>8</v>
+      </c>
+      <c r="F270" t="s">
+        <v>25</v>
       </c>
       <c r="G270" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H270" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I270">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J270" t="s">
         <v>21</v>
@@ -14389,31 +14407,25 @@
     </row>
     <row r="271" spans="1:15">
       <c r="A271" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B271" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="C271" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D271" t="s">
-        <v>521</v>
-      </c>
-      <c r="E271">
-        <v>8</v>
-      </c>
-      <c r="F271" t="s">
-        <v>25</v>
+        <v>524</v>
       </c>
       <c r="G271" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H271" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I271">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J271" t="s">
         <v>21</v>
@@ -14436,16 +14448,16 @@
     </row>
     <row r="272" spans="1:15">
       <c r="A272" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B272" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="C272" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D272" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E272">
         <v>8</v>
@@ -14454,13 +14466,13 @@
         <v>25</v>
       </c>
       <c r="G272" t="s">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="H272" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="I272">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J272" t="s">
         <v>21</v>
@@ -14486,22 +14498,28 @@
         <v>523</v>
       </c>
       <c r="B273" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="C273" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D273" t="s">
-        <v>525</v>
+        <v>526</v>
+      </c>
+      <c r="E273">
+        <v>8</v>
+      </c>
+      <c r="F273" t="s">
+        <v>25</v>
       </c>
       <c r="G273" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="H273" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="I273">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J273" t="s">
         <v>21</v>
@@ -14524,31 +14542,25 @@
     </row>
     <row r="274" spans="1:15">
       <c r="A274" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B274" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C274" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="D274" t="s">
-        <v>526</v>
-      </c>
-      <c r="E274">
-        <v>8</v>
-      </c>
-      <c r="F274" t="s">
-        <v>25</v>
+        <v>529</v>
       </c>
       <c r="G274" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="H274" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="I274">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J274" t="s">
         <v>21</v>
@@ -14577,19 +14589,25 @@
         <v>528</v>
       </c>
       <c r="C275" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D275" t="s">
-        <v>529</v>
+        <v>530</v>
+      </c>
+      <c r="E275">
+        <v>8</v>
+      </c>
+      <c r="F275" t="s">
+        <v>25</v>
       </c>
       <c r="G275" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="H275" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="I275">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J275" t="s">
         <v>21</v>
@@ -14612,31 +14630,25 @@
     </row>
     <row r="276" spans="1:15">
       <c r="A276" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B276" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="C276" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="D276" t="s">
-        <v>530</v>
-      </c>
-      <c r="E276">
-        <v>8</v>
-      </c>
-      <c r="F276" t="s">
-        <v>25</v>
+        <v>533</v>
       </c>
       <c r="G276" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H276" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I276">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J276" t="s">
         <v>21</v>
@@ -14659,16 +14671,16 @@
     </row>
     <row r="277" spans="1:15">
       <c r="A277" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B277" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="C277" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="D277" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="E277">
         <v>8</v>
@@ -14680,10 +14692,10 @@
         <v>46</v>
       </c>
       <c r="H277" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I277">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J277" t="s">
         <v>21</v>
@@ -14706,25 +14718,31 @@
     </row>
     <row r="278" spans="1:15">
       <c r="A278" t="s">
+        <v>531</v>
+      </c>
+      <c r="B278" t="s">
         <v>532</v>
       </c>
-      <c r="B278" t="s">
-        <v>533</v>
-      </c>
       <c r="C278" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D278" t="s">
-        <v>534</v>
+        <v>535</v>
+      </c>
+      <c r="E278">
+        <v>8</v>
+      </c>
+      <c r="F278" t="s">
+        <v>25</v>
       </c>
       <c r="G278" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H278" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I278">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J278" t="s">
         <v>21</v>
@@ -14747,31 +14765,25 @@
     </row>
     <row r="279" spans="1:15">
       <c r="A279" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B279" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C279" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="D279" t="s">
-        <v>535</v>
-      </c>
-      <c r="E279">
-        <v>7</v>
-      </c>
-      <c r="F279" t="s">
-        <v>54</v>
+        <v>538</v>
       </c>
       <c r="G279" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H279" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="I279">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J279" t="s">
         <v>21</v>
@@ -14794,16 +14806,16 @@
     </row>
     <row r="280" spans="1:15">
       <c r="A280" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B280" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C280" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="D280" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="E280">
         <v>7</v>
@@ -14815,10 +14827,10 @@
         <v>55</v>
       </c>
       <c r="H280" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I280">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J280" t="s">
         <v>21</v>
@@ -14841,16 +14853,16 @@
     </row>
     <row r="281" spans="1:15">
       <c r="A281" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B281" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C281" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="D281" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="E281">
         <v>7</v>
@@ -14859,13 +14871,13 @@
         <v>54</v>
       </c>
       <c r="G281" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H281" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I281">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J281" t="s">
         <v>21</v>
@@ -14888,16 +14900,16 @@
     </row>
     <row r="282" spans="1:15">
       <c r="A282" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B282" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C282" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="D282" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="E282">
         <v>7</v>
@@ -14909,10 +14921,10 @@
         <v>60</v>
       </c>
       <c r="H282" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I282">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J282" t="s">
         <v>21</v>
@@ -14935,16 +14947,16 @@
     </row>
     <row r="283" spans="1:15">
       <c r="A283" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B283" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C283" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D283" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E283">
         <v>7</v>
@@ -14956,13 +14968,13 @@
         <v>60</v>
       </c>
       <c r="H283" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I283">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J283" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="K283" t="s">
         <v>22</v>
@@ -14974,7 +14986,7 @@
         <v>23</v>
       </c>
       <c r="N283" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="O283" t="s">
         <v>23</v>
@@ -14982,16 +14994,16 @@
     </row>
     <row r="284" spans="1:15">
       <c r="A284" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B284" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C284" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D284" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="E284">
         <v>7</v>
@@ -15003,13 +15015,13 @@
         <v>60</v>
       </c>
       <c r="H284" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I284">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J284" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K284" t="s">
         <v>22</v>
@@ -15029,16 +15041,16 @@
     </row>
     <row r="285" spans="1:15">
       <c r="A285" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B285" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C285" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="D285" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="E285">
         <v>7</v>
@@ -15050,13 +15062,13 @@
         <v>60</v>
       </c>
       <c r="H285" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I285">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J285" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="K285" t="s">
         <v>22</v>
@@ -15076,16 +15088,16 @@
     </row>
     <row r="286" spans="1:15">
       <c r="A286" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B286" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C286" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D286" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="E286">
         <v>7</v>
@@ -15094,13 +15106,13 @@
         <v>54</v>
       </c>
       <c r="G286" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H286" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I286">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J286" t="s">
         <v>38</v>
@@ -15123,16 +15135,16 @@
     </row>
     <row r="287" spans="1:15">
       <c r="A287" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B287" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C287" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="D287" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="E287">
         <v>7</v>
@@ -15144,13 +15156,13 @@
         <v>55</v>
       </c>
       <c r="H287" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I287">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J287" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K287" t="s">
         <v>22</v>
@@ -15170,25 +15182,31 @@
     </row>
     <row r="288" spans="1:15">
       <c r="A288" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="B288" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="C288" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D288" t="s">
-        <v>548</v>
+        <v>549</v>
+      </c>
+      <c r="E288">
+        <v>7</v>
+      </c>
+      <c r="F288" t="s">
+        <v>54</v>
       </c>
       <c r="G288" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="H288" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="I288">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J288" t="s">
         <v>21</v>
@@ -15203,7 +15221,7 @@
         <v>23</v>
       </c>
       <c r="N288" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O288" t="s">
         <v>23</v>
@@ -15211,31 +15229,25 @@
     </row>
     <row r="289" spans="1:15">
       <c r="A289" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B289" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="C289" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="D289" t="s">
-        <v>549</v>
-      </c>
-      <c r="E289">
-        <v>7</v>
-      </c>
-      <c r="F289" t="s">
-        <v>54</v>
+        <v>552</v>
       </c>
       <c r="G289" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H289" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="I289">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J289" t="s">
         <v>21</v>
@@ -15258,16 +15270,16 @@
     </row>
     <row r="290" spans="1:15">
       <c r="A290" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B290" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="C290" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="D290" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E290">
         <v>7</v>
@@ -15276,13 +15288,13 @@
         <v>54</v>
       </c>
       <c r="G290" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H290" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I290">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J290" t="s">
         <v>21</v>
@@ -15305,16 +15317,16 @@
     </row>
     <row r="291" spans="1:15">
       <c r="A291" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B291" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="C291" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="D291" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E291">
         <v>7</v>
@@ -15326,10 +15338,10 @@
         <v>60</v>
       </c>
       <c r="H291" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I291">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J291" t="s">
         <v>21</v>
@@ -15352,16 +15364,16 @@
     </row>
     <row r="292" spans="1:15">
       <c r="A292" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B292" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="C292" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D292" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="E292">
         <v>7</v>
@@ -15373,16 +15385,16 @@
         <v>60</v>
       </c>
       <c r="H292" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I292">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J292" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="K292" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="L292" t="s">
         <v>23</v>
@@ -15391,7 +15403,7 @@
         <v>23</v>
       </c>
       <c r="N292" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="O292" t="s">
         <v>23</v>
@@ -15399,31 +15411,37 @@
     </row>
     <row r="293" spans="1:15">
       <c r="A293" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B293" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C293" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D293" t="s">
-        <v>556</v>
+        <v>557</v>
+      </c>
+      <c r="E293">
+        <v>7</v>
+      </c>
+      <c r="F293" t="s">
+        <v>54</v>
       </c>
       <c r="G293" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H293" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="I293">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J293" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K293" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="L293" t="s">
         <v>23</v>
@@ -15432,7 +15450,7 @@
         <v>23</v>
       </c>
       <c r="N293" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O293" t="s">
         <v>23</v>
@@ -15440,31 +15458,25 @@
     </row>
     <row r="294" spans="1:15">
       <c r="A294" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="B294" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C294" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D294" t="s">
-        <v>557</v>
-      </c>
-      <c r="E294">
-        <v>8</v>
-      </c>
-      <c r="F294" t="s">
-        <v>25</v>
+        <v>560</v>
       </c>
       <c r="G294" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="H294" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="I294">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J294" t="s">
         <v>21</v>
@@ -15490,22 +15502,28 @@
         <v>558</v>
       </c>
       <c r="B295" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C295" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D295" t="s">
-        <v>559</v>
+        <v>561</v>
+      </c>
+      <c r="E295">
+        <v>8</v>
+      </c>
+      <c r="F295" t="s">
+        <v>25</v>
       </c>
       <c r="G295" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="H295" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="I295">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J295" t="s">
         <v>21</v>
@@ -15528,16 +15546,16 @@
     </row>
     <row r="296" spans="1:15">
       <c r="A296" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B296" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C296" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D296" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G296" t="s">
         <v>20</v>
@@ -15569,31 +15587,25 @@
     </row>
     <row r="297" spans="1:15">
       <c r="A297" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B297" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C297" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="D297" t="s">
-        <v>564</v>
-      </c>
-      <c r="E297">
-        <v>8</v>
-      </c>
-      <c r="F297" t="s">
-        <v>25</v>
+        <v>566</v>
       </c>
       <c r="G297" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H297" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I297">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J297" t="s">
         <v>21</v>
@@ -15616,16 +15628,16 @@
     </row>
     <row r="298" spans="1:15">
       <c r="A298" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B298" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C298" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D298" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="E298">
         <v>8</v>
@@ -15637,10 +15649,10 @@
         <v>32</v>
       </c>
       <c r="H298" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I298">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J298" t="s">
         <v>21</v>
@@ -15663,16 +15675,16 @@
     </row>
     <row r="299" spans="1:15">
       <c r="A299" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B299" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C299" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="D299" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="E299">
         <v>8</v>
@@ -15684,13 +15696,13 @@
         <v>32</v>
       </c>
       <c r="H299" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I299">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J299" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="K299" t="s">
         <v>22</v>
@@ -15702,7 +15714,7 @@
         <v>23</v>
       </c>
       <c r="N299" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="O299" t="s">
         <v>23</v>
@@ -15710,16 +15722,16 @@
     </row>
     <row r="300" spans="1:15">
       <c r="A300" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B300" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C300" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D300" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="E300">
         <v>8</v>
@@ -15731,13 +15743,13 @@
         <v>32</v>
       </c>
       <c r="H300" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I300">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J300" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K300" t="s">
         <v>22</v>
@@ -15757,16 +15769,16 @@
     </row>
     <row r="301" spans="1:15">
       <c r="A301" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B301" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C301" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="D301" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E301">
         <v>8</v>
@@ -15778,13 +15790,13 @@
         <v>32</v>
       </c>
       <c r="H301" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I301">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J301" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="K301" t="s">
         <v>22</v>
@@ -15804,16 +15816,16 @@
     </row>
     <row r="302" spans="1:15">
       <c r="A302" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B302" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C302" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="D302" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E302">
         <v>8</v>
@@ -15825,13 +15837,13 @@
         <v>32</v>
       </c>
       <c r="H302" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I302">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J302" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K302" t="s">
         <v>22</v>
@@ -15851,16 +15863,16 @@
     </row>
     <row r="303" spans="1:15">
       <c r="A303" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B303" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C303" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D303" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="E303">
         <v>8</v>
@@ -15872,13 +15884,13 @@
         <v>32</v>
       </c>
       <c r="H303" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I303">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J303" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="K303" t="s">
         <v>22</v>
@@ -15898,16 +15910,16 @@
     </row>
     <row r="304" spans="1:15">
       <c r="A304" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B304" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C304" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="D304" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E304">
         <v>8</v>
@@ -15919,13 +15931,13 @@
         <v>32</v>
       </c>
       <c r="H304" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I304">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J304" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K304" t="s">
         <v>22</v>
@@ -15945,16 +15957,16 @@
     </row>
     <row r="305" spans="1:15">
       <c r="A305" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B305" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C305" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="D305" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="E305">
         <v>8</v>
@@ -15966,16 +15978,16 @@
         <v>32</v>
       </c>
       <c r="H305" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I305">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J305" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="K305" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="L305" t="s">
         <v>23</v>
@@ -15992,31 +16004,37 @@
     </row>
     <row r="306" spans="1:15">
       <c r="A306" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="B306" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C306" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D306" t="s">
-        <v>581</v>
+        <v>583</v>
+      </c>
+      <c r="E306">
+        <v>8</v>
+      </c>
+      <c r="F306" t="s">
+        <v>25</v>
       </c>
       <c r="G306" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H306" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I306">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J306" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K306" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="L306" t="s">
         <v>23</v>
@@ -16025,7 +16043,7 @@
         <v>23</v>
       </c>
       <c r="N306" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O306" t="s">
         <v>23</v>
@@ -16033,31 +16051,25 @@
     </row>
     <row r="307" spans="1:15">
       <c r="A307" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="B307" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C307" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="D307" t="s">
-        <v>583</v>
-      </c>
-      <c r="E307">
-        <v>8</v>
-      </c>
-      <c r="F307" t="s">
-        <v>25</v>
+        <v>585</v>
       </c>
       <c r="G307" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H307" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I307">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J307" t="s">
         <v>21</v>
@@ -16080,16 +16092,16 @@
     </row>
     <row r="308" spans="1:15">
       <c r="A308" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="B308" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C308" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D308" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="E308">
         <v>8</v>
@@ -16101,10 +16113,10 @@
         <v>32</v>
       </c>
       <c r="H308" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I308">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J308" t="s">
         <v>21</v>
@@ -16127,16 +16139,16 @@
     </row>
     <row r="309" spans="1:15">
       <c r="A309" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="B309" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C309" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D309" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E309">
         <v>8</v>
@@ -16145,13 +16157,13 @@
         <v>25</v>
       </c>
       <c r="G309" t="s">
-        <v>412</v>
+        <v>32</v>
       </c>
       <c r="H309" t="s">
-        <v>416</v>
+        <v>35</v>
       </c>
       <c r="I309">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J309" t="s">
         <v>21</v>
@@ -16174,16 +16186,16 @@
     </row>
     <row r="310" spans="1:15">
       <c r="A310" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="B310" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C310" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D310" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="E310">
         <v>8</v>
@@ -16192,16 +16204,16 @@
         <v>25</v>
       </c>
       <c r="G310" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="H310" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="I310">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J310" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="K310" t="s">
         <v>22</v>
@@ -16213,7 +16225,7 @@
         <v>23</v>
       </c>
       <c r="N310" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="O310" t="s">
         <v>23</v>
@@ -16221,16 +16233,16 @@
     </row>
     <row r="311" spans="1:15">
       <c r="A311" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="B311" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C311" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="D311" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="E311">
         <v>8</v>
@@ -16239,16 +16251,16 @@
         <v>25</v>
       </c>
       <c r="G311" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="H311" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="I311">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J311" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K311" t="s">
         <v>22</v>
@@ -16268,25 +16280,31 @@
     </row>
     <row r="312" spans="1:15">
       <c r="A312" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="B312" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C312" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D312" t="s">
-        <v>592</v>
+        <v>594</v>
+      </c>
+      <c r="E312">
+        <v>8</v>
+      </c>
+      <c r="F312" t="s">
+        <v>25</v>
       </c>
       <c r="G312" t="s">
-        <v>20</v>
+        <v>416</v>
       </c>
       <c r="H312" t="s">
-        <v>20</v>
+        <v>420</v>
       </c>
       <c r="I312">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J312" t="s">
         <v>21</v>
@@ -16301,7 +16319,7 @@
         <v>23</v>
       </c>
       <c r="N312" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O312" t="s">
         <v>23</v>
@@ -16309,31 +16327,25 @@
     </row>
     <row r="313" spans="1:15">
       <c r="A313" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="B313" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C313" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="D313" t="s">
-        <v>593</v>
-      </c>
-      <c r="E313">
-        <v>8</v>
-      </c>
-      <c r="F313" t="s">
-        <v>25</v>
+        <v>596</v>
       </c>
       <c r="G313" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H313" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I313">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J313" t="s">
         <v>21</v>
@@ -16356,25 +16368,31 @@
     </row>
     <row r="314" spans="1:15">
       <c r="A314" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B314" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C314" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D314" t="s">
-        <v>596</v>
+        <v>597</v>
+      </c>
+      <c r="E314">
+        <v>8</v>
+      </c>
+      <c r="F314" t="s">
+        <v>25</v>
       </c>
       <c r="G314" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H314" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I314">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J314" t="s">
         <v>21</v>
@@ -16397,31 +16415,25 @@
     </row>
     <row r="315" spans="1:15">
       <c r="A315" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="B315" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C315" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D315" t="s">
-        <v>598</v>
-      </c>
-      <c r="E315">
-        <v>6</v>
-      </c>
-      <c r="F315" t="s">
-        <v>75</v>
+        <v>600</v>
       </c>
       <c r="G315" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="H315" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="I315">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J315" t="s">
         <v>21</v>
@@ -16444,16 +16456,16 @@
     </row>
     <row r="316" spans="1:15">
       <c r="A316" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="B316" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C316" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D316" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="E316">
         <v>6</v>
@@ -16465,10 +16477,10 @@
         <v>76</v>
       </c>
       <c r="H316" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I316">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J316" t="s">
         <v>21</v>
@@ -16491,25 +16503,31 @@
     </row>
     <row r="317" spans="1:15">
       <c r="A317" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B317" t="s">
-        <v>601</v>
+        <v>565</v>
       </c>
       <c r="C317" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D317" t="s">
-        <v>602</v>
+        <v>603</v>
+      </c>
+      <c r="E317">
+        <v>6</v>
+      </c>
+      <c r="F317" t="s">
+        <v>75</v>
       </c>
       <c r="G317" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="H317" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="I317">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J317" t="s">
         <v>21</v>
@@ -16532,16 +16550,16 @@
     </row>
     <row r="318" spans="1:15">
       <c r="A318" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B318" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C318" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D318" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="G318" t="s">
         <v>20</v>
@@ -16573,16 +16591,16 @@
     </row>
     <row r="319" spans="1:15">
       <c r="A319" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B319" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="C319" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D319" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="G319" t="s">
         <v>20</v>
@@ -16602,37 +16620,37 @@
       <c r="L319" t="s">
         <v>23</v>
       </c>
+      <c r="M319" t="s">
+        <v>23</v>
+      </c>
+      <c r="N319" t="s">
+        <v>23</v>
+      </c>
       <c r="O319" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="320" spans="1:15">
       <c r="A320" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="B320" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="C320" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="D320" t="s">
-        <v>608</v>
-      </c>
-      <c r="E320">
-        <v>6</v>
-      </c>
-      <c r="F320" t="s">
-        <v>75</v>
+        <v>611</v>
       </c>
       <c r="G320" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="H320" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="I320">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J320" t="s">
         <v>21</v>
@@ -16641,7 +16659,7 @@
         <v>22</v>
       </c>
       <c r="L320" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="O320" t="s">
         <v>39</v>
@@ -16649,16 +16667,16 @@
     </row>
     <row r="321" spans="1:15">
       <c r="A321" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="B321" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="C321" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="D321" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="E321">
         <v>6</v>
@@ -16670,10 +16688,10 @@
         <v>76</v>
       </c>
       <c r="H321" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I321">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J321" t="s">
         <v>21</v>
@@ -16690,16 +16708,16 @@
     </row>
     <row r="322" spans="1:15">
       <c r="A322" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="B322" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="C322" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="D322" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="E322">
         <v>6</v>
@@ -16711,16 +16729,16 @@
         <v>76</v>
       </c>
       <c r="H322" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I322">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J322" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="K322" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="L322" t="s">
         <v>39</v>
@@ -16731,32 +16749,35 @@
     </row>
     <row r="323" spans="1:15">
       <c r="A323" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="B323" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="C323" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="D323" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="E323">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F323" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G323" t="s">
-        <v>380</v>
+        <v>76</v>
       </c>
       <c r="H323" t="s">
-        <v>381</v>
+        <v>77</v>
       </c>
       <c r="I323">
         <v>2</v>
       </c>
+      <c r="J323" t="s">
+        <v>38</v>
+      </c>
       <c r="K323" t="s">
         <v>66</v>
       </c>
@@ -16769,19 +16790,19 @@
     </row>
     <row r="324" spans="1:15">
       <c r="A324" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="B324" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="C324" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D324" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="E324">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F324" t="s">
         <v>66</v>
@@ -16799,7 +16820,7 @@
         <v>66</v>
       </c>
       <c r="L324" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O324" t="s">
         <v>39</v>
@@ -16807,57 +16828,54 @@
     </row>
     <row r="325" spans="1:15">
       <c r="A325" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B325" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="C325" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D325" t="s">
-        <v>616</v>
+        <v>618</v>
+      </c>
+      <c r="E325">
+        <v>4</v>
+      </c>
+      <c r="F325" t="s">
+        <v>66</v>
       </c>
       <c r="G325" t="s">
-        <v>20</v>
+        <v>388</v>
       </c>
       <c r="H325" t="s">
-        <v>20</v>
+        <v>389</v>
       </c>
       <c r="I325">
-        <v>1</v>
-      </c>
-      <c r="J325" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="K325" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="L325" t="s">
         <v>23</v>
       </c>
-      <c r="M325" t="s">
-        <v>23</v>
-      </c>
-      <c r="N325" t="s">
-        <v>23</v>
-      </c>
       <c r="O325" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="326" spans="1:15">
       <c r="A326" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B326" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="C326" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D326" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G326" t="s">
         <v>20</v>
@@ -16889,16 +16907,16 @@
     </row>
     <row r="327" spans="1:15">
       <c r="A327" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B327" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C327" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D327" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G327" t="s">
         <v>20</v>
@@ -16930,16 +16948,16 @@
     </row>
     <row r="328" spans="1:15">
       <c r="A328" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B328" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="C328" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="D328" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="G328" t="s">
         <v>20</v>
@@ -16971,31 +16989,25 @@
     </row>
     <row r="329" spans="1:15">
       <c r="A329" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="B329" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="C329" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="D329" t="s">
-        <v>625</v>
-      </c>
-      <c r="E329">
-        <v>8</v>
-      </c>
-      <c r="F329" t="s">
-        <v>25</v>
+        <v>628</v>
       </c>
       <c r="G329" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H329" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I329">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J329" t="s">
         <v>21</v>
@@ -17018,16 +17030,16 @@
     </row>
     <row r="330" spans="1:15">
       <c r="A330" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="B330" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="C330" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="D330" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="E330">
         <v>8</v>
@@ -17036,13 +17048,13 @@
         <v>25</v>
       </c>
       <c r="G330" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H330" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="I330">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J330" t="s">
         <v>21</v>
@@ -17065,16 +17077,16 @@
     </row>
     <row r="331" spans="1:15">
       <c r="A331" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="B331" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="C331" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="D331" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="E331">
         <v>8</v>
@@ -17086,10 +17098,10 @@
         <v>46</v>
       </c>
       <c r="H331" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I331">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J331" t="s">
         <v>21</v>
@@ -17112,25 +17124,31 @@
     </row>
     <row r="332" spans="1:15">
       <c r="A332" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B332" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="C332" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="D332" t="s">
-        <v>629</v>
+        <v>631</v>
+      </c>
+      <c r="E332">
+        <v>8</v>
+      </c>
+      <c r="F332" t="s">
+        <v>25</v>
       </c>
       <c r="G332" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H332" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I332">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J332" t="s">
         <v>21</v>
@@ -17153,31 +17171,25 @@
     </row>
     <row r="333" spans="1:15">
       <c r="A333" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="B333" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="C333" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="D333" t="s">
-        <v>630</v>
-      </c>
-      <c r="E333">
-        <v>8</v>
-      </c>
-      <c r="F333" t="s">
-        <v>25</v>
+        <v>633</v>
       </c>
       <c r="G333" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H333" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I333">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J333" t="s">
         <v>21</v>
@@ -17200,16 +17212,16 @@
     </row>
     <row r="334" spans="1:15">
       <c r="A334" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="B334" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="C334" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="D334" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="E334">
         <v>8</v>
@@ -17221,10 +17233,10 @@
         <v>46</v>
       </c>
       <c r="H334" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I334">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J334" t="s">
         <v>21</v>
@@ -17250,22 +17262,28 @@
         <v>632</v>
       </c>
       <c r="B335" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="C335" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="D335" t="s">
-        <v>633</v>
+        <v>635</v>
+      </c>
+      <c r="E335">
+        <v>8</v>
+      </c>
+      <c r="F335" t="s">
+        <v>25</v>
       </c>
       <c r="G335" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H335" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I335">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J335" t="s">
         <v>21</v>
@@ -17288,31 +17306,25 @@
     </row>
     <row r="336" spans="1:15">
       <c r="A336" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="B336" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="C336" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="D336" t="s">
-        <v>634</v>
-      </c>
-      <c r="E336">
-        <v>8</v>
-      </c>
-      <c r="F336" t="s">
-        <v>25</v>
+        <v>637</v>
       </c>
       <c r="G336" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="H336" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="I336">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J336" t="s">
         <v>21</v>
@@ -17335,25 +17347,31 @@
     </row>
     <row r="337" spans="1:15">
       <c r="A337" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B337" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="C337" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D337" t="s">
-        <v>637</v>
+        <v>638</v>
+      </c>
+      <c r="E337">
+        <v>8</v>
+      </c>
+      <c r="F337" t="s">
+        <v>25</v>
       </c>
       <c r="G337" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="H337" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="I337">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J337" t="s">
         <v>21</v>
@@ -17376,31 +17394,25 @@
     </row>
     <row r="338" spans="1:15">
       <c r="A338" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="B338" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="C338" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="D338" t="s">
-        <v>638</v>
-      </c>
-      <c r="E338">
-        <v>8</v>
-      </c>
-      <c r="F338" t="s">
-        <v>25</v>
+        <v>641</v>
       </c>
       <c r="G338" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="H338" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="I338">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J338" t="s">
         <v>21</v>
@@ -17429,41 +17441,88 @@
         <v>640</v>
       </c>
       <c r="C339" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D339" t="s">
-        <v>641</v>
+        <v>642</v>
+      </c>
+      <c r="E339">
+        <v>8</v>
+      </c>
+      <c r="F339" t="s">
+        <v>25</v>
       </c>
       <c r="G339" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="H339" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="I339">
+        <v>4</v>
+      </c>
+      <c r="J339" t="s">
+        <v>21</v>
+      </c>
+      <c r="K339" t="s">
+        <v>22</v>
+      </c>
+      <c r="L339" t="s">
+        <v>23</v>
+      </c>
+      <c r="M339" t="s">
+        <v>23</v>
+      </c>
+      <c r="N339" t="s">
+        <v>23</v>
+      </c>
+      <c r="O339" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="340" spans="1:15">
+      <c r="A340" t="s">
+        <v>643</v>
+      </c>
+      <c r="B340" t="s">
+        <v>644</v>
+      </c>
+      <c r="C340" t="s">
+        <v>645</v>
+      </c>
+      <c r="D340" t="s">
+        <v>645</v>
+      </c>
+      <c r="G340" t="s">
+        <v>20</v>
+      </c>
+      <c r="H340" t="s">
+        <v>20</v>
+      </c>
+      <c r="I340">
         <v>1</v>
       </c>
-      <c r="J339" t="s">
-        <v>21</v>
-      </c>
-      <c r="K339" t="s">
-        <v>22</v>
-      </c>
-      <c r="L339" t="s">
-        <v>23</v>
-      </c>
-      <c r="M339" t="s">
-        <v>23</v>
-      </c>
-      <c r="N339" t="s">
-        <v>23</v>
-      </c>
-      <c r="O339" t="s">
+      <c r="J340" t="s">
+        <v>21</v>
+      </c>
+      <c r="K340" t="s">
+        <v>22</v>
+      </c>
+      <c r="L340" t="s">
+        <v>23</v>
+      </c>
+      <c r="M340" t="s">
+        <v>23</v>
+      </c>
+      <c r="N340" t="s">
+        <v>23</v>
+      </c>
+      <c r="O340" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P339"/>
+  <autoFilter ref="A1:P340"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/outgoing/PITcleanr/PRO_Steelhead_2019.xlsx
+++ b/outgoing/PITcleanr/PRO_Steelhead_2019.xlsx
@@ -10,14 +10,14 @@
     <sheet name="ProcCapHist" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ProcCapHist!$A$1:$P$355</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ProcCapHist!$A$1:$P$362</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4478" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4568" uniqueCount="679">
   <si>
     <t>TagID</t>
   </si>
@@ -1213,10 +1213,34 @@
     <t>2019-03-22 11:55:19</t>
   </si>
   <si>
+    <t>3D9.1C2D70563A</t>
+  </si>
+  <si>
+    <t>2018-12-05</t>
+  </si>
+  <si>
+    <t>2018-12-05 09:16:19</t>
+  </si>
+  <si>
+    <t>2019-01-22 19:59:36</t>
+  </si>
+  <si>
+    <t>2019-01-22 19:59:58</t>
+  </si>
+  <si>
+    <t>2019-03-15 21:05:36</t>
+  </si>
+  <si>
+    <t>2019-03-15 21:06:15</t>
+  </si>
+  <si>
+    <t>2019-05-05 01:35:05</t>
+  </si>
+  <si>
+    <t>2019-05-05 01:35:13</t>
+  </si>
+  <si>
     <t>3DD.00773768EF</t>
-  </si>
-  <si>
-    <t>2018-12-05</t>
   </si>
   <si>
     <t>2018-12-05 09:08:33</t>
@@ -2370,7 +2394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P355"/>
+  <dimension ref="A1:P362"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -11352,8 +11376,14 @@
       <c r="L199" t="s">
         <v>23</v>
       </c>
+      <c r="M199" t="s">
+        <v>23</v>
+      </c>
+      <c r="N199" t="s">
+        <v>23</v>
+      </c>
       <c r="O199" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="200" spans="1:15">
@@ -11367,19 +11397,19 @@
         <v>401</v>
       </c>
       <c r="D200" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E200">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F200" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="G200" t="s">
-        <v>403</v>
+        <v>55</v>
       </c>
       <c r="H200" t="s">
-        <v>404</v>
+        <v>56</v>
       </c>
       <c r="I200">
         <v>2</v>
@@ -11391,10 +11421,16 @@
         <v>22</v>
       </c>
       <c r="L200" t="s">
-        <v>39</v>
+        <v>23</v>
+      </c>
+      <c r="M200" t="s">
+        <v>23</v>
+      </c>
+      <c r="N200" t="s">
+        <v>23</v>
       </c>
       <c r="O200" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="201" spans="1:15">
@@ -11405,25 +11441,28 @@
         <v>399</v>
       </c>
       <c r="C201" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D201" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E201">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F201" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="G201" t="s">
-        <v>407</v>
+        <v>55</v>
       </c>
       <c r="H201" t="s">
-        <v>408</v>
+        <v>58</v>
       </c>
       <c r="I201">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="J201" t="s">
+        <v>21</v>
       </c>
       <c r="K201" t="s">
         <v>22</v>
@@ -11431,8 +11470,14 @@
       <c r="L201" t="s">
         <v>23</v>
       </c>
+      <c r="M201" t="s">
+        <v>23</v>
+      </c>
+      <c r="N201" t="s">
+        <v>23</v>
+      </c>
       <c r="O201" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="202" spans="1:15">
@@ -11443,26 +11488,26 @@
         <v>399</v>
       </c>
       <c r="C202" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D202" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="E202">
+        <v>7</v>
+      </c>
+      <c r="F202" t="s">
+        <v>54</v>
+      </c>
+      <c r="G202" t="s">
+        <v>243</v>
+      </c>
+      <c r="H202" t="s">
+        <v>244</v>
+      </c>
+      <c r="I202">
         <v>4</v>
       </c>
-      <c r="F202" t="s">
-        <v>66</v>
-      </c>
-      <c r="G202" t="s">
-        <v>411</v>
-      </c>
-      <c r="H202" t="s">
-        <v>412</v>
-      </c>
-      <c r="I202">
-        <v>3</v>
-      </c>
       <c r="J202" t="s">
         <v>21</v>
       </c>
@@ -11472,31 +11517,43 @@
       <c r="L202" t="s">
         <v>23</v>
       </c>
+      <c r="M202" t="s">
+        <v>23</v>
+      </c>
+      <c r="N202" t="s">
+        <v>23</v>
+      </c>
       <c r="O202" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="203" spans="1:15">
       <c r="A203" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="B203" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="C203" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="D203" t="s">
-        <v>415</v>
+        <v>404</v>
+      </c>
+      <c r="E203">
+        <v>7</v>
+      </c>
+      <c r="F203" t="s">
+        <v>54</v>
       </c>
       <c r="G203" t="s">
-        <v>20</v>
+        <v>243</v>
       </c>
       <c r="H203" t="s">
-        <v>20</v>
+        <v>247</v>
       </c>
       <c r="I203">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J203" t="s">
         <v>21</v>
@@ -11519,16 +11576,16 @@
     </row>
     <row r="204" spans="1:15">
       <c r="A204" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="B204" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="C204" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="D204" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="E204">
         <v>7</v>
@@ -11540,16 +11597,16 @@
         <v>55</v>
       </c>
       <c r="H204" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I204">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J204" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K204" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="L204" t="s">
         <v>23</v>
@@ -11558,7 +11615,7 @@
         <v>23</v>
       </c>
       <c r="N204" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O204" t="s">
         <v>23</v>
@@ -11566,16 +11623,16 @@
     </row>
     <row r="205" spans="1:15">
       <c r="A205" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="B205" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="C205" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="D205" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="E205">
         <v>7</v>
@@ -11587,16 +11644,16 @@
         <v>55</v>
       </c>
       <c r="H205" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I205">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J205" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K205" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="L205" t="s">
         <v>23</v>
@@ -11605,7 +11662,7 @@
         <v>23</v>
       </c>
       <c r="N205" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O205" t="s">
         <v>23</v>
@@ -11613,31 +11670,25 @@
     </row>
     <row r="206" spans="1:15">
       <c r="A206" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B206" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="C206" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="D206" t="s">
-        <v>418</v>
-      </c>
-      <c r="E206">
-        <v>7</v>
-      </c>
-      <c r="F206" t="s">
-        <v>54</v>
+        <v>408</v>
       </c>
       <c r="G206" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H206" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="I206">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J206" t="s">
         <v>21</v>
@@ -11648,43 +11699,37 @@
       <c r="L206" t="s">
         <v>23</v>
       </c>
-      <c r="M206" t="s">
-        <v>23</v>
-      </c>
-      <c r="N206" t="s">
-        <v>23</v>
-      </c>
       <c r="O206" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="207" spans="1:15">
       <c r="A207" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B207" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="C207" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="D207" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="E207">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F207" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G207" t="s">
-        <v>60</v>
+        <v>411</v>
       </c>
       <c r="H207" t="s">
-        <v>64</v>
+        <v>412</v>
       </c>
       <c r="I207">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J207" t="s">
         <v>21</v>
@@ -11693,86 +11738,77 @@
         <v>22</v>
       </c>
       <c r="L207" t="s">
-        <v>23</v>
-      </c>
-      <c r="M207" t="s">
-        <v>23</v>
-      </c>
-      <c r="N207" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O207" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="208" spans="1:15">
       <c r="A208" t="s">
+        <v>407</v>
+      </c>
+      <c r="B208" t="s">
+        <v>399</v>
+      </c>
+      <c r="C208" t="s">
         <v>413</v>
       </c>
-      <c r="B208" t="s">
+      <c r="D208" t="s">
         <v>414</v>
       </c>
-      <c r="C208" t="s">
-        <v>420</v>
-      </c>
-      <c r="D208" t="s">
-        <v>420</v>
-      </c>
       <c r="E208">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F208" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G208" t="s">
-        <v>60</v>
+        <v>415</v>
       </c>
       <c r="H208" t="s">
-        <v>61</v>
+        <v>416</v>
       </c>
       <c r="I208">
-        <v>4</v>
-      </c>
-      <c r="J208" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="K208" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="L208" t="s">
         <v>23</v>
       </c>
-      <c r="M208" t="s">
-        <v>23</v>
-      </c>
-      <c r="N208" t="s">
+      <c r="O208" t="s">
         <v>39</v>
-      </c>
-      <c r="O208" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="209" spans="1:15">
       <c r="A209" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="B209" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="C209" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="D209" t="s">
-        <v>423</v>
+        <v>418</v>
+      </c>
+      <c r="E209">
+        <v>4</v>
+      </c>
+      <c r="F209" t="s">
+        <v>66</v>
       </c>
       <c r="G209" t="s">
-        <v>20</v>
+        <v>419</v>
       </c>
       <c r="H209" t="s">
-        <v>20</v>
+        <v>420</v>
       </c>
       <c r="I209">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J209" t="s">
         <v>21</v>
@@ -11783,14 +11819,8 @@
       <c r="L209" t="s">
         <v>23</v>
       </c>
-      <c r="M209" t="s">
-        <v>23</v>
-      </c>
-      <c r="N209" t="s">
-        <v>23</v>
-      </c>
       <c r="O209" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="210" spans="1:15">
@@ -11801,25 +11831,19 @@
         <v>422</v>
       </c>
       <c r="C210" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D210" t="s">
-        <v>424</v>
-      </c>
-      <c r="E210">
-        <v>8</v>
-      </c>
-      <c r="F210" t="s">
-        <v>25</v>
+        <v>423</v>
       </c>
       <c r="G210" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H210" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J210" t="s">
         <v>21</v>
@@ -11842,25 +11866,31 @@
     </row>
     <row r="211" spans="1:15">
       <c r="A211" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B211" t="s">
         <v>422</v>
       </c>
       <c r="C211" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D211" t="s">
-        <v>426</v>
+        <v>424</v>
+      </c>
+      <c r="E211">
+        <v>7</v>
+      </c>
+      <c r="F211" t="s">
+        <v>54</v>
       </c>
       <c r="G211" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="H211" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="I211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J211" t="s">
         <v>21</v>
@@ -11883,31 +11913,31 @@
     </row>
     <row r="212" spans="1:15">
       <c r="A212" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B212" t="s">
         <v>422</v>
       </c>
       <c r="C212" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D212" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E212">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F212" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="G212" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="H212" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="I212">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J212" t="s">
         <v>21</v>
@@ -11930,25 +11960,31 @@
     </row>
     <row r="213" spans="1:15">
       <c r="A213" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B213" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C213" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D213" t="s">
-        <v>430</v>
+        <v>426</v>
+      </c>
+      <c r="E213">
+        <v>7</v>
+      </c>
+      <c r="F213" t="s">
+        <v>54</v>
       </c>
       <c r="G213" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H213" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="I213">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J213" t="s">
         <v>21</v>
@@ -11971,31 +12007,31 @@
     </row>
     <row r="214" spans="1:15">
       <c r="A214" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B214" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C214" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D214" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E214">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F214" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="G214" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="H214" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="I214">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J214" t="s">
         <v>21</v>
@@ -12018,37 +12054,37 @@
     </row>
     <row r="215" spans="1:15">
       <c r="A215" t="s">
+        <v>421</v>
+      </c>
+      <c r="B215" t="s">
+        <v>422</v>
+      </c>
+      <c r="C215" t="s">
         <v>428</v>
       </c>
-      <c r="B215" t="s">
-        <v>429</v>
-      </c>
-      <c r="C215" t="s">
-        <v>432</v>
-      </c>
       <c r="D215" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="E215">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F215" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="G215" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="H215" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I215">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J215" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K215" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="L215" t="s">
         <v>23</v>
@@ -12057,7 +12093,7 @@
         <v>23</v>
       </c>
       <c r="N215" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O215" t="s">
         <v>23</v>
@@ -12065,31 +12101,25 @@
     </row>
     <row r="216" spans="1:15">
       <c r="A216" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B216" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C216" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D216" t="s">
-        <v>434</v>
-      </c>
-      <c r="E216">
-        <v>8</v>
-      </c>
-      <c r="F216" t="s">
-        <v>25</v>
+        <v>431</v>
       </c>
       <c r="G216" t="s">
-        <v>435</v>
+        <v>20</v>
       </c>
       <c r="H216" t="s">
-        <v>436</v>
+        <v>20</v>
       </c>
       <c r="I216">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J216" t="s">
         <v>21</v>
@@ -12112,16 +12142,16 @@
     </row>
     <row r="217" spans="1:15">
       <c r="A217" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B217" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C217" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D217" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="E217">
         <v>8</v>
@@ -12130,13 +12160,13 @@
         <v>25</v>
       </c>
       <c r="G217" t="s">
-        <v>435</v>
+        <v>26</v>
       </c>
       <c r="H217" t="s">
-        <v>439</v>
+        <v>27</v>
       </c>
       <c r="I217">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J217" t="s">
         <v>21</v>
@@ -12159,37 +12189,31 @@
     </row>
     <row r="218" spans="1:15">
       <c r="A218" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="B218" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C218" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D218" t="s">
-        <v>440</v>
-      </c>
-      <c r="E218">
-        <v>8</v>
-      </c>
-      <c r="F218" t="s">
-        <v>25</v>
+        <v>434</v>
       </c>
       <c r="G218" t="s">
-        <v>435</v>
+        <v>20</v>
       </c>
       <c r="H218" t="s">
-        <v>436</v>
+        <v>20</v>
       </c>
       <c r="I218">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J218" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="K218" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="L218" t="s">
         <v>23</v>
@@ -12198,7 +12222,7 @@
         <v>23</v>
       </c>
       <c r="N218" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="O218" t="s">
         <v>23</v>
@@ -12206,25 +12230,31 @@
     </row>
     <row r="219" spans="1:15">
       <c r="A219" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="B219" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C219" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="D219" t="s">
-        <v>442</v>
+        <v>435</v>
+      </c>
+      <c r="E219">
+        <v>8</v>
+      </c>
+      <c r="F219" t="s">
+        <v>25</v>
       </c>
       <c r="G219" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="H219" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="I219">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J219" t="s">
         <v>21</v>
@@ -12247,31 +12277,25 @@
     </row>
     <row r="220" spans="1:15">
       <c r="A220" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B220" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C220" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D220" t="s">
-        <v>443</v>
-      </c>
-      <c r="E220">
-        <v>6</v>
-      </c>
-      <c r="F220" t="s">
-        <v>75</v>
+        <v>438</v>
       </c>
       <c r="G220" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="H220" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I220">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J220" t="s">
         <v>21</v>
@@ -12294,25 +12318,31 @@
     </row>
     <row r="221" spans="1:15">
       <c r="A221" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="B221" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C221" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D221" t="s">
-        <v>445</v>
+        <v>439</v>
+      </c>
+      <c r="E221">
+        <v>8</v>
+      </c>
+      <c r="F221" t="s">
+        <v>25</v>
       </c>
       <c r="G221" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H221" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I221">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J221" t="s">
         <v>21</v>
@@ -12335,31 +12365,31 @@
     </row>
     <row r="222" spans="1:15">
       <c r="A222" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="B222" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C222" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D222" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="E222">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F222" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="G222" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="H222" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="I222">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J222" t="s">
         <v>21</v>
@@ -12382,31 +12412,37 @@
     </row>
     <row r="223" spans="1:15">
       <c r="A223" t="s">
+        <v>436</v>
+      </c>
+      <c r="B223" t="s">
+        <v>437</v>
+      </c>
+      <c r="C223" t="s">
+        <v>442</v>
+      </c>
+      <c r="D223" t="s">
+        <v>442</v>
+      </c>
+      <c r="E223">
+        <v>8</v>
+      </c>
+      <c r="F223" t="s">
+        <v>25</v>
+      </c>
+      <c r="G223" t="s">
+        <v>443</v>
+      </c>
+      <c r="H223" t="s">
         <v>444</v>
       </c>
-      <c r="B223" t="s">
-        <v>429</v>
-      </c>
-      <c r="C223" t="s">
-        <v>447</v>
-      </c>
-      <c r="D223" t="s">
-        <v>215</v>
-      </c>
-      <c r="G223" t="s">
-        <v>20</v>
-      </c>
-      <c r="H223" t="s">
-        <v>20</v>
-      </c>
       <c r="I223">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J223" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="K223" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="L223" t="s">
         <v>23</v>
@@ -12415,7 +12451,7 @@
         <v>23</v>
       </c>
       <c r="N223" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="O223" t="s">
         <v>23</v>
@@ -12423,25 +12459,31 @@
     </row>
     <row r="224" spans="1:15">
       <c r="A224" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="B224" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C224" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D224" t="s">
-        <v>449</v>
+        <v>446</v>
+      </c>
+      <c r="E224">
+        <v>8</v>
+      </c>
+      <c r="F224" t="s">
+        <v>25</v>
       </c>
       <c r="G224" t="s">
-        <v>20</v>
+        <v>443</v>
       </c>
       <c r="H224" t="s">
-        <v>20</v>
+        <v>447</v>
       </c>
       <c r="I224">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J224" t="s">
         <v>21</v>
@@ -12464,16 +12506,16 @@
     </row>
     <row r="225" spans="1:15">
       <c r="A225" t="s">
+        <v>436</v>
+      </c>
+      <c r="B225" t="s">
+        <v>437</v>
+      </c>
+      <c r="C225" t="s">
         <v>448</v>
       </c>
-      <c r="B225" t="s">
-        <v>429</v>
-      </c>
-      <c r="C225" t="s">
-        <v>450</v>
-      </c>
       <c r="D225" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E225">
         <v>8</v>
@@ -12482,19 +12524,19 @@
         <v>25</v>
       </c>
       <c r="G225" t="s">
-        <v>32</v>
+        <v>443</v>
       </c>
       <c r="H225" t="s">
-        <v>33</v>
+        <v>444</v>
       </c>
       <c r="I225">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J225" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K225" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="L225" t="s">
         <v>23</v>
@@ -12503,7 +12545,7 @@
         <v>23</v>
       </c>
       <c r="N225" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O225" t="s">
         <v>23</v>
@@ -12511,31 +12553,25 @@
     </row>
     <row r="226" spans="1:15">
       <c r="A226" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B226" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C226" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D226" t="s">
-        <v>453</v>
-      </c>
-      <c r="E226">
-        <v>8</v>
-      </c>
-      <c r="F226" t="s">
-        <v>25</v>
+        <v>450</v>
       </c>
       <c r="G226" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H226" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I226">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J226" t="s">
         <v>21</v>
@@ -12558,25 +12594,31 @@
     </row>
     <row r="227" spans="1:15">
       <c r="A227" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B227" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C227" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D227" t="s">
-        <v>455</v>
+        <v>451</v>
+      </c>
+      <c r="E227">
+        <v>6</v>
+      </c>
+      <c r="F227" t="s">
+        <v>75</v>
       </c>
       <c r="G227" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="H227" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="I227">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J227" t="s">
         <v>21</v>
@@ -12599,31 +12641,25 @@
     </row>
     <row r="228" spans="1:15">
       <c r="A228" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B228" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C228" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D228" t="s">
-        <v>456</v>
-      </c>
-      <c r="E228">
-        <v>8</v>
-      </c>
-      <c r="F228" t="s">
-        <v>25</v>
+        <v>453</v>
       </c>
       <c r="G228" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="H228" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="I228">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J228" t="s">
         <v>21</v>
@@ -12646,25 +12682,31 @@
     </row>
     <row r="229" spans="1:15">
       <c r="A229" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B229" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C229" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D229" t="s">
-        <v>458</v>
+        <v>454</v>
+      </c>
+      <c r="E229">
+        <v>6</v>
+      </c>
+      <c r="F229" t="s">
+        <v>75</v>
       </c>
       <c r="G229" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="H229" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J229" t="s">
         <v>21</v>
@@ -12687,37 +12729,31 @@
     </row>
     <row r="230" spans="1:15">
       <c r="A230" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B230" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C230" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D230" t="s">
-        <v>459</v>
-      </c>
-      <c r="E230">
-        <v>8</v>
-      </c>
-      <c r="F230" t="s">
-        <v>25</v>
+        <v>215</v>
       </c>
       <c r="G230" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H230" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I230">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J230" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K230" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="L230" t="s">
         <v>23</v>
@@ -12726,7 +12762,7 @@
         <v>23</v>
       </c>
       <c r="N230" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O230" t="s">
         <v>23</v>
@@ -12734,31 +12770,25 @@
     </row>
     <row r="231" spans="1:15">
       <c r="A231" t="s">
+        <v>456</v>
+      </c>
+      <c r="B231" t="s">
+        <v>437</v>
+      </c>
+      <c r="C231" t="s">
         <v>457</v>
       </c>
-      <c r="B231" t="s">
-        <v>429</v>
-      </c>
-      <c r="C231" t="s">
-        <v>460</v>
-      </c>
       <c r="D231" t="s">
-        <v>461</v>
-      </c>
-      <c r="E231">
-        <v>8</v>
-      </c>
-      <c r="F231" t="s">
-        <v>25</v>
+        <v>457</v>
       </c>
       <c r="G231" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H231" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I231">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J231" t="s">
         <v>21</v>
@@ -12781,16 +12811,16 @@
     </row>
     <row r="232" spans="1:15">
       <c r="A232" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B232" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C232" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D232" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E232">
         <v>8</v>
@@ -12799,19 +12829,19 @@
         <v>25</v>
       </c>
       <c r="G232" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H232" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I232">
         <v>4</v>
       </c>
       <c r="J232" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="K232" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="L232" t="s">
         <v>23</v>
@@ -12820,7 +12850,7 @@
         <v>23</v>
       </c>
       <c r="N232" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="O232" t="s">
         <v>23</v>
@@ -12828,25 +12858,31 @@
     </row>
     <row r="233" spans="1:15">
       <c r="A233" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B233" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C233" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D233" t="s">
-        <v>464</v>
+        <v>461</v>
+      </c>
+      <c r="E233">
+        <v>8</v>
+      </c>
+      <c r="F233" t="s">
+        <v>25</v>
       </c>
       <c r="G233" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H233" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I233">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J233" t="s">
         <v>21</v>
@@ -12869,31 +12905,25 @@
     </row>
     <row r="234" spans="1:15">
       <c r="A234" t="s">
+        <v>462</v>
+      </c>
+      <c r="B234" t="s">
+        <v>437</v>
+      </c>
+      <c r="C234" t="s">
         <v>463</v>
       </c>
-      <c r="B234" t="s">
-        <v>429</v>
-      </c>
-      <c r="C234" t="s">
-        <v>465</v>
-      </c>
       <c r="D234" t="s">
-        <v>465</v>
-      </c>
-      <c r="E234">
-        <v>8</v>
-      </c>
-      <c r="F234" t="s">
-        <v>25</v>
+        <v>463</v>
       </c>
       <c r="G234" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="H234" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="I234">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J234" t="s">
         <v>21</v>
@@ -12916,25 +12946,31 @@
     </row>
     <row r="235" spans="1:15">
       <c r="A235" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B235" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C235" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D235" t="s">
-        <v>467</v>
+        <v>464</v>
+      </c>
+      <c r="E235">
+        <v>8</v>
+      </c>
+      <c r="F235" t="s">
+        <v>25</v>
       </c>
       <c r="G235" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="H235" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="I235">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J235" t="s">
         <v>21</v>
@@ -12957,31 +12993,25 @@
     </row>
     <row r="236" spans="1:15">
       <c r="A236" t="s">
+        <v>465</v>
+      </c>
+      <c r="B236" t="s">
+        <v>437</v>
+      </c>
+      <c r="C236" t="s">
         <v>466</v>
       </c>
-      <c r="B236" t="s">
-        <v>429</v>
-      </c>
-      <c r="C236" t="s">
-        <v>468</v>
-      </c>
       <c r="D236" t="s">
-        <v>468</v>
-      </c>
-      <c r="E236">
-        <v>8</v>
-      </c>
-      <c r="F236" t="s">
-        <v>25</v>
+        <v>466</v>
       </c>
       <c r="G236" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H236" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J236" t="s">
         <v>21</v>
@@ -13004,16 +13034,16 @@
     </row>
     <row r="237" spans="1:15">
       <c r="A237" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B237" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C237" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D237" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E237">
         <v>8</v>
@@ -13022,10 +13052,10 @@
         <v>25</v>
       </c>
       <c r="G237" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H237" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="I237">
         <v>4</v>
@@ -13051,16 +13081,16 @@
     </row>
     <row r="238" spans="1:15">
       <c r="A238" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B238" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C238" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D238" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E238">
         <v>8</v>
@@ -13069,10 +13099,10 @@
         <v>25</v>
       </c>
       <c r="G238" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H238" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="I238">
         <v>5</v>
@@ -13098,31 +13128,37 @@
     </row>
     <row r="239" spans="1:15">
       <c r="A239" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="B239" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C239" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D239" t="s">
-        <v>474</v>
+        <v>470</v>
+      </c>
+      <c r="E239">
+        <v>8</v>
+      </c>
+      <c r="F239" t="s">
+        <v>25</v>
       </c>
       <c r="G239" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H239" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I239">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J239" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K239" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="L239" t="s">
         <v>23</v>
@@ -13131,7 +13167,7 @@
         <v>23</v>
       </c>
       <c r="N239" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O239" t="s">
         <v>23</v>
@@ -13139,31 +13175,25 @@
     </row>
     <row r="240" spans="1:15">
       <c r="A240" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B240" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C240" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D240" t="s">
-        <v>475</v>
-      </c>
-      <c r="E240">
-        <v>6</v>
-      </c>
-      <c r="F240" t="s">
-        <v>75</v>
+        <v>472</v>
       </c>
       <c r="G240" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="H240" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I240">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J240" t="s">
         <v>21</v>
@@ -13186,31 +13216,37 @@
     </row>
     <row r="241" spans="1:15">
       <c r="A241" t="s">
+        <v>471</v>
+      </c>
+      <c r="B241" t="s">
+        <v>437</v>
+      </c>
+      <c r="C241" t="s">
         <v>473</v>
       </c>
-      <c r="B241" t="s">
-        <v>429</v>
-      </c>
-      <c r="C241" t="s">
-        <v>476</v>
-      </c>
       <c r="D241" t="s">
-        <v>476</v>
+        <v>473</v>
+      </c>
+      <c r="E241">
+        <v>8</v>
+      </c>
+      <c r="F241" t="s">
+        <v>25</v>
       </c>
       <c r="G241" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="H241" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="I241">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J241" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="K241" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="L241" t="s">
         <v>23</v>
@@ -13219,7 +13255,7 @@
         <v>23</v>
       </c>
       <c r="N241" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="O241" t="s">
         <v>23</v>
@@ -13227,16 +13263,16 @@
     </row>
     <row r="242" spans="1:15">
       <c r="A242" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B242" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C242" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D242" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="G242" t="s">
         <v>20</v>
@@ -13268,25 +13304,31 @@
     </row>
     <row r="243" spans="1:15">
       <c r="A243" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B243" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C243" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D243" t="s">
-        <v>481</v>
+        <v>476</v>
+      </c>
+      <c r="E243">
+        <v>8</v>
+      </c>
+      <c r="F243" t="s">
+        <v>25</v>
       </c>
       <c r="G243" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H243" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I243">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J243" t="s">
         <v>21</v>
@@ -13309,16 +13351,16 @@
     </row>
     <row r="244" spans="1:15">
       <c r="A244" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B244" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C244" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D244" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E244">
         <v>8</v>
@@ -13327,13 +13369,13 @@
         <v>25</v>
       </c>
       <c r="G244" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H244" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I244">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J244" t="s">
         <v>21</v>
@@ -13356,16 +13398,16 @@
     </row>
     <row r="245" spans="1:15">
       <c r="A245" t="s">
+        <v>474</v>
+      </c>
+      <c r="B245" t="s">
+        <v>437</v>
+      </c>
+      <c r="C245" t="s">
+        <v>479</v>
+      </c>
+      <c r="D245" t="s">
         <v>480</v>
-      </c>
-      <c r="B245" t="s">
-        <v>429</v>
-      </c>
-      <c r="C245" t="s">
-        <v>483</v>
-      </c>
-      <c r="D245" t="s">
-        <v>483</v>
       </c>
       <c r="E245">
         <v>8</v>
@@ -13374,13 +13416,13 @@
         <v>25</v>
       </c>
       <c r="G245" t="s">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="H245" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="I245">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J245" t="s">
         <v>21</v>
@@ -13403,16 +13445,16 @@
     </row>
     <row r="246" spans="1:15">
       <c r="A246" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B246" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C246" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D246" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G246" t="s">
         <v>20</v>
@@ -13444,16 +13486,16 @@
     </row>
     <row r="247" spans="1:15">
       <c r="A247" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B247" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C247" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D247" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E247">
         <v>6</v>
@@ -13465,10 +13507,10 @@
         <v>76</v>
       </c>
       <c r="H247" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I247">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J247" t="s">
         <v>21</v>
@@ -13491,16 +13533,16 @@
     </row>
     <row r="248" spans="1:15">
       <c r="A248" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B248" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C248" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D248" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G248" t="s">
         <v>20</v>
@@ -13512,10 +13554,10 @@
         <v>1</v>
       </c>
       <c r="J248" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K248" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="L248" t="s">
         <v>23</v>
@@ -13524,7 +13566,7 @@
         <v>23</v>
       </c>
       <c r="N248" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O248" t="s">
         <v>23</v>
@@ -13532,31 +13574,25 @@
     </row>
     <row r="249" spans="1:15">
       <c r="A249" t="s">
+        <v>485</v>
+      </c>
+      <c r="B249" t="s">
+        <v>437</v>
+      </c>
+      <c r="C249" t="s">
+        <v>486</v>
+      </c>
+      <c r="D249" t="s">
         <v>487</v>
       </c>
-      <c r="B249" t="s">
-        <v>429</v>
-      </c>
-      <c r="C249" t="s">
-        <v>489</v>
-      </c>
-      <c r="D249" t="s">
-        <v>489</v>
-      </c>
-      <c r="E249">
-        <v>8</v>
-      </c>
-      <c r="F249" t="s">
-        <v>25</v>
-      </c>
       <c r="G249" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="H249" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="I249">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J249" t="s">
         <v>21</v>
@@ -13579,16 +13615,16 @@
     </row>
     <row r="250" spans="1:15">
       <c r="A250" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B250" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C250" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D250" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G250" t="s">
         <v>20</v>
@@ -13600,10 +13636,10 @@
         <v>1</v>
       </c>
       <c r="J250" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="K250" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="L250" t="s">
         <v>23</v>
@@ -13612,7 +13648,7 @@
         <v>23</v>
       </c>
       <c r="N250" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="O250" t="s">
         <v>23</v>
@@ -13620,25 +13656,31 @@
     </row>
     <row r="251" spans="1:15">
       <c r="A251" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B251" t="s">
-        <v>492</v>
+        <v>437</v>
       </c>
       <c r="C251" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D251" t="s">
-        <v>493</v>
+        <v>490</v>
+      </c>
+      <c r="E251">
+        <v>8</v>
+      </c>
+      <c r="F251" t="s">
+        <v>25</v>
       </c>
       <c r="G251" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H251" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I251">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J251" t="s">
         <v>21</v>
@@ -13661,16 +13703,16 @@
     </row>
     <row r="252" spans="1:15">
       <c r="A252" t="s">
+        <v>488</v>
+      </c>
+      <c r="B252" t="s">
+        <v>437</v>
+      </c>
+      <c r="C252" t="s">
         <v>491</v>
       </c>
-      <c r="B252" t="s">
-        <v>492</v>
-      </c>
-      <c r="C252" t="s">
-        <v>494</v>
-      </c>
       <c r="D252" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E252">
         <v>8</v>
@@ -13708,16 +13750,16 @@
     </row>
     <row r="253" spans="1:15">
       <c r="A253" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B253" t="s">
-        <v>492</v>
+        <v>437</v>
       </c>
       <c r="C253" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D253" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G253" t="s">
         <v>20</v>
@@ -13729,10 +13771,10 @@
         <v>1</v>
       </c>
       <c r="J253" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="K253" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="L253" t="s">
         <v>23</v>
@@ -13741,7 +13783,7 @@
         <v>23</v>
       </c>
       <c r="N253" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="O253" t="s">
         <v>23</v>
@@ -13749,25 +13791,31 @@
     </row>
     <row r="254" spans="1:15">
       <c r="A254" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B254" t="s">
-        <v>492</v>
+        <v>437</v>
       </c>
       <c r="C254" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D254" t="s">
-        <v>497</v>
+        <v>494</v>
+      </c>
+      <c r="E254">
+        <v>6</v>
+      </c>
+      <c r="F254" t="s">
+        <v>75</v>
       </c>
       <c r="G254" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="H254" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="I254">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J254" t="s">
         <v>21</v>
@@ -13790,16 +13838,16 @@
     </row>
     <row r="255" spans="1:15">
       <c r="A255" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B255" t="s">
-        <v>492</v>
+        <v>437</v>
       </c>
       <c r="C255" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D255" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="G255" t="s">
         <v>20</v>
@@ -13831,16 +13879,16 @@
     </row>
     <row r="256" spans="1:15">
       <c r="A256" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B256" t="s">
-        <v>492</v>
+        <v>437</v>
       </c>
       <c r="C256" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D256" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E256">
         <v>8</v>
@@ -13849,13 +13897,13 @@
         <v>25</v>
       </c>
       <c r="G256" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="H256" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="I256">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J256" t="s">
         <v>21</v>
@@ -13878,37 +13926,31 @@
     </row>
     <row r="257" spans="1:15">
       <c r="A257" t="s">
+        <v>495</v>
+      </c>
+      <c r="B257" t="s">
+        <v>437</v>
+      </c>
+      <c r="C257" t="s">
         <v>498</v>
       </c>
-      <c r="B257" t="s">
-        <v>492</v>
-      </c>
-      <c r="C257" t="s">
-        <v>501</v>
-      </c>
       <c r="D257" t="s">
-        <v>501</v>
-      </c>
-      <c r="E257">
-        <v>8</v>
-      </c>
-      <c r="F257" t="s">
-        <v>25</v>
+        <v>498</v>
       </c>
       <c r="G257" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="H257" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="I257">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J257" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K257" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="L257" t="s">
         <v>23</v>
@@ -13917,7 +13959,7 @@
         <v>23</v>
       </c>
       <c r="N257" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O257" t="s">
         <v>23</v>
@@ -13925,16 +13967,16 @@
     </row>
     <row r="258" spans="1:15">
       <c r="A258" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B258" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C258" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D258" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G258" t="s">
         <v>20</v>
@@ -13966,16 +14008,16 @@
     </row>
     <row r="259" spans="1:15">
       <c r="A259" t="s">
+        <v>499</v>
+      </c>
+      <c r="B259" t="s">
+        <v>500</v>
+      </c>
+      <c r="C259" t="s">
         <v>502</v>
       </c>
-      <c r="B259" t="s">
-        <v>503</v>
-      </c>
-      <c r="C259" t="s">
-        <v>505</v>
-      </c>
       <c r="D259" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E259">
         <v>8</v>
@@ -13984,13 +14026,13 @@
         <v>25</v>
       </c>
       <c r="G259" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="H259" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="I259">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J259" t="s">
         <v>21</v>
@@ -14013,37 +14055,31 @@
     </row>
     <row r="260" spans="1:15">
       <c r="A260" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B260" t="s">
+        <v>500</v>
+      </c>
+      <c r="C260" t="s">
         <v>503</v>
       </c>
-      <c r="C260" t="s">
-        <v>506</v>
-      </c>
       <c r="D260" t="s">
-        <v>506</v>
-      </c>
-      <c r="E260">
-        <v>8</v>
-      </c>
-      <c r="F260" t="s">
-        <v>25</v>
+        <v>503</v>
       </c>
       <c r="G260" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="H260" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="I260">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J260" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K260" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="L260" t="s">
         <v>23</v>
@@ -14052,7 +14088,7 @@
         <v>23</v>
       </c>
       <c r="N260" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O260" t="s">
         <v>23</v>
@@ -14060,16 +14096,16 @@
     </row>
     <row r="261" spans="1:15">
       <c r="A261" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B261" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C261" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D261" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G261" t="s">
         <v>20</v>
@@ -14101,31 +14137,25 @@
     </row>
     <row r="262" spans="1:15">
       <c r="A262" t="s">
+        <v>506</v>
+      </c>
+      <c r="B262" t="s">
+        <v>500</v>
+      </c>
+      <c r="C262" t="s">
         <v>507</v>
       </c>
-      <c r="B262" t="s">
-        <v>503</v>
-      </c>
-      <c r="C262" t="s">
-        <v>509</v>
-      </c>
       <c r="D262" t="s">
-        <v>509</v>
-      </c>
-      <c r="E262">
-        <v>8</v>
-      </c>
-      <c r="F262" t="s">
-        <v>25</v>
+        <v>507</v>
       </c>
       <c r="G262" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="H262" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="I262">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J262" t="s">
         <v>21</v>
@@ -14148,25 +14178,31 @@
     </row>
     <row r="263" spans="1:15">
       <c r="A263" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B263" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C263" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D263" t="s">
-        <v>511</v>
+        <v>508</v>
+      </c>
+      <c r="E263">
+        <v>8</v>
+      </c>
+      <c r="F263" t="s">
+        <v>25</v>
       </c>
       <c r="G263" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H263" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I263">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J263" t="s">
         <v>21</v>
@@ -14189,25 +14225,31 @@
     </row>
     <row r="264" spans="1:15">
       <c r="A264" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B264" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C264" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D264" t="s">
-        <v>514</v>
+        <v>509</v>
+      </c>
+      <c r="E264">
+        <v>8</v>
+      </c>
+      <c r="F264" t="s">
+        <v>25</v>
       </c>
       <c r="G264" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="H264" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="I264">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J264" t="s">
         <v>21</v>
@@ -14230,31 +14272,25 @@
     </row>
     <row r="265" spans="1:15">
       <c r="A265" t="s">
+        <v>510</v>
+      </c>
+      <c r="B265" t="s">
+        <v>511</v>
+      </c>
+      <c r="C265" t="s">
         <v>512</v>
       </c>
-      <c r="B265" t="s">
-        <v>503</v>
-      </c>
-      <c r="C265" t="s">
-        <v>515</v>
-      </c>
       <c r="D265" t="s">
-        <v>515</v>
-      </c>
-      <c r="E265">
-        <v>8</v>
-      </c>
-      <c r="F265" t="s">
-        <v>25</v>
+        <v>512</v>
       </c>
       <c r="G265" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="H265" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="I265">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J265" t="s">
         <v>21</v>
@@ -14277,25 +14313,31 @@
     </row>
     <row r="266" spans="1:15">
       <c r="A266" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B266" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C266" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="D266" t="s">
-        <v>518</v>
+        <v>513</v>
+      </c>
+      <c r="E266">
+        <v>8</v>
+      </c>
+      <c r="F266" t="s">
+        <v>25</v>
       </c>
       <c r="G266" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H266" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I266">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J266" t="s">
         <v>21</v>
@@ -14318,25 +14360,31 @@
     </row>
     <row r="267" spans="1:15">
       <c r="A267" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="B267" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C267" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="D267" t="s">
-        <v>520</v>
+        <v>514</v>
+      </c>
+      <c r="E267">
+        <v>8</v>
+      </c>
+      <c r="F267" t="s">
+        <v>25</v>
       </c>
       <c r="G267" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="H267" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="I267">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J267" t="s">
         <v>21</v>
@@ -14359,31 +14407,25 @@
     </row>
     <row r="268" spans="1:15">
       <c r="A268" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B268" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C268" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D268" t="s">
-        <v>521</v>
-      </c>
-      <c r="E268">
-        <v>8</v>
-      </c>
-      <c r="F268" t="s">
-        <v>25</v>
+        <v>516</v>
       </c>
       <c r="G268" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H268" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I268">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J268" t="s">
         <v>21</v>
@@ -14406,16 +14448,16 @@
     </row>
     <row r="269" spans="1:15">
       <c r="A269" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B269" t="s">
+        <v>511</v>
+      </c>
+      <c r="C269" t="s">
         <v>517</v>
       </c>
-      <c r="C269" t="s">
-        <v>522</v>
-      </c>
       <c r="D269" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="E269">
         <v>8</v>
@@ -14453,16 +14495,16 @@
     </row>
     <row r="270" spans="1:15">
       <c r="A270" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B270" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="C270" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="D270" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="G270" t="s">
         <v>20</v>
@@ -14494,16 +14536,16 @@
     </row>
     <row r="271" spans="1:15">
       <c r="A271" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B271" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="C271" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D271" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="G271" t="s">
         <v>20</v>
@@ -14535,31 +14577,31 @@
     </row>
     <row r="272" spans="1:15">
       <c r="A272" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B272" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="C272" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="D272" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="E272">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F272" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="G272" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="H272" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="I272">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J272" t="s">
         <v>21</v>
@@ -14582,16 +14624,16 @@
     </row>
     <row r="273" spans="1:15">
       <c r="A273" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B273" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C273" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="D273" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="G273" t="s">
         <v>20</v>
@@ -14623,31 +14665,25 @@
     </row>
     <row r="274" spans="1:15">
       <c r="A274" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B274" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C274" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D274" t="s">
-        <v>533</v>
-      </c>
-      <c r="E274">
-        <v>8</v>
-      </c>
-      <c r="F274" t="s">
-        <v>25</v>
+        <v>528</v>
       </c>
       <c r="G274" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H274" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I274">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J274" t="s">
         <v>21</v>
@@ -14670,31 +14706,37 @@
     </row>
     <row r="275" spans="1:15">
       <c r="A275" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B275" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C275" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D275" t="s">
-        <v>534</v>
+        <v>529</v>
+      </c>
+      <c r="E275">
+        <v>8</v>
+      </c>
+      <c r="F275" t="s">
+        <v>25</v>
       </c>
       <c r="G275" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H275" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I275">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J275" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="K275" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="L275" t="s">
         <v>23</v>
@@ -14703,7 +14745,7 @@
         <v>23</v>
       </c>
       <c r="N275" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="O275" t="s">
         <v>23</v>
@@ -14711,25 +14753,31 @@
     </row>
     <row r="276" spans="1:15">
       <c r="A276" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="B276" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C276" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="D276" t="s">
-        <v>536</v>
+        <v>530</v>
+      </c>
+      <c r="E276">
+        <v>8</v>
+      </c>
+      <c r="F276" t="s">
+        <v>25</v>
       </c>
       <c r="G276" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="H276" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="I276">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J276" t="s">
         <v>21</v>
@@ -14752,31 +14800,25 @@
     </row>
     <row r="277" spans="1:15">
       <c r="A277" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B277" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="C277" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D277" t="s">
-        <v>537</v>
-      </c>
-      <c r="E277">
-        <v>6</v>
-      </c>
-      <c r="F277" t="s">
-        <v>75</v>
+        <v>533</v>
       </c>
       <c r="G277" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="H277" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="I277">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J277" t="s">
         <v>21</v>
@@ -14799,31 +14841,25 @@
     </row>
     <row r="278" spans="1:15">
       <c r="A278" t="s">
+        <v>534</v>
+      </c>
+      <c r="B278" t="s">
+        <v>532</v>
+      </c>
+      <c r="C278" t="s">
         <v>535</v>
       </c>
-      <c r="B278" t="s">
-        <v>524</v>
-      </c>
-      <c r="C278" t="s">
-        <v>538</v>
-      </c>
       <c r="D278" t="s">
-        <v>539</v>
-      </c>
-      <c r="E278">
-        <v>6</v>
-      </c>
-      <c r="F278" t="s">
-        <v>75</v>
+        <v>536</v>
       </c>
       <c r="G278" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="H278" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I278">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J278" t="s">
         <v>21</v>
@@ -14846,16 +14882,16 @@
     </row>
     <row r="279" spans="1:15">
       <c r="A279" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B279" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="C279" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D279" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E279">
         <v>6</v>
@@ -14873,10 +14909,10 @@
         <v>2</v>
       </c>
       <c r="J279" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="K279" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="L279" t="s">
         <v>23</v>
@@ -14885,7 +14921,7 @@
         <v>23</v>
       </c>
       <c r="N279" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="O279" t="s">
         <v>23</v>
@@ -14893,16 +14929,16 @@
     </row>
     <row r="280" spans="1:15">
       <c r="A280" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B280" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="C280" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D280" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G280" t="s">
         <v>20</v>
@@ -14934,31 +14970,31 @@
     </row>
     <row r="281" spans="1:15">
       <c r="A281" t="s">
+        <v>538</v>
+      </c>
+      <c r="B281" t="s">
+        <v>532</v>
+      </c>
+      <c r="C281" t="s">
+        <v>540</v>
+      </c>
+      <c r="D281" t="s">
         <v>541</v>
       </c>
-      <c r="B281" t="s">
-        <v>524</v>
-      </c>
-      <c r="C281" t="s">
-        <v>543</v>
-      </c>
-      <c r="D281" t="s">
-        <v>543</v>
-      </c>
       <c r="E281">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F281" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="G281" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="H281" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="I281">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J281" t="s">
         <v>21</v>
@@ -14981,37 +15017,31 @@
     </row>
     <row r="282" spans="1:15">
       <c r="A282" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B282" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="C282" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D282" t="s">
-        <v>544</v>
-      </c>
-      <c r="E282">
-        <v>6</v>
-      </c>
-      <c r="F282" t="s">
-        <v>75</v>
+        <v>542</v>
       </c>
       <c r="G282" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="H282" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I282">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J282" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K282" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="L282" t="s">
         <v>23</v>
@@ -15020,7 +15050,7 @@
         <v>23</v>
       </c>
       <c r="N282" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O282" t="s">
         <v>23</v>
@@ -15028,16 +15058,16 @@
     </row>
     <row r="283" spans="1:15">
       <c r="A283" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B283" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="C283" t="s">
-        <v>214</v>
+        <v>544</v>
       </c>
       <c r="D283" t="s">
-        <v>215</v>
+        <v>544</v>
       </c>
       <c r="G283" t="s">
         <v>20</v>
@@ -15049,10 +15079,10 @@
         <v>1</v>
       </c>
       <c r="J283" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="K283" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="L283" t="s">
         <v>23</v>
@@ -15061,7 +15091,7 @@
         <v>23</v>
       </c>
       <c r="N283" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="O283" t="s">
         <v>23</v>
@@ -15069,25 +15099,31 @@
     </row>
     <row r="284" spans="1:15">
       <c r="A284" t="s">
+        <v>543</v>
+      </c>
+      <c r="B284" t="s">
+        <v>532</v>
+      </c>
+      <c r="C284" t="s">
         <v>545</v>
       </c>
-      <c r="B284" t="s">
-        <v>546</v>
-      </c>
-      <c r="C284" t="s">
-        <v>547</v>
-      </c>
       <c r="D284" t="s">
-        <v>547</v>
+        <v>545</v>
+      </c>
+      <c r="E284">
+        <v>6</v>
+      </c>
+      <c r="F284" t="s">
+        <v>75</v>
       </c>
       <c r="G284" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="H284" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="I284">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J284" t="s">
         <v>21</v>
@@ -15110,16 +15146,16 @@
     </row>
     <row r="285" spans="1:15">
       <c r="A285" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B285" t="s">
+        <v>532</v>
+      </c>
+      <c r="C285" t="s">
         <v>546</v>
       </c>
-      <c r="C285" t="s">
-        <v>548</v>
-      </c>
       <c r="D285" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E285">
         <v>6</v>
@@ -15157,31 +15193,37 @@
     </row>
     <row r="286" spans="1:15">
       <c r="A286" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B286" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="C286" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D286" t="s">
-        <v>550</v>
+        <v>548</v>
+      </c>
+      <c r="E286">
+        <v>6</v>
+      </c>
+      <c r="F286" t="s">
+        <v>75</v>
       </c>
       <c r="G286" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="H286" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="I286">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J286" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K286" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="L286" t="s">
         <v>23</v>
@@ -15190,7 +15232,7 @@
         <v>23</v>
       </c>
       <c r="N286" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O286" t="s">
         <v>23</v>
@@ -15201,28 +15243,22 @@
         <v>549</v>
       </c>
       <c r="B287" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="C287" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D287" t="s">
-        <v>551</v>
-      </c>
-      <c r="E287">
-        <v>8</v>
-      </c>
-      <c r="F287" t="s">
-        <v>25</v>
+        <v>550</v>
       </c>
       <c r="G287" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H287" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I287">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J287" t="s">
         <v>21</v>
@@ -15245,25 +15281,31 @@
     </row>
     <row r="288" spans="1:15">
       <c r="A288" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B288" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="C288" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D288" t="s">
-        <v>553</v>
+        <v>551</v>
+      </c>
+      <c r="E288">
+        <v>6</v>
+      </c>
+      <c r="F288" t="s">
+        <v>75</v>
       </c>
       <c r="G288" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="H288" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="I288">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J288" t="s">
         <v>21</v>
@@ -15286,28 +15328,28 @@
     </row>
     <row r="289" spans="1:15">
       <c r="A289" t="s">
+        <v>549</v>
+      </c>
+      <c r="B289" t="s">
+        <v>532</v>
+      </c>
+      <c r="C289" t="s">
         <v>552</v>
       </c>
-      <c r="B289" t="s">
-        <v>546</v>
-      </c>
-      <c r="C289" t="s">
-        <v>554</v>
-      </c>
       <c r="D289" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E289">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F289" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G289" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="H289" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="I289">
         <v>3</v>
@@ -15333,37 +15375,31 @@
     </row>
     <row r="290" spans="1:15">
       <c r="A290" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B290" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="C290" t="s">
-        <v>555</v>
+        <v>214</v>
       </c>
       <c r="D290" t="s">
-        <v>555</v>
-      </c>
-      <c r="E290">
-        <v>8</v>
-      </c>
-      <c r="F290" t="s">
-        <v>25</v>
+        <v>215</v>
       </c>
       <c r="G290" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="H290" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="I290">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J290" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K290" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="L290" t="s">
         <v>23</v>
@@ -15372,7 +15408,7 @@
         <v>23</v>
       </c>
       <c r="N290" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O290" t="s">
         <v>23</v>
@@ -15380,16 +15416,16 @@
     </row>
     <row r="291" spans="1:15">
       <c r="A291" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B291" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C291" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D291" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G291" t="s">
         <v>20</v>
@@ -15421,31 +15457,31 @@
     </row>
     <row r="292" spans="1:15">
       <c r="A292" t="s">
+        <v>553</v>
+      </c>
+      <c r="B292" t="s">
+        <v>554</v>
+      </c>
+      <c r="C292" t="s">
         <v>556</v>
       </c>
-      <c r="B292" t="s">
-        <v>557</v>
-      </c>
-      <c r="C292" t="s">
-        <v>559</v>
-      </c>
       <c r="D292" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E292">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F292" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G292" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="H292" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="I292">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J292" t="s">
         <v>21</v>
@@ -15468,16 +15504,16 @@
     </row>
     <row r="293" spans="1:15">
       <c r="A293" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B293" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="C293" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D293" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G293" t="s">
         <v>20</v>
@@ -15509,16 +15545,16 @@
     </row>
     <row r="294" spans="1:15">
       <c r="A294" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B294" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="C294" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D294" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="E294">
         <v>8</v>
@@ -15527,13 +15563,13 @@
         <v>25</v>
       </c>
       <c r="G294" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H294" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="I294">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J294" t="s">
         <v>21</v>
@@ -15559,28 +15595,22 @@
         <v>560</v>
       </c>
       <c r="B295" t="s">
+        <v>554</v>
+      </c>
+      <c r="C295" t="s">
         <v>561</v>
       </c>
-      <c r="C295" t="s">
-        <v>564</v>
-      </c>
       <c r="D295" t="s">
-        <v>564</v>
-      </c>
-      <c r="E295">
-        <v>8</v>
-      </c>
-      <c r="F295" t="s">
-        <v>25</v>
+        <v>561</v>
       </c>
       <c r="G295" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H295" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I295">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J295" t="s">
         <v>21</v>
@@ -15603,25 +15633,31 @@
     </row>
     <row r="296" spans="1:15">
       <c r="A296" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B296" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="C296" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D296" t="s">
-        <v>567</v>
+        <v>562</v>
+      </c>
+      <c r="E296">
+        <v>8</v>
+      </c>
+      <c r="F296" t="s">
+        <v>25</v>
       </c>
       <c r="G296" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H296" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I296">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J296" t="s">
         <v>21</v>
@@ -15644,31 +15680,31 @@
     </row>
     <row r="297" spans="1:15">
       <c r="A297" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B297" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="C297" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="D297" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="E297">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F297" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="G297" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="H297" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="I297">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J297" t="s">
         <v>21</v>
@@ -15691,31 +15727,25 @@
     </row>
     <row r="298" spans="1:15">
       <c r="A298" t="s">
+        <v>564</v>
+      </c>
+      <c r="B298" t="s">
         <v>565</v>
       </c>
-      <c r="B298" t="s">
+      <c r="C298" t="s">
         <v>566</v>
       </c>
-      <c r="C298" t="s">
-        <v>569</v>
-      </c>
       <c r="D298" t="s">
-        <v>569</v>
-      </c>
-      <c r="E298">
-        <v>7</v>
-      </c>
-      <c r="F298" t="s">
-        <v>54</v>
+        <v>566</v>
       </c>
       <c r="G298" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H298" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="I298">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J298" t="s">
         <v>21</v>
@@ -15738,28 +15768,28 @@
     </row>
     <row r="299" spans="1:15">
       <c r="A299" t="s">
+        <v>564</v>
+      </c>
+      <c r="B299" t="s">
         <v>565</v>
       </c>
-      <c r="B299" t="s">
-        <v>566</v>
-      </c>
       <c r="C299" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D299" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E299">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F299" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="G299" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="H299" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="I299">
         <v>4</v>
@@ -15785,31 +15815,25 @@
     </row>
     <row r="300" spans="1:15">
       <c r="A300" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="B300" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="C300" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D300" t="s">
-        <v>572</v>
-      </c>
-      <c r="E300">
-        <v>7</v>
-      </c>
-      <c r="F300" t="s">
-        <v>54</v>
+        <v>570</v>
       </c>
       <c r="G300" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H300" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="I300">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J300" t="s">
         <v>21</v>
@@ -15832,34 +15856,34 @@
     </row>
     <row r="301" spans="1:15">
       <c r="A301" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="B301" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="C301" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D301" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E301">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F301" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="G301" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="H301" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I301">
         <v>4</v>
       </c>
       <c r="J301" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="K301" t="s">
         <v>22</v>
@@ -15871,7 +15895,7 @@
         <v>23</v>
       </c>
       <c r="N301" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="O301" t="s">
         <v>23</v>
@@ -15879,28 +15903,28 @@
     </row>
     <row r="302" spans="1:15">
       <c r="A302" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="B302" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="C302" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D302" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E302">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F302" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="G302" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="H302" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="I302">
         <v>5</v>
@@ -15918,7 +15942,7 @@
         <v>23</v>
       </c>
       <c r="N302" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="O302" t="s">
         <v>23</v>
@@ -15926,34 +15950,28 @@
     </row>
     <row r="303" spans="1:15">
       <c r="A303" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="B303" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="C303" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D303" t="s">
-        <v>576</v>
-      </c>
-      <c r="E303">
-        <v>7</v>
-      </c>
-      <c r="F303" t="s">
-        <v>54</v>
+        <v>575</v>
       </c>
       <c r="G303" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H303" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="I303">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J303" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="K303" t="s">
         <v>22</v>
@@ -15965,7 +15983,7 @@
         <v>23</v>
       </c>
       <c r="N303" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="O303" t="s">
         <v>23</v>
@@ -15973,16 +15991,16 @@
     </row>
     <row r="304" spans="1:15">
       <c r="A304" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="B304" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="C304" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D304" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E304">
         <v>7</v>
@@ -16000,7 +16018,7 @@
         <v>2</v>
       </c>
       <c r="J304" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="K304" t="s">
         <v>22</v>
@@ -16012,7 +16030,7 @@
         <v>23</v>
       </c>
       <c r="N304" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="O304" t="s">
         <v>23</v>
@@ -16020,16 +16038,16 @@
     </row>
     <row r="305" spans="1:15">
       <c r="A305" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="B305" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="C305" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D305" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E305">
         <v>7</v>
@@ -16059,7 +16077,7 @@
         <v>23</v>
       </c>
       <c r="N305" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="O305" t="s">
         <v>23</v>
@@ -16067,25 +16085,31 @@
     </row>
     <row r="306" spans="1:15">
       <c r="A306" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="B306" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="C306" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D306" t="s">
-        <v>581</v>
+        <v>578</v>
+      </c>
+      <c r="E306">
+        <v>7</v>
+      </c>
+      <c r="F306" t="s">
+        <v>54</v>
       </c>
       <c r="G306" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H306" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="I306">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J306" t="s">
         <v>21</v>
@@ -16108,16 +16132,16 @@
     </row>
     <row r="307" spans="1:15">
       <c r="A307" t="s">
+        <v>573</v>
+      </c>
+      <c r="B307" t="s">
+        <v>574</v>
+      </c>
+      <c r="C307" t="s">
         <v>579</v>
       </c>
-      <c r="B307" t="s">
+      <c r="D307" t="s">
         <v>580</v>
-      </c>
-      <c r="C307" t="s">
-        <v>582</v>
-      </c>
-      <c r="D307" t="s">
-        <v>582</v>
       </c>
       <c r="E307">
         <v>7</v>
@@ -16126,13 +16150,13 @@
         <v>54</v>
       </c>
       <c r="G307" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H307" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="I307">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J307" t="s">
         <v>21</v>
@@ -16155,16 +16179,16 @@
     </row>
     <row r="308" spans="1:15">
       <c r="A308" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="B308" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="C308" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D308" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E308">
         <v>7</v>
@@ -16182,7 +16206,7 @@
         <v>4</v>
       </c>
       <c r="J308" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K308" t="s">
         <v>22</v>
@@ -16194,7 +16218,7 @@
         <v>23</v>
       </c>
       <c r="N308" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O308" t="s">
         <v>23</v>
@@ -16202,16 +16226,16 @@
     </row>
     <row r="309" spans="1:15">
       <c r="A309" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="B309" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="C309" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D309" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E309">
         <v>7</v>
@@ -16241,7 +16265,7 @@
         <v>23</v>
       </c>
       <c r="N309" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O309" t="s">
         <v>23</v>
@@ -16249,16 +16273,16 @@
     </row>
     <row r="310" spans="1:15">
       <c r="A310" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="B310" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="C310" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D310" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E310">
         <v>7</v>
@@ -16279,7 +16303,7 @@
         <v>38</v>
       </c>
       <c r="K310" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="L310" t="s">
         <v>23</v>
@@ -16296,28 +16320,34 @@
     </row>
     <row r="311" spans="1:15">
       <c r="A311" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="B311" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="C311" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D311" t="s">
-        <v>589</v>
+        <v>585</v>
+      </c>
+      <c r="E311">
+        <v>7</v>
+      </c>
+      <c r="F311" t="s">
+        <v>54</v>
       </c>
       <c r="G311" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="H311" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="I311">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J311" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K311" t="s">
         <v>22</v>
@@ -16329,7 +16359,7 @@
         <v>23</v>
       </c>
       <c r="N311" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O311" t="s">
         <v>23</v>
@@ -16337,31 +16367,31 @@
     </row>
     <row r="312" spans="1:15">
       <c r="A312" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="B312" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="C312" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D312" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="E312">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F312" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="G312" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="H312" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="I312">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J312" t="s">
         <v>21</v>
@@ -16376,7 +16406,7 @@
         <v>23</v>
       </c>
       <c r="N312" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O312" t="s">
         <v>23</v>
@@ -16384,16 +16414,16 @@
     </row>
     <row r="313" spans="1:15">
       <c r="A313" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B313" t="s">
         <v>588</v>
       </c>
       <c r="C313" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D313" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G313" t="s">
         <v>20</v>
@@ -16425,25 +16455,31 @@
     </row>
     <row r="314" spans="1:15">
       <c r="A314" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="B314" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="C314" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="D314" t="s">
-        <v>595</v>
+        <v>590</v>
+      </c>
+      <c r="E314">
+        <v>7</v>
+      </c>
+      <c r="F314" t="s">
+        <v>54</v>
       </c>
       <c r="G314" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="H314" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="I314">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J314" t="s">
         <v>21</v>
@@ -16466,28 +16502,28 @@
     </row>
     <row r="315" spans="1:15">
       <c r="A315" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="B315" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="C315" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="D315" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="E315">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F315" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="G315" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="H315" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="I315">
         <v>4</v>
@@ -16513,28 +16549,28 @@
     </row>
     <row r="316" spans="1:15">
       <c r="A316" t="s">
+        <v>587</v>
+      </c>
+      <c r="B316" t="s">
+        <v>588</v>
+      </c>
+      <c r="C316" t="s">
+        <v>592</v>
+      </c>
+      <c r="D316" t="s">
         <v>593</v>
       </c>
-      <c r="B316" t="s">
-        <v>594</v>
-      </c>
-      <c r="C316" t="s">
-        <v>598</v>
-      </c>
-      <c r="D316" t="s">
-        <v>599</v>
-      </c>
       <c r="E316">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F316" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="G316" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="H316" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="I316">
         <v>5</v>
@@ -16560,28 +16596,28 @@
     </row>
     <row r="317" spans="1:15">
       <c r="A317" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="B317" t="s">
+        <v>588</v>
+      </c>
+      <c r="C317" t="s">
         <v>594</v>
       </c>
-      <c r="C317" t="s">
-        <v>600</v>
-      </c>
       <c r="D317" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="E317">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F317" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="G317" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="H317" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="I317">
         <v>4</v>
@@ -16590,7 +16626,7 @@
         <v>38</v>
       </c>
       <c r="K317" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="L317" t="s">
         <v>23</v>
@@ -16607,31 +16643,25 @@
     </row>
     <row r="318" spans="1:15">
       <c r="A318" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B318" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C318" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="D318" t="s">
-        <v>603</v>
-      </c>
-      <c r="E318">
-        <v>8</v>
-      </c>
-      <c r="F318" t="s">
-        <v>25</v>
+        <v>597</v>
       </c>
       <c r="G318" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H318" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I318">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J318" t="s">
         <v>21</v>
@@ -16646,7 +16676,7 @@
         <v>23</v>
       </c>
       <c r="N318" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="O318" t="s">
         <v>23</v>
@@ -16654,16 +16684,16 @@
     </row>
     <row r="319" spans="1:15">
       <c r="A319" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B319" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C319" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="D319" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="E319">
         <v>8</v>
@@ -16672,16 +16702,16 @@
         <v>25</v>
       </c>
       <c r="G319" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="H319" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="I319">
         <v>4</v>
       </c>
       <c r="J319" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="K319" t="s">
         <v>22</v>
@@ -16693,7 +16723,7 @@
         <v>23</v>
       </c>
       <c r="N319" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="O319" t="s">
         <v>23</v>
@@ -16701,31 +16731,25 @@
     </row>
     <row r="320" spans="1:15">
       <c r="A320" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="B320" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C320" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D320" t="s">
-        <v>607</v>
-      </c>
-      <c r="E320">
-        <v>8</v>
-      </c>
-      <c r="F320" t="s">
-        <v>25</v>
+        <v>600</v>
       </c>
       <c r="G320" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H320" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I320">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J320" t="s">
         <v>21</v>
@@ -16740,7 +16764,7 @@
         <v>23</v>
       </c>
       <c r="N320" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="O320" t="s">
         <v>23</v>
@@ -16748,34 +16772,28 @@
     </row>
     <row r="321" spans="1:15">
       <c r="A321" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="B321" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="C321" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="D321" t="s">
-        <v>609</v>
-      </c>
-      <c r="E321">
-        <v>8</v>
-      </c>
-      <c r="F321" t="s">
-        <v>25</v>
+        <v>603</v>
       </c>
       <c r="G321" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H321" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I321">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J321" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="K321" t="s">
         <v>22</v>
@@ -16787,7 +16805,7 @@
         <v>23</v>
       </c>
       <c r="N321" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="O321" t="s">
         <v>23</v>
@@ -16795,16 +16813,16 @@
     </row>
     <row r="322" spans="1:15">
       <c r="A322" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="B322" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="C322" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="D322" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="E322">
         <v>8</v>
@@ -16816,10 +16834,10 @@
         <v>32</v>
       </c>
       <c r="H322" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I322">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J322" t="s">
         <v>21</v>
@@ -16834,7 +16852,7 @@
         <v>23</v>
       </c>
       <c r="N322" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="O322" t="s">
         <v>23</v>
@@ -16842,16 +16860,16 @@
     </row>
     <row r="323" spans="1:15">
       <c r="A323" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="B323" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="C323" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="D323" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="E323">
         <v>8</v>
@@ -16863,16 +16881,16 @@
         <v>32</v>
       </c>
       <c r="H323" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I323">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J323" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="K323" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="L323" t="s">
         <v>23</v>
@@ -16881,7 +16899,7 @@
         <v>23</v>
       </c>
       <c r="N323" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="O323" t="s">
         <v>23</v>
@@ -16889,28 +16907,34 @@
     </row>
     <row r="324" spans="1:15">
       <c r="A324" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="B324" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="C324" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="D324" t="s">
-        <v>614</v>
+        <v>609</v>
+      </c>
+      <c r="E324">
+        <v>8</v>
+      </c>
+      <c r="F324" t="s">
+        <v>25</v>
       </c>
       <c r="G324" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H324" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I324">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J324" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K324" t="s">
         <v>22</v>
@@ -16922,7 +16946,7 @@
         <v>23</v>
       </c>
       <c r="N324" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O324" t="s">
         <v>23</v>
@@ -16930,16 +16954,16 @@
     </row>
     <row r="325" spans="1:15">
       <c r="A325" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="B325" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="C325" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="D325" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="E325">
         <v>8</v>
@@ -16951,10 +16975,10 @@
         <v>32</v>
       </c>
       <c r="H325" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I325">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J325" t="s">
         <v>21</v>
@@ -16969,7 +16993,7 @@
         <v>23</v>
       </c>
       <c r="N325" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O325" t="s">
         <v>23</v>
@@ -16977,16 +17001,16 @@
     </row>
     <row r="326" spans="1:15">
       <c r="A326" t="s">
+        <v>601</v>
+      </c>
+      <c r="B326" t="s">
+        <v>602</v>
+      </c>
+      <c r="C326" t="s">
+        <v>612</v>
+      </c>
+      <c r="D326" t="s">
         <v>613</v>
-      </c>
-      <c r="B326" t="s">
-        <v>594</v>
-      </c>
-      <c r="C326" t="s">
-        <v>617</v>
-      </c>
-      <c r="D326" t="s">
-        <v>618</v>
       </c>
       <c r="E326">
         <v>8</v>
@@ -16998,13 +17022,13 @@
         <v>32</v>
       </c>
       <c r="H326" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I326">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J326" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K326" t="s">
         <v>22</v>
@@ -17016,7 +17040,7 @@
         <v>23</v>
       </c>
       <c r="N326" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O326" t="s">
         <v>23</v>
@@ -17024,16 +17048,16 @@
     </row>
     <row r="327" spans="1:15">
       <c r="A327" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="B327" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="C327" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="D327" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="E327">
         <v>8</v>
@@ -17042,13 +17066,13 @@
         <v>25</v>
       </c>
       <c r="G327" t="s">
-        <v>435</v>
+        <v>32</v>
       </c>
       <c r="H327" t="s">
-        <v>439</v>
+        <v>35</v>
       </c>
       <c r="I327">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J327" t="s">
         <v>21</v>
@@ -17063,7 +17087,7 @@
         <v>23</v>
       </c>
       <c r="N327" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O327" t="s">
         <v>23</v>
@@ -17071,16 +17095,16 @@
     </row>
     <row r="328" spans="1:15">
       <c r="A328" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="B328" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="C328" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="D328" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="E328">
         <v>8</v>
@@ -17089,13 +17113,13 @@
         <v>25</v>
       </c>
       <c r="G328" t="s">
-        <v>435</v>
+        <v>32</v>
       </c>
       <c r="H328" t="s">
-        <v>436</v>
+        <v>33</v>
       </c>
       <c r="I328">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J328" t="s">
         <v>38</v>
@@ -17118,16 +17142,16 @@
     </row>
     <row r="329" spans="1:15">
       <c r="A329" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="B329" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="C329" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D329" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E329">
         <v>8</v>
@@ -17136,13 +17160,13 @@
         <v>25</v>
       </c>
       <c r="G329" t="s">
-        <v>435</v>
+        <v>32</v>
       </c>
       <c r="H329" t="s">
-        <v>439</v>
+        <v>35</v>
       </c>
       <c r="I329">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J329" t="s">
         <v>21</v>
@@ -17165,31 +17189,37 @@
     </row>
     <row r="330" spans="1:15">
       <c r="A330" t="s">
-        <v>624</v>
+        <v>601</v>
       </c>
       <c r="B330" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="C330" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="D330" t="s">
-        <v>625</v>
+        <v>620</v>
+      </c>
+      <c r="E330">
+        <v>8</v>
+      </c>
+      <c r="F330" t="s">
+        <v>25</v>
       </c>
       <c r="G330" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H330" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I330">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J330" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K330" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="L330" t="s">
         <v>23</v>
@@ -17198,7 +17228,7 @@
         <v>23</v>
       </c>
       <c r="N330" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O330" t="s">
         <v>23</v>
@@ -17206,31 +17236,25 @@
     </row>
     <row r="331" spans="1:15">
       <c r="A331" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B331" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="C331" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D331" t="s">
-        <v>626</v>
-      </c>
-      <c r="E331">
-        <v>8</v>
-      </c>
-      <c r="F331" t="s">
-        <v>25</v>
+        <v>622</v>
       </c>
       <c r="G331" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H331" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I331">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J331" t="s">
         <v>21</v>
@@ -17253,25 +17277,31 @@
     </row>
     <row r="332" spans="1:15">
       <c r="A332" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="B332" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="C332" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="D332" t="s">
-        <v>629</v>
+        <v>624</v>
+      </c>
+      <c r="E332">
+        <v>8</v>
+      </c>
+      <c r="F332" t="s">
+        <v>25</v>
       </c>
       <c r="G332" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H332" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I332">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J332" t="s">
         <v>21</v>
@@ -17294,31 +17324,31 @@
     </row>
     <row r="333" spans="1:15">
       <c r="A333" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="B333" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="C333" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="D333" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="E333">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F333" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="G333" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="H333" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I333">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J333" t="s">
         <v>21</v>
@@ -17341,31 +17371,31 @@
     </row>
     <row r="334" spans="1:15">
       <c r="A334" t="s">
+        <v>621</v>
+      </c>
+      <c r="B334" t="s">
+        <v>602</v>
+      </c>
+      <c r="C334" t="s">
         <v>627</v>
       </c>
-      <c r="B334" t="s">
-        <v>594</v>
-      </c>
-      <c r="C334" t="s">
-        <v>632</v>
-      </c>
       <c r="D334" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="E334">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F334" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="G334" t="s">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="H334" t="s">
-        <v>79</v>
+        <v>447</v>
       </c>
       <c r="I334">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J334" t="s">
         <v>21</v>
@@ -17388,28 +17418,34 @@
     </row>
     <row r="335" spans="1:15">
       <c r="A335" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="B335" t="s">
-        <v>634</v>
+        <v>602</v>
       </c>
       <c r="C335" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="D335" t="s">
-        <v>635</v>
+        <v>629</v>
+      </c>
+      <c r="E335">
+        <v>8</v>
+      </c>
+      <c r="F335" t="s">
+        <v>25</v>
       </c>
       <c r="G335" t="s">
-        <v>20</v>
+        <v>443</v>
       </c>
       <c r="H335" t="s">
-        <v>20</v>
+        <v>444</v>
       </c>
       <c r="I335">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J335" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K335" t="s">
         <v>22</v>
@@ -17421,7 +17457,7 @@
         <v>23</v>
       </c>
       <c r="N335" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O335" t="s">
         <v>23</v>
@@ -17429,25 +17465,31 @@
     </row>
     <row r="336" spans="1:15">
       <c r="A336" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="B336" t="s">
-        <v>637</v>
+        <v>602</v>
       </c>
       <c r="C336" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="D336" t="s">
-        <v>638</v>
+        <v>631</v>
+      </c>
+      <c r="E336">
+        <v>8</v>
+      </c>
+      <c r="F336" t="s">
+        <v>25</v>
       </c>
       <c r="G336" t="s">
-        <v>20</v>
+        <v>443</v>
       </c>
       <c r="H336" t="s">
-        <v>20</v>
+        <v>447</v>
       </c>
       <c r="I336">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J336" t="s">
         <v>21</v>
@@ -17462,7 +17504,7 @@
         <v>23</v>
       </c>
       <c r="N336" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O336" t="s">
         <v>23</v>
@@ -17470,16 +17512,16 @@
     </row>
     <row r="337" spans="1:15">
       <c r="A337" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B337" t="s">
-        <v>637</v>
+        <v>602</v>
       </c>
       <c r="C337" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="D337" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="G337" t="s">
         <v>20</v>
@@ -17511,31 +17553,31 @@
     </row>
     <row r="338" spans="1:15">
       <c r="A338" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B338" t="s">
-        <v>637</v>
+        <v>602</v>
       </c>
       <c r="C338" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="D338" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="E338">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F338" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="G338" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="H338" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="I338">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J338" t="s">
         <v>21</v>
@@ -17558,31 +17600,25 @@
     </row>
     <row r="339" spans="1:15">
       <c r="A339" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B339" t="s">
+        <v>602</v>
+      </c>
+      <c r="C339" t="s">
+        <v>636</v>
+      </c>
+      <c r="D339" t="s">
         <v>637</v>
       </c>
-      <c r="C339" t="s">
-        <v>642</v>
-      </c>
-      <c r="D339" t="s">
-        <v>642</v>
-      </c>
-      <c r="E339">
-        <v>6</v>
-      </c>
-      <c r="F339" t="s">
-        <v>75</v>
-      </c>
       <c r="G339" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="H339" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I339">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J339" t="s">
         <v>21</v>
@@ -17605,16 +17641,16 @@
     </row>
     <row r="340" spans="1:15">
       <c r="A340" t="s">
+        <v>635</v>
+      </c>
+      <c r="B340" t="s">
+        <v>602</v>
+      </c>
+      <c r="C340" t="s">
+        <v>638</v>
+      </c>
+      <c r="D340" t="s">
         <v>639</v>
-      </c>
-      <c r="B340" t="s">
-        <v>637</v>
-      </c>
-      <c r="C340" t="s">
-        <v>643</v>
-      </c>
-      <c r="D340" t="s">
-        <v>643</v>
       </c>
       <c r="E340">
         <v>6</v>
@@ -17632,10 +17668,10 @@
         <v>2</v>
       </c>
       <c r="J340" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="K340" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="L340" t="s">
         <v>23</v>
@@ -17644,7 +17680,7 @@
         <v>23</v>
       </c>
       <c r="N340" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="O340" t="s">
         <v>23</v>
@@ -17652,25 +17688,31 @@
     </row>
     <row r="341" spans="1:15">
       <c r="A341" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="B341" t="s">
-        <v>637</v>
+        <v>602</v>
       </c>
       <c r="C341" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="D341" t="s">
-        <v>645</v>
+        <v>640</v>
+      </c>
+      <c r="E341">
+        <v>6</v>
+      </c>
+      <c r="F341" t="s">
+        <v>75</v>
       </c>
       <c r="G341" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="H341" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="I341">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J341" t="s">
         <v>21</v>
@@ -17693,16 +17735,16 @@
     </row>
     <row r="342" spans="1:15">
       <c r="A342" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B342" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="C342" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="D342" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G342" t="s">
         <v>20</v>
@@ -17734,16 +17776,16 @@
     </row>
     <row r="343" spans="1:15">
       <c r="A343" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="B343" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="C343" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="D343" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="G343" t="s">
         <v>20</v>
@@ -17775,16 +17817,16 @@
     </row>
     <row r="344" spans="1:15">
       <c r="A344" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="B344" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="C344" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="D344" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="G344" t="s">
         <v>20</v>
@@ -17816,28 +17858,28 @@
     </row>
     <row r="345" spans="1:15">
       <c r="A345" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="B345" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="C345" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="D345" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="E345">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F345" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G345" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="H345" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="I345">
         <v>2</v>
@@ -17863,31 +17905,31 @@
     </row>
     <row r="346" spans="1:15">
       <c r="A346" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="B346" t="s">
+        <v>645</v>
+      </c>
+      <c r="C346" t="s">
         <v>650</v>
       </c>
-      <c r="C346" t="s">
-        <v>655</v>
-      </c>
       <c r="D346" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="E346">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F346" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G346" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="H346" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="I346">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J346" t="s">
         <v>21</v>
@@ -17910,37 +17952,37 @@
     </row>
     <row r="347" spans="1:15">
       <c r="A347" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="B347" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="C347" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="D347" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="E347">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F347" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G347" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="H347" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="I347">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J347" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K347" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="L347" t="s">
         <v>23</v>
@@ -17949,7 +17991,7 @@
         <v>23</v>
       </c>
       <c r="N347" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O347" t="s">
         <v>23</v>
@@ -17957,16 +17999,16 @@
     </row>
     <row r="348" spans="1:15">
       <c r="A348" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="B348" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="C348" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="D348" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="G348" t="s">
         <v>20</v>
@@ -17998,31 +18040,25 @@
     </row>
     <row r="349" spans="1:15">
       <c r="A349" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B349" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="C349" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D349" t="s">
-        <v>659</v>
-      </c>
-      <c r="E349">
-        <v>8</v>
-      </c>
-      <c r="F349" t="s">
-        <v>25</v>
+        <v>656</v>
       </c>
       <c r="G349" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H349" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I349">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J349" t="s">
         <v>21</v>
@@ -18048,28 +18084,22 @@
         <v>657</v>
       </c>
       <c r="B350" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="C350" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D350" t="s">
-        <v>660</v>
-      </c>
-      <c r="E350">
-        <v>8</v>
-      </c>
-      <c r="F350" t="s">
-        <v>25</v>
+        <v>659</v>
       </c>
       <c r="G350" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H350" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I350">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J350" t="s">
         <v>21</v>
@@ -18092,16 +18122,16 @@
     </row>
     <row r="351" spans="1:15">
       <c r="A351" t="s">
+        <v>660</v>
+      </c>
+      <c r="B351" t="s">
+        <v>658</v>
+      </c>
+      <c r="C351" t="s">
         <v>661</v>
       </c>
-      <c r="B351" t="s">
-        <v>650</v>
-      </c>
-      <c r="C351" t="s">
-        <v>662</v>
-      </c>
       <c r="D351" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G351" t="s">
         <v>20</v>
@@ -18133,16 +18163,16 @@
     </row>
     <row r="352" spans="1:15">
       <c r="A352" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B352" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="C352" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D352" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E352">
         <v>8</v>
@@ -18151,13 +18181,13 @@
         <v>25</v>
       </c>
       <c r="G352" t="s">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="H352" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="I352">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J352" t="s">
         <v>21</v>
@@ -18180,25 +18210,31 @@
     </row>
     <row r="353" spans="1:15">
       <c r="A353" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B353" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="C353" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D353" t="s">
-        <v>666</v>
+        <v>663</v>
+      </c>
+      <c r="E353">
+        <v>8</v>
+      </c>
+      <c r="F353" t="s">
+        <v>25</v>
       </c>
       <c r="G353" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H353" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I353">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J353" t="s">
         <v>21</v>
@@ -18221,16 +18257,16 @@
     </row>
     <row r="354" spans="1:15">
       <c r="A354" t="s">
+        <v>660</v>
+      </c>
+      <c r="B354" t="s">
+        <v>658</v>
+      </c>
+      <c r="C354" t="s">
         <v>664</v>
       </c>
-      <c r="B354" t="s">
-        <v>665</v>
-      </c>
-      <c r="C354" t="s">
-        <v>667</v>
-      </c>
       <c r="D354" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="E354">
         <v>8</v>
@@ -18239,13 +18275,13 @@
         <v>25</v>
       </c>
       <c r="G354" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="H354" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="I354">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J354" t="s">
         <v>21</v>
@@ -18268,16 +18304,16 @@
     </row>
     <row r="355" spans="1:15">
       <c r="A355" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B355" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="C355" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D355" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G355" t="s">
         <v>20</v>
@@ -18307,8 +18343,319 @@
         <v>23</v>
       </c>
     </row>
+    <row r="356" spans="1:15">
+      <c r="A356" t="s">
+        <v>665</v>
+      </c>
+      <c r="B356" t="s">
+        <v>658</v>
+      </c>
+      <c r="C356" t="s">
+        <v>667</v>
+      </c>
+      <c r="D356" t="s">
+        <v>667</v>
+      </c>
+      <c r="E356">
+        <v>8</v>
+      </c>
+      <c r="F356" t="s">
+        <v>25</v>
+      </c>
+      <c r="G356" t="s">
+        <v>46</v>
+      </c>
+      <c r="H356" t="s">
+        <v>47</v>
+      </c>
+      <c r="I356">
+        <v>4</v>
+      </c>
+      <c r="J356" t="s">
+        <v>21</v>
+      </c>
+      <c r="K356" t="s">
+        <v>22</v>
+      </c>
+      <c r="L356" t="s">
+        <v>23</v>
+      </c>
+      <c r="M356" t="s">
+        <v>23</v>
+      </c>
+      <c r="N356" t="s">
+        <v>23</v>
+      </c>
+      <c r="O356" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="357" spans="1:15">
+      <c r="A357" t="s">
+        <v>665</v>
+      </c>
+      <c r="B357" t="s">
+        <v>658</v>
+      </c>
+      <c r="C357" t="s">
+        <v>668</v>
+      </c>
+      <c r="D357" t="s">
+        <v>668</v>
+      </c>
+      <c r="E357">
+        <v>8</v>
+      </c>
+      <c r="F357" t="s">
+        <v>25</v>
+      </c>
+      <c r="G357" t="s">
+        <v>46</v>
+      </c>
+      <c r="H357" t="s">
+        <v>49</v>
+      </c>
+      <c r="I357">
+        <v>5</v>
+      </c>
+      <c r="J357" t="s">
+        <v>21</v>
+      </c>
+      <c r="K357" t="s">
+        <v>22</v>
+      </c>
+      <c r="L357" t="s">
+        <v>23</v>
+      </c>
+      <c r="M357" t="s">
+        <v>23</v>
+      </c>
+      <c r="N357" t="s">
+        <v>23</v>
+      </c>
+      <c r="O357" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="358" spans="1:15">
+      <c r="A358" t="s">
+        <v>669</v>
+      </c>
+      <c r="B358" t="s">
+        <v>658</v>
+      </c>
+      <c r="C358" t="s">
+        <v>670</v>
+      </c>
+      <c r="D358" t="s">
+        <v>670</v>
+      </c>
+      <c r="G358" t="s">
+        <v>20</v>
+      </c>
+      <c r="H358" t="s">
+        <v>20</v>
+      </c>
+      <c r="I358">
+        <v>1</v>
+      </c>
+      <c r="J358" t="s">
+        <v>21</v>
+      </c>
+      <c r="K358" t="s">
+        <v>22</v>
+      </c>
+      <c r="L358" t="s">
+        <v>23</v>
+      </c>
+      <c r="M358" t="s">
+        <v>23</v>
+      </c>
+      <c r="N358" t="s">
+        <v>23</v>
+      </c>
+      <c r="O358" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="359" spans="1:15">
+      <c r="A359" t="s">
+        <v>669</v>
+      </c>
+      <c r="B359" t="s">
+        <v>658</v>
+      </c>
+      <c r="C359" t="s">
+        <v>671</v>
+      </c>
+      <c r="D359" t="s">
+        <v>671</v>
+      </c>
+      <c r="E359">
+        <v>8</v>
+      </c>
+      <c r="F359" t="s">
+        <v>25</v>
+      </c>
+      <c r="G359" t="s">
+        <v>107</v>
+      </c>
+      <c r="H359" t="s">
+        <v>107</v>
+      </c>
+      <c r="I359">
+        <v>4</v>
+      </c>
+      <c r="J359" t="s">
+        <v>21</v>
+      </c>
+      <c r="K359" t="s">
+        <v>22</v>
+      </c>
+      <c r="L359" t="s">
+        <v>23</v>
+      </c>
+      <c r="M359" t="s">
+        <v>23</v>
+      </c>
+      <c r="N359" t="s">
+        <v>23</v>
+      </c>
+      <c r="O359" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="360" spans="1:15">
+      <c r="A360" t="s">
+        <v>672</v>
+      </c>
+      <c r="B360" t="s">
+        <v>673</v>
+      </c>
+      <c r="C360" t="s">
+        <v>674</v>
+      </c>
+      <c r="D360" t="s">
+        <v>674</v>
+      </c>
+      <c r="G360" t="s">
+        <v>20</v>
+      </c>
+      <c r="H360" t="s">
+        <v>20</v>
+      </c>
+      <c r="I360">
+        <v>1</v>
+      </c>
+      <c r="J360" t="s">
+        <v>21</v>
+      </c>
+      <c r="K360" t="s">
+        <v>22</v>
+      </c>
+      <c r="L360" t="s">
+        <v>23</v>
+      </c>
+      <c r="M360" t="s">
+        <v>23</v>
+      </c>
+      <c r="N360" t="s">
+        <v>23</v>
+      </c>
+      <c r="O360" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="361" spans="1:15">
+      <c r="A361" t="s">
+        <v>672</v>
+      </c>
+      <c r="B361" t="s">
+        <v>673</v>
+      </c>
+      <c r="C361" t="s">
+        <v>675</v>
+      </c>
+      <c r="D361" t="s">
+        <v>675</v>
+      </c>
+      <c r="E361">
+        <v>8</v>
+      </c>
+      <c r="F361" t="s">
+        <v>25</v>
+      </c>
+      <c r="G361" t="s">
+        <v>107</v>
+      </c>
+      <c r="H361" t="s">
+        <v>107</v>
+      </c>
+      <c r="I361">
+        <v>4</v>
+      </c>
+      <c r="J361" t="s">
+        <v>21</v>
+      </c>
+      <c r="K361" t="s">
+        <v>22</v>
+      </c>
+      <c r="L361" t="s">
+        <v>23</v>
+      </c>
+      <c r="M361" t="s">
+        <v>23</v>
+      </c>
+      <c r="N361" t="s">
+        <v>23</v>
+      </c>
+      <c r="O361" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="362" spans="1:15">
+      <c r="A362" t="s">
+        <v>676</v>
+      </c>
+      <c r="B362" t="s">
+        <v>677</v>
+      </c>
+      <c r="C362" t="s">
+        <v>678</v>
+      </c>
+      <c r="D362" t="s">
+        <v>678</v>
+      </c>
+      <c r="G362" t="s">
+        <v>20</v>
+      </c>
+      <c r="H362" t="s">
+        <v>20</v>
+      </c>
+      <c r="I362">
+        <v>1</v>
+      </c>
+      <c r="J362" t="s">
+        <v>21</v>
+      </c>
+      <c r="K362" t="s">
+        <v>22</v>
+      </c>
+      <c r="L362" t="s">
+        <v>23</v>
+      </c>
+      <c r="M362" t="s">
+        <v>23</v>
+      </c>
+      <c r="N362" t="s">
+        <v>23</v>
+      </c>
+      <c r="O362" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:P355"/>
+  <autoFilter ref="A1:P362"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/outgoing/PITcleanr/PRO_Steelhead_2019.xlsx
+++ b/outgoing/PITcleanr/PRO_Steelhead_2019.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seek/Documents/GitProjects/MyProjects/DabomYakimaSthd/outgoing/PITcleanr/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE110E2-6FE2-6241-88F3-089250D6A9BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="25180" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProcCapHist" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ProcCapHist!$A$1:$P$362</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -2059,8 +2065,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2106,6 +2112,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2152,7 +2166,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2184,9 +2198,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2218,6 +2250,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2393,37 +2443,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P362"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="N1" sqref="N1:O1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="4" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="10.5" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="10" width="10.5" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" customWidth="1"/>
+    <col min="12" max="13" width="16.1640625" customWidth="1"/>
+    <col min="14" max="14" width="9.5" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2473,7 +2520,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2514,7 +2561,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -2561,7 +2608,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2608,7 +2655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2655,7 +2702,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2702,7 +2749,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2749,7 +2796,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2796,7 +2843,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -2837,7 +2884,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -2884,7 +2931,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -2931,7 +2978,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -2972,7 +3019,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -3019,7 +3066,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -3066,7 +3113,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -3113,7 +3160,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -3160,7 +3207,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -3207,7 +3254,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -3248,7 +3295,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -3289,7 +3336,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -3336,7 +3383,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -3383,7 +3430,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>80</v>
       </c>
@@ -3424,7 +3471,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -3471,7 +3518,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>80</v>
       </c>
@@ -3518,7 +3565,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>80</v>
       </c>
@@ -3559,7 +3606,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>88</v>
       </c>
@@ -3600,7 +3647,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>88</v>
       </c>
@@ -3647,7 +3694,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>93</v>
       </c>
@@ -3688,7 +3735,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>93</v>
       </c>
@@ -3735,7 +3782,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>93</v>
       </c>
@@ -3782,7 +3829,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>93</v>
       </c>
@@ -3829,7 +3876,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>103</v>
       </c>
@@ -3870,7 +3917,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>103</v>
       </c>
@@ -3917,7 +3964,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>108</v>
       </c>
@@ -3958,7 +4005,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>108</v>
       </c>
@@ -4005,7 +4052,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>108</v>
       </c>
@@ -4052,7 +4099,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>108</v>
       </c>
@@ -4099,7 +4146,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>108</v>
       </c>
@@ -4146,7 +4193,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>116</v>
       </c>
@@ -4187,7 +4234,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>116</v>
       </c>
@@ -4234,7 +4281,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>116</v>
       </c>
@@ -4281,7 +4328,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>122</v>
       </c>
@@ -4322,7 +4369,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>122</v>
       </c>
@@ -4369,7 +4416,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>122</v>
       </c>
@@ -4416,7 +4463,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>122</v>
       </c>
@@ -4463,7 +4510,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>122</v>
       </c>
@@ -4504,7 +4551,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>130</v>
       </c>
@@ -4545,7 +4592,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>133</v>
       </c>
@@ -4586,7 +4633,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>133</v>
       </c>
@@ -4633,7 +4680,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>137</v>
       </c>
@@ -4674,7 +4721,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>137</v>
       </c>
@@ -4721,7 +4768,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>137</v>
       </c>
@@ -4768,7 +4815,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>141</v>
       </c>
@@ -4809,7 +4856,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>141</v>
       </c>
@@ -4856,7 +4903,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>141</v>
       </c>
@@ -4903,7 +4950,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>147</v>
       </c>
@@ -4944,7 +4991,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>147</v>
       </c>
@@ -4991,7 +5038,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>147</v>
       </c>
@@ -5038,7 +5085,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>147</v>
       </c>
@@ -5079,7 +5126,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>152</v>
       </c>
@@ -5120,7 +5167,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>152</v>
       </c>
@@ -5167,7 +5214,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>152</v>
       </c>
@@ -5214,7 +5261,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>160</v>
       </c>
@@ -5255,7 +5302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>160</v>
       </c>
@@ -5302,7 +5349,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>160</v>
       </c>
@@ -5349,7 +5396,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>166</v>
       </c>
@@ -5390,7 +5437,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>166</v>
       </c>
@@ -5437,7 +5484,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>166</v>
       </c>
@@ -5484,7 +5531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>166</v>
       </c>
@@ -5531,7 +5578,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>166</v>
       </c>
@@ -5578,7 +5625,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>174</v>
       </c>
@@ -5619,7 +5666,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>174</v>
       </c>
@@ -5666,7 +5713,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>179</v>
       </c>
@@ -5707,7 +5754,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>179</v>
       </c>
@@ -5754,7 +5801,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>185</v>
       </c>
@@ -5795,7 +5842,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>185</v>
       </c>
@@ -5842,7 +5889,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>185</v>
       </c>
@@ -5889,7 +5936,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>185</v>
       </c>
@@ -5936,7 +5983,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>185</v>
       </c>
@@ -5983,7 +6030,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>192</v>
       </c>
@@ -6024,7 +6071,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>192</v>
       </c>
@@ -6071,7 +6118,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>192</v>
       </c>
@@ -6112,7 +6159,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>197</v>
       </c>
@@ -6153,7 +6200,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>200</v>
       </c>
@@ -6194,7 +6241,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>200</v>
       </c>
@@ -6241,7 +6288,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>200</v>
       </c>
@@ -6288,7 +6335,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>200</v>
       </c>
@@ -6329,7 +6376,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>207</v>
       </c>
@@ -6370,7 +6417,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>209</v>
       </c>
@@ -6411,7 +6458,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>209</v>
       </c>
@@ -6458,7 +6505,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>209</v>
       </c>
@@ -6505,7 +6552,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>209</v>
       </c>
@@ -6546,7 +6593,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>216</v>
       </c>
@@ -6587,7 +6634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>216</v>
       </c>
@@ -6634,7 +6681,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>216</v>
       </c>
@@ -6681,7 +6728,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>216</v>
       </c>
@@ -6728,7 +6775,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>216</v>
       </c>
@@ -6769,7 +6816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>224</v>
       </c>
@@ -6810,7 +6857,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>224</v>
       </c>
@@ -6857,7 +6904,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>224</v>
       </c>
@@ -6904,7 +6951,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>224</v>
       </c>
@@ -6951,7 +6998,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>224</v>
       </c>
@@ -6998,7 +7045,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>224</v>
       </c>
@@ -7045,7 +7092,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>224</v>
       </c>
@@ -7092,7 +7139,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>233</v>
       </c>
@@ -7133,7 +7180,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>237</v>
       </c>
@@ -7174,7 +7221,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>237</v>
       </c>
@@ -7221,7 +7268,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>237</v>
       </c>
@@ -7268,7 +7315,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>237</v>
       </c>
@@ -7315,7 +7362,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>237</v>
       </c>
@@ -7362,7 +7409,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>237</v>
       </c>
@@ -7409,7 +7456,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>237</v>
       </c>
@@ -7456,7 +7503,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>237</v>
       </c>
@@ -7503,7 +7550,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>237</v>
       </c>
@@ -7550,7 +7597,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>237</v>
       </c>
@@ -7597,7 +7644,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>237</v>
       </c>
@@ -7644,7 +7691,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>237</v>
       </c>
@@ -7691,7 +7738,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:15">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>237</v>
       </c>
@@ -7738,7 +7785,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:15">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>237</v>
       </c>
@@ -7785,7 +7832,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="1:15">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>259</v>
       </c>
@@ -7826,7 +7873,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="1:15">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>259</v>
       </c>
@@ -7873,7 +7920,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:15">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>259</v>
       </c>
@@ -7920,7 +7967,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:15">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>259</v>
       </c>
@@ -7967,7 +8014,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:15">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>265</v>
       </c>
@@ -8008,7 +8055,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:15">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>265</v>
       </c>
@@ -8055,7 +8102,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:15">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>265</v>
       </c>
@@ -8102,7 +8149,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:15">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>265</v>
       </c>
@@ -8149,7 +8196,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="128" spans="1:15">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>265</v>
       </c>
@@ -8196,7 +8243,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="129" spans="1:15">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>271</v>
       </c>
@@ -8237,7 +8284,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="130" spans="1:15">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>271</v>
       </c>
@@ -8284,7 +8331,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="131" spans="1:15">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>271</v>
       </c>
@@ -8331,7 +8378,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" spans="1:15">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>276</v>
       </c>
@@ -8372,7 +8419,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="133" spans="1:15">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>276</v>
       </c>
@@ -8419,7 +8466,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="134" spans="1:15">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>276</v>
       </c>
@@ -8466,7 +8513,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="1:15">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>276</v>
       </c>
@@ -8513,7 +8560,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="136" spans="1:15">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>281</v>
       </c>
@@ -8554,7 +8601,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="137" spans="1:15">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>281</v>
       </c>
@@ -8601,7 +8648,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="138" spans="1:15">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>281</v>
       </c>
@@ -8648,7 +8695,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="1:15">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>286</v>
       </c>
@@ -8689,7 +8736,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:15">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>286</v>
       </c>
@@ -8736,7 +8783,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:15">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>286</v>
       </c>
@@ -8777,7 +8824,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" spans="1:15">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>291</v>
       </c>
@@ -8818,7 +8865,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="143" spans="1:15">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>291</v>
       </c>
@@ -8865,7 +8912,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="1:15">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>291</v>
       </c>
@@ -8912,7 +8959,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="1:15">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>291</v>
       </c>
@@ -8959,7 +9006,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="146" spans="1:15">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>291</v>
       </c>
@@ -9006,7 +9053,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="147" spans="1:15">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>298</v>
       </c>
@@ -9047,7 +9094,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="148" spans="1:15">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>298</v>
       </c>
@@ -9094,7 +9141,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="149" spans="1:15">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>298</v>
       </c>
@@ -9141,7 +9188,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" spans="1:15">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>298</v>
       </c>
@@ -9188,7 +9235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="151" spans="1:15">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>298</v>
       </c>
@@ -9235,7 +9282,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" spans="1:15">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>309</v>
       </c>
@@ -9276,7 +9323,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="153" spans="1:15">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>309</v>
       </c>
@@ -9323,7 +9370,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="154" spans="1:15">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>312</v>
       </c>
@@ -9364,7 +9411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" spans="1:15">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>312</v>
       </c>
@@ -9411,7 +9458,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="156" spans="1:15">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>312</v>
       </c>
@@ -9458,7 +9505,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="157" spans="1:15">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>312</v>
       </c>
@@ -9505,7 +9552,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:15">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>318</v>
       </c>
@@ -9546,7 +9593,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:15">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>322</v>
       </c>
@@ -9587,7 +9634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" spans="1:15">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>322</v>
       </c>
@@ -9634,7 +9681,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:15">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>322</v>
       </c>
@@ -9681,7 +9728,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="1:15">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>322</v>
       </c>
@@ -9728,7 +9775,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="163" spans="1:15">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>322</v>
       </c>
@@ -9775,7 +9822,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="164" spans="1:15">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>331</v>
       </c>
@@ -9816,7 +9863,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="165" spans="1:15">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>334</v>
       </c>
@@ -9857,7 +9904,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="166" spans="1:15">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>334</v>
       </c>
@@ -9904,7 +9951,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="167" spans="1:15">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>338</v>
       </c>
@@ -9945,7 +9992,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="168" spans="1:15">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>338</v>
       </c>
@@ -9992,7 +10039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="169" spans="1:15">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>338</v>
       </c>
@@ -10039,7 +10086,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="170" spans="1:15">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>343</v>
       </c>
@@ -10074,7 +10121,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="171" spans="1:15">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>343</v>
       </c>
@@ -10115,7 +10162,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="172" spans="1:15">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>343</v>
       </c>
@@ -10153,7 +10200,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="173" spans="1:15">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>343</v>
       </c>
@@ -10194,7 +10241,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="174" spans="1:15">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>343</v>
       </c>
@@ -10235,7 +10282,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="175" spans="1:15">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>350</v>
       </c>
@@ -10276,7 +10323,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:15">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>350</v>
       </c>
@@ -10323,7 +10370,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="177" spans="1:15">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>350</v>
       </c>
@@ -10370,7 +10417,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="178" spans="1:15">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>350</v>
       </c>
@@ -10417,7 +10464,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="179" spans="1:15">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>350</v>
       </c>
@@ -10464,7 +10511,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="180" spans="1:15">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>350</v>
       </c>
@@ -10511,7 +10558,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="181" spans="1:15">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>350</v>
       </c>
@@ -10558,7 +10605,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="182" spans="1:15">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>350</v>
       </c>
@@ -10605,7 +10652,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="183" spans="1:15">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>350</v>
       </c>
@@ -10652,7 +10699,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="184" spans="1:15">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>350</v>
       </c>
@@ -10699,7 +10746,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="185" spans="1:15">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>350</v>
       </c>
@@ -10746,7 +10793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="186" spans="1:15">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>350</v>
       </c>
@@ -10793,7 +10840,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="187" spans="1:15">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>350</v>
       </c>
@@ -10840,7 +10887,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="188" spans="1:15">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>350</v>
       </c>
@@ -10887,7 +10934,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="189" spans="1:15">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>350</v>
       </c>
@@ -10934,7 +10981,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="190" spans="1:15">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>350</v>
       </c>
@@ -10981,7 +11028,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="191" spans="1:15">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>350</v>
       </c>
@@ -11028,7 +11075,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="192" spans="1:15">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>350</v>
       </c>
@@ -11075,7 +11122,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="193" spans="1:15">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>388</v>
       </c>
@@ -11116,7 +11163,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="1:15">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>392</v>
       </c>
@@ -11157,7 +11204,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="195" spans="1:15">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>392</v>
       </c>
@@ -11204,7 +11251,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="196" spans="1:15">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>392</v>
       </c>
@@ -11251,7 +11298,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197" spans="1:15">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>392</v>
       </c>
@@ -11298,7 +11345,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="198" spans="1:15">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>392</v>
       </c>
@@ -11345,7 +11392,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="199" spans="1:15">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>398</v>
       </c>
@@ -11386,7 +11433,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="200" spans="1:15">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>398</v>
       </c>
@@ -11433,7 +11480,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="201" spans="1:15">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>398</v>
       </c>
@@ -11480,7 +11527,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" spans="1:15">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>398</v>
       </c>
@@ -11527,7 +11574,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="203" spans="1:15">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>398</v>
       </c>
@@ -11574,7 +11621,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="204" spans="1:15">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>398</v>
       </c>
@@ -11621,7 +11668,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="205" spans="1:15">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>398</v>
       </c>
@@ -11668,7 +11715,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="206" spans="1:15">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>407</v>
       </c>
@@ -11703,7 +11750,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="207" spans="1:15">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>407</v>
       </c>
@@ -11744,7 +11791,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="208" spans="1:15">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>407</v>
       </c>
@@ -11782,7 +11829,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="209" spans="1:15">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>407</v>
       </c>
@@ -11823,7 +11870,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="210" spans="1:15">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>421</v>
       </c>
@@ -11864,7 +11911,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="211" spans="1:15">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>421</v>
       </c>
@@ -11911,7 +11958,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="212" spans="1:15">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>421</v>
       </c>
@@ -11958,7 +12005,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="213" spans="1:15">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>421</v>
       </c>
@@ -12005,7 +12052,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="214" spans="1:15">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>421</v>
       </c>
@@ -12052,7 +12099,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="1:15">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>421</v>
       </c>
@@ -12099,7 +12146,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="1:15">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>429</v>
       </c>
@@ -12140,7 +12187,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="217" spans="1:15">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>429</v>
       </c>
@@ -12187,7 +12234,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="218" spans="1:15">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>433</v>
       </c>
@@ -12228,7 +12275,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="219" spans="1:15">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>433</v>
       </c>
@@ -12275,7 +12322,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="220" spans="1:15">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>436</v>
       </c>
@@ -12316,7 +12363,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="221" spans="1:15">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>436</v>
       </c>
@@ -12363,7 +12410,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="222" spans="1:15">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>436</v>
       </c>
@@ -12410,7 +12457,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="223" spans="1:15">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>436</v>
       </c>
@@ -12457,7 +12504,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="224" spans="1:15">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>436</v>
       </c>
@@ -12504,7 +12551,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="225" spans="1:15">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>436</v>
       </c>
@@ -12551,7 +12598,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="226" spans="1:15">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>449</v>
       </c>
@@ -12592,7 +12639,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="227" spans="1:15">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>449</v>
       </c>
@@ -12639,7 +12686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="228" spans="1:15">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>452</v>
       </c>
@@ -12680,7 +12727,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="229" spans="1:15">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>452</v>
       </c>
@@ -12727,7 +12774,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="230" spans="1:15">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>452</v>
       </c>
@@ -12768,7 +12815,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="231" spans="1:15">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>456</v>
       </c>
@@ -12809,7 +12856,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="232" spans="1:15">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>456</v>
       </c>
@@ -12856,7 +12903,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="233" spans="1:15">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>456</v>
       </c>
@@ -12903,7 +12950,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="234" spans="1:15">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>462</v>
       </c>
@@ -12944,7 +12991,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="235" spans="1:15">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>462</v>
       </c>
@@ -12991,7 +13038,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="236" spans="1:15">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>465</v>
       </c>
@@ -13032,7 +13079,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="237" spans="1:15">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>465</v>
       </c>
@@ -13079,7 +13126,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="238" spans="1:15">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>465</v>
       </c>
@@ -13126,7 +13173,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="239" spans="1:15">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>465</v>
       </c>
@@ -13173,7 +13220,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="240" spans="1:15">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>471</v>
       </c>
@@ -13214,7 +13261,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="241" spans="1:15">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>471</v>
       </c>
@@ -13261,7 +13308,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="242" spans="1:15">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>474</v>
       </c>
@@ -13302,7 +13349,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="243" spans="1:15">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>474</v>
       </c>
@@ -13349,7 +13396,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="244" spans="1:15">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>474</v>
       </c>
@@ -13396,7 +13443,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="245" spans="1:15">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>474</v>
       </c>
@@ -13443,7 +13490,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="246" spans="1:15">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>481</v>
       </c>
@@ -13484,7 +13531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="247" spans="1:15">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>481</v>
       </c>
@@ -13531,7 +13578,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="248" spans="1:15">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>481</v>
       </c>
@@ -13572,7 +13619,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="249" spans="1:15">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>485</v>
       </c>
@@ -13613,7 +13660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="250" spans="1:15">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>488</v>
       </c>
@@ -13654,7 +13701,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="251" spans="1:15">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>488</v>
       </c>
@@ -13701,7 +13748,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="252" spans="1:15">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>488</v>
       </c>
@@ -13748,7 +13795,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" spans="1:15">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>492</v>
       </c>
@@ -13789,7 +13836,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="254" spans="1:15">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>492</v>
       </c>
@@ -13836,7 +13883,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="255" spans="1:15">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>495</v>
       </c>
@@ -13877,7 +13924,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="256" spans="1:15">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>495</v>
       </c>
@@ -13924,7 +13971,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="257" spans="1:15">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>495</v>
       </c>
@@ -13965,7 +14012,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="258" spans="1:15">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>499</v>
       </c>
@@ -14006,7 +14053,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="259" spans="1:15">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>499</v>
       </c>
@@ -14053,7 +14100,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="260" spans="1:15">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>499</v>
       </c>
@@ -14094,7 +14141,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="261" spans="1:15">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>504</v>
       </c>
@@ -14135,7 +14182,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="262" spans="1:15">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>506</v>
       </c>
@@ -14176,7 +14223,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="263" spans="1:15">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>506</v>
       </c>
@@ -14223,7 +14270,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="264" spans="1:15">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>506</v>
       </c>
@@ -14270,7 +14317,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="265" spans="1:15">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>510</v>
       </c>
@@ -14311,7 +14358,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="266" spans="1:15">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>510</v>
       </c>
@@ -14358,7 +14405,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="267" spans="1:15">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>510</v>
       </c>
@@ -14405,7 +14452,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="268" spans="1:15">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>515</v>
       </c>
@@ -14446,7 +14493,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="269" spans="1:15">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>515</v>
       </c>
@@ -14493,7 +14540,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="270" spans="1:15">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>518</v>
       </c>
@@ -14534,7 +14581,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="271" spans="1:15">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>520</v>
       </c>
@@ -14575,7 +14622,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="272" spans="1:15">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>520</v>
       </c>
@@ -14622,7 +14669,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="273" spans="1:15">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>524</v>
       </c>
@@ -14663,7 +14710,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="274" spans="1:15">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>527</v>
       </c>
@@ -14704,7 +14751,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="275" spans="1:15">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>527</v>
       </c>
@@ -14751,7 +14798,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="276" spans="1:15">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>527</v>
       </c>
@@ -14798,7 +14845,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="277" spans="1:15">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>531</v>
       </c>
@@ -14839,7 +14886,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="278" spans="1:15">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>534</v>
       </c>
@@ -14880,7 +14927,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="279" spans="1:15">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>534</v>
       </c>
@@ -14927,7 +14974,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="280" spans="1:15">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>538</v>
       </c>
@@ -14968,7 +15015,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="281" spans="1:15">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>538</v>
       </c>
@@ -15015,7 +15062,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="282" spans="1:15">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>538</v>
       </c>
@@ -15056,7 +15103,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="283" spans="1:15">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>543</v>
       </c>
@@ -15097,7 +15144,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="284" spans="1:15">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>543</v>
       </c>
@@ -15144,7 +15191,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="285" spans="1:15">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>543</v>
       </c>
@@ -15191,7 +15238,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="286" spans="1:15">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>543</v>
       </c>
@@ -15238,7 +15285,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="287" spans="1:15">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>549</v>
       </c>
@@ -15279,7 +15326,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="288" spans="1:15">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>549</v>
       </c>
@@ -15326,7 +15373,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="289" spans="1:15">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>549</v>
       </c>
@@ -15373,7 +15420,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="290" spans="1:15">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>549</v>
       </c>
@@ -15414,7 +15461,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="291" spans="1:15">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>553</v>
       </c>
@@ -15455,7 +15502,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="292" spans="1:15">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>553</v>
       </c>
@@ -15502,7 +15549,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="293" spans="1:15">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>557</v>
       </c>
@@ -15543,7 +15590,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="294" spans="1:15">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>557</v>
       </c>
@@ -15590,7 +15637,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="295" spans="1:15">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>560</v>
       </c>
@@ -15631,7 +15678,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="296" spans="1:15">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>560</v>
       </c>
@@ -15678,7 +15725,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="297" spans="1:15">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>560</v>
       </c>
@@ -15725,7 +15772,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="298" spans="1:15">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>564</v>
       </c>
@@ -15766,7 +15813,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="299" spans="1:15">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>564</v>
       </c>
@@ -15813,7 +15860,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="300" spans="1:15">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>568</v>
       </c>
@@ -15854,7 +15901,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="301" spans="1:15">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>568</v>
       </c>
@@ -15901,7 +15948,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="302" spans="1:15">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>568</v>
       </c>
@@ -15948,7 +15995,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="303" spans="1:15">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>573</v>
       </c>
@@ -15989,7 +16036,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="304" spans="1:15">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>573</v>
       </c>
@@ -16036,7 +16083,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="305" spans="1:15">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>573</v>
       </c>
@@ -16083,7 +16130,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="306" spans="1:15">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>573</v>
       </c>
@@ -16130,7 +16177,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="307" spans="1:15">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>573</v>
       </c>
@@ -16177,7 +16224,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="308" spans="1:15">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>573</v>
       </c>
@@ -16224,7 +16271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="309" spans="1:15">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>573</v>
       </c>
@@ -16271,7 +16318,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="310" spans="1:15">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>573</v>
       </c>
@@ -16318,7 +16365,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="311" spans="1:15">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>573</v>
       </c>
@@ -16365,7 +16412,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="312" spans="1:15">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>573</v>
       </c>
@@ -16412,7 +16459,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="313" spans="1:15">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>587</v>
       </c>
@@ -16453,7 +16500,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="314" spans="1:15">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>587</v>
       </c>
@@ -16500,7 +16547,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="315" spans="1:15">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>587</v>
       </c>
@@ -16547,7 +16594,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="316" spans="1:15">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>587</v>
       </c>
@@ -16594,7 +16641,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="317" spans="1:15">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>587</v>
       </c>
@@ -16641,7 +16688,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="318" spans="1:15">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>595</v>
       </c>
@@ -16682,7 +16729,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="319" spans="1:15">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>595</v>
       </c>
@@ -16729,7 +16776,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="320" spans="1:15">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>599</v>
       </c>
@@ -16770,7 +16817,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="321" spans="1:15">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>601</v>
       </c>
@@ -16811,7 +16858,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="322" spans="1:15">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>601</v>
       </c>
@@ -16858,7 +16905,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="323" spans="1:15">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>601</v>
       </c>
@@ -16905,7 +16952,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="324" spans="1:15">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>601</v>
       </c>
@@ -16952,7 +16999,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="325" spans="1:15">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>601</v>
       </c>
@@ -16999,7 +17046,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="326" spans="1:15">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>601</v>
       </c>
@@ -17046,7 +17093,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="327" spans="1:15">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>601</v>
       </c>
@@ -17093,7 +17140,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="328" spans="1:15">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>601</v>
       </c>
@@ -17140,7 +17187,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="329" spans="1:15">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>601</v>
       </c>
@@ -17187,7 +17234,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="330" spans="1:15">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>601</v>
       </c>
@@ -17234,7 +17281,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="331" spans="1:15">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>621</v>
       </c>
@@ -17275,7 +17322,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="332" spans="1:15">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>621</v>
       </c>
@@ -17322,7 +17369,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="333" spans="1:15">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>621</v>
       </c>
@@ -17369,7 +17416,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="334" spans="1:15">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>621</v>
       </c>
@@ -17416,7 +17463,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="335" spans="1:15">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>621</v>
       </c>
@@ -17463,7 +17510,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="336" spans="1:15">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>621</v>
       </c>
@@ -17510,7 +17557,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="337" spans="1:15">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>632</v>
       </c>
@@ -17551,7 +17598,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="338" spans="1:15">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>632</v>
       </c>
@@ -17598,7 +17645,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="339" spans="1:15">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>635</v>
       </c>
@@ -17639,7 +17686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="340" spans="1:15">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>635</v>
       </c>
@@ -17686,7 +17733,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="341" spans="1:15">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>635</v>
       </c>
@@ -17733,7 +17780,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="342" spans="1:15">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>641</v>
       </c>
@@ -17774,7 +17821,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="343" spans="1:15">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>644</v>
       </c>
@@ -17815,7 +17862,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="344" spans="1:15">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>647</v>
       </c>
@@ -17856,7 +17903,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:15">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>647</v>
       </c>
@@ -17903,7 +17950,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="346" spans="1:15">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>647</v>
       </c>
@@ -17950,7 +17997,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="347" spans="1:15">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>647</v>
       </c>
@@ -17997,7 +18044,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="348" spans="1:15">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>652</v>
       </c>
@@ -18038,7 +18085,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="349" spans="1:15">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>654</v>
       </c>
@@ -18079,7 +18126,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="350" spans="1:15">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>657</v>
       </c>
@@ -18120,7 +18167,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="351" spans="1:15">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>660</v>
       </c>
@@ -18161,7 +18208,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="352" spans="1:15">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>660</v>
       </c>
@@ -18208,7 +18255,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="353" spans="1:15">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>660</v>
       </c>
@@ -18255,7 +18302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="354" spans="1:15">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>660</v>
       </c>
@@ -18302,7 +18349,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="355" spans="1:15">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>665</v>
       </c>
@@ -18343,7 +18390,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="356" spans="1:15">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>665</v>
       </c>
@@ -18390,7 +18437,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="357" spans="1:15">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>665</v>
       </c>
@@ -18437,7 +18484,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="358" spans="1:15">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>669</v>
       </c>
@@ -18478,7 +18525,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="359" spans="1:15">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>669</v>
       </c>
@@ -18525,7 +18572,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="360" spans="1:15">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>672</v>
       </c>
@@ -18566,7 +18613,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="361" spans="1:15">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>672</v>
       </c>
@@ -18613,7 +18660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="362" spans="1:15">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>676</v>
       </c>
@@ -18655,7 +18702,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P362"/>
+  <autoFilter ref="A1:P362" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/outgoing/PITcleanr/PRO_Steelhead_2019.xlsx
+++ b/outgoing/PITcleanr/PRO_Steelhead_2019.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seek/Documents/GitProjects/MyProjects/DabomYakimaSthd/outgoing/PITcleanr/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE110E2-6FE2-6241-88F3-089250D6A9BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="25180" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="ProcCapHist" sheetId="1" r:id="rId1"/>
@@ -18,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ProcCapHist!$A$1:$P$362</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -2065,8 +2059,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2112,14 +2106,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2166,7 +2152,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2198,27 +2184,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2250,24 +2218,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2443,34 +2393,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P362"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N1" sqref="N1:O1048576"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="4" width="21.5" customWidth="1"/>
-    <col min="5" max="5" width="10.5" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="10" width="10.5" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="13" width="16.1640625" customWidth="1"/>
-    <col min="14" max="14" width="9.5" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="12.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2520,7 +2473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2561,7 +2514,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -2608,7 +2561,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2655,7 +2608,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2702,7 +2655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2749,7 +2702,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2796,7 +2749,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2843,7 +2796,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -2884,7 +2837,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -2931,7 +2884,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -2978,7 +2931,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -3019,7 +2972,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -3066,7 +3019,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -3113,7 +3066,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -3160,7 +3113,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -3207,7 +3160,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -3254,7 +3207,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -3295,7 +3248,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -3336,7 +3289,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -3383,7 +3336,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -3430,7 +3383,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>80</v>
       </c>
@@ -3471,7 +3424,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -3518,7 +3471,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>80</v>
       </c>
@@ -3565,7 +3518,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>80</v>
       </c>
@@ -3606,7 +3559,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>88</v>
       </c>
@@ -3647,7 +3600,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>88</v>
       </c>
@@ -3694,7 +3647,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>93</v>
       </c>
@@ -3735,7 +3688,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>93</v>
       </c>
@@ -3782,7 +3735,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>93</v>
       </c>
@@ -3829,7 +3782,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>93</v>
       </c>
@@ -3876,7 +3829,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>103</v>
       </c>
@@ -3917,7 +3870,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>103</v>
       </c>
@@ -3964,7 +3917,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>108</v>
       </c>
@@ -4005,7 +3958,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
         <v>108</v>
       </c>
@@ -4052,7 +4005,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
         <v>108</v>
       </c>
@@ -4099,7 +4052,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
         <v>108</v>
       </c>
@@ -4146,7 +4099,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
         <v>108</v>
       </c>
@@ -4193,7 +4146,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
         <v>116</v>
       </c>
@@ -4234,7 +4187,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
         <v>116</v>
       </c>
@@ -4281,7 +4234,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
         <v>116</v>
       </c>
@@ -4328,7 +4281,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>122</v>
       </c>
@@ -4369,7 +4322,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
         <v>122</v>
       </c>
@@ -4416,7 +4369,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
         <v>122</v>
       </c>
@@ -4463,7 +4416,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
         <v>122</v>
       </c>
@@ -4510,7 +4463,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
         <v>122</v>
       </c>
@@ -4551,7 +4504,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15">
       <c r="A47" t="s">
         <v>130</v>
       </c>
@@ -4592,7 +4545,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
         <v>133</v>
       </c>
@@ -4633,7 +4586,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
         <v>133</v>
       </c>
@@ -4680,7 +4633,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15">
       <c r="A50" t="s">
         <v>137</v>
       </c>
@@ -4721,7 +4674,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
         <v>137</v>
       </c>
@@ -4768,7 +4721,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15">
       <c r="A52" t="s">
         <v>137</v>
       </c>
@@ -4815,7 +4768,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15">
       <c r="A53" t="s">
         <v>141</v>
       </c>
@@ -4856,7 +4809,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15">
       <c r="A54" t="s">
         <v>141</v>
       </c>
@@ -4903,7 +4856,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15">
       <c r="A55" t="s">
         <v>141</v>
       </c>
@@ -4950,7 +4903,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15">
       <c r="A56" t="s">
         <v>147</v>
       </c>
@@ -4991,7 +4944,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15">
       <c r="A57" t="s">
         <v>147</v>
       </c>
@@ -5038,7 +4991,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15">
       <c r="A58" t="s">
         <v>147</v>
       </c>
@@ -5085,7 +5038,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15">
       <c r="A59" t="s">
         <v>147</v>
       </c>
@@ -5126,7 +5079,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15">
       <c r="A60" t="s">
         <v>152</v>
       </c>
@@ -5167,7 +5120,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15">
       <c r="A61" t="s">
         <v>152</v>
       </c>
@@ -5214,7 +5167,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15">
       <c r="A62" t="s">
         <v>152</v>
       </c>
@@ -5261,7 +5214,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15">
       <c r="A63" t="s">
         <v>160</v>
       </c>
@@ -5302,7 +5255,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15">
       <c r="A64" t="s">
         <v>160</v>
       </c>
@@ -5349,7 +5302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15">
       <c r="A65" t="s">
         <v>160</v>
       </c>
@@ -5396,7 +5349,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15">
       <c r="A66" t="s">
         <v>166</v>
       </c>
@@ -5437,7 +5390,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15">
       <c r="A67" t="s">
         <v>166</v>
       </c>
@@ -5484,7 +5437,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15">
       <c r="A68" t="s">
         <v>166</v>
       </c>
@@ -5531,7 +5484,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15">
       <c r="A69" t="s">
         <v>166</v>
       </c>
@@ -5578,7 +5531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15">
       <c r="A70" t="s">
         <v>166</v>
       </c>
@@ -5625,7 +5578,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15">
       <c r="A71" t="s">
         <v>174</v>
       </c>
@@ -5666,7 +5619,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15">
       <c r="A72" t="s">
         <v>174</v>
       </c>
@@ -5713,7 +5666,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15">
       <c r="A73" t="s">
         <v>179</v>
       </c>
@@ -5754,7 +5707,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15">
       <c r="A74" t="s">
         <v>179</v>
       </c>
@@ -5801,7 +5754,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15">
       <c r="A75" t="s">
         <v>185</v>
       </c>
@@ -5842,7 +5795,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15">
       <c r="A76" t="s">
         <v>185</v>
       </c>
@@ -5889,7 +5842,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15">
       <c r="A77" t="s">
         <v>185</v>
       </c>
@@ -5936,7 +5889,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15">
       <c r="A78" t="s">
         <v>185</v>
       </c>
@@ -5983,7 +5936,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15">
       <c r="A79" t="s">
         <v>185</v>
       </c>
@@ -6030,7 +5983,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15">
       <c r="A80" t="s">
         <v>192</v>
       </c>
@@ -6071,7 +6024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15">
       <c r="A81" t="s">
         <v>192</v>
       </c>
@@ -6118,7 +6071,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15">
       <c r="A82" t="s">
         <v>192</v>
       </c>
@@ -6159,7 +6112,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15">
       <c r="A83" t="s">
         <v>197</v>
       </c>
@@ -6200,7 +6153,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15">
       <c r="A84" t="s">
         <v>200</v>
       </c>
@@ -6241,7 +6194,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15">
       <c r="A85" t="s">
         <v>200</v>
       </c>
@@ -6288,7 +6241,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15">
       <c r="A86" t="s">
         <v>200</v>
       </c>
@@ -6335,7 +6288,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15">
       <c r="A87" t="s">
         <v>200</v>
       </c>
@@ -6376,7 +6329,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15">
       <c r="A88" t="s">
         <v>207</v>
       </c>
@@ -6417,7 +6370,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15">
       <c r="A89" t="s">
         <v>209</v>
       </c>
@@ -6458,7 +6411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15">
       <c r="A90" t="s">
         <v>209</v>
       </c>
@@ -6505,7 +6458,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15">
       <c r="A91" t="s">
         <v>209</v>
       </c>
@@ -6552,7 +6505,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15">
       <c r="A92" t="s">
         <v>209</v>
       </c>
@@ -6593,7 +6546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15">
       <c r="A93" t="s">
         <v>216</v>
       </c>
@@ -6634,7 +6587,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15">
       <c r="A94" t="s">
         <v>216</v>
       </c>
@@ -6681,7 +6634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15">
       <c r="A95" t="s">
         <v>216</v>
       </c>
@@ -6728,7 +6681,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15">
       <c r="A96" t="s">
         <v>216</v>
       </c>
@@ -6775,7 +6728,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15">
       <c r="A97" t="s">
         <v>216</v>
       </c>
@@ -6816,7 +6769,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15">
       <c r="A98" t="s">
         <v>224</v>
       </c>
@@ -6857,7 +6810,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15">
       <c r="A99" t="s">
         <v>224</v>
       </c>
@@ -6904,7 +6857,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15">
       <c r="A100" t="s">
         <v>224</v>
       </c>
@@ -6951,7 +6904,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15">
       <c r="A101" t="s">
         <v>224</v>
       </c>
@@ -6998,7 +6951,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15">
       <c r="A102" t="s">
         <v>224</v>
       </c>
@@ -7045,7 +6998,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15">
       <c r="A103" t="s">
         <v>224</v>
       </c>
@@ -7092,7 +7045,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15">
       <c r="A104" t="s">
         <v>224</v>
       </c>
@@ -7139,7 +7092,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15">
       <c r="A105" t="s">
         <v>233</v>
       </c>
@@ -7180,7 +7133,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15">
       <c r="A106" t="s">
         <v>237</v>
       </c>
@@ -7221,7 +7174,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15">
       <c r="A107" t="s">
         <v>237</v>
       </c>
@@ -7268,7 +7221,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15">
       <c r="A108" t="s">
         <v>237</v>
       </c>
@@ -7315,7 +7268,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15">
       <c r="A109" t="s">
         <v>237</v>
       </c>
@@ -7362,7 +7315,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15">
       <c r="A110" t="s">
         <v>237</v>
       </c>
@@ -7409,7 +7362,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15">
       <c r="A111" t="s">
         <v>237</v>
       </c>
@@ -7456,7 +7409,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15">
       <c r="A112" t="s">
         <v>237</v>
       </c>
@@ -7503,7 +7456,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15">
       <c r="A113" t="s">
         <v>237</v>
       </c>
@@ -7550,7 +7503,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15">
       <c r="A114" t="s">
         <v>237</v>
       </c>
@@ -7597,7 +7550,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15">
       <c r="A115" t="s">
         <v>237</v>
       </c>
@@ -7644,7 +7597,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15">
       <c r="A116" t="s">
         <v>237</v>
       </c>
@@ -7691,7 +7644,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15">
       <c r="A117" t="s">
         <v>237</v>
       </c>
@@ -7738,7 +7691,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15">
       <c r="A118" t="s">
         <v>237</v>
       </c>
@@ -7785,7 +7738,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15">
       <c r="A119" t="s">
         <v>237</v>
       </c>
@@ -7832,7 +7785,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15">
       <c r="A120" t="s">
         <v>259</v>
       </c>
@@ -7873,7 +7826,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15">
       <c r="A121" t="s">
         <v>259</v>
       </c>
@@ -7920,7 +7873,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15">
       <c r="A122" t="s">
         <v>259</v>
       </c>
@@ -7967,7 +7920,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15">
       <c r="A123" t="s">
         <v>259</v>
       </c>
@@ -8014,7 +7967,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15">
       <c r="A124" t="s">
         <v>265</v>
       </c>
@@ -8055,7 +8008,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15">
       <c r="A125" t="s">
         <v>265</v>
       </c>
@@ -8102,7 +8055,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15">
       <c r="A126" t="s">
         <v>265</v>
       </c>
@@ -8149,7 +8102,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15">
       <c r="A127" t="s">
         <v>265</v>
       </c>
@@ -8196,7 +8149,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15">
       <c r="A128" t="s">
         <v>265</v>
       </c>
@@ -8243,7 +8196,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15">
       <c r="A129" t="s">
         <v>271</v>
       </c>
@@ -8284,7 +8237,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15">
       <c r="A130" t="s">
         <v>271</v>
       </c>
@@ -8331,7 +8284,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15">
       <c r="A131" t="s">
         <v>271</v>
       </c>
@@ -8378,7 +8331,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15">
       <c r="A132" t="s">
         <v>276</v>
       </c>
@@ -8419,7 +8372,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15">
       <c r="A133" t="s">
         <v>276</v>
       </c>
@@ -8466,7 +8419,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15">
       <c r="A134" t="s">
         <v>276</v>
       </c>
@@ -8513,7 +8466,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15">
       <c r="A135" t="s">
         <v>276</v>
       </c>
@@ -8560,7 +8513,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15">
       <c r="A136" t="s">
         <v>281</v>
       </c>
@@ -8601,7 +8554,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15">
       <c r="A137" t="s">
         <v>281</v>
       </c>
@@ -8648,7 +8601,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15">
       <c r="A138" t="s">
         <v>281</v>
       </c>
@@ -8695,7 +8648,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15">
       <c r="A139" t="s">
         <v>286</v>
       </c>
@@ -8736,7 +8689,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15">
       <c r="A140" t="s">
         <v>286</v>
       </c>
@@ -8783,7 +8736,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15">
       <c r="A141" t="s">
         <v>286</v>
       </c>
@@ -8824,7 +8777,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15">
       <c r="A142" t="s">
         <v>291</v>
       </c>
@@ -8865,7 +8818,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15">
       <c r="A143" t="s">
         <v>291</v>
       </c>
@@ -8912,7 +8865,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15">
       <c r="A144" t="s">
         <v>291</v>
       </c>
@@ -8959,7 +8912,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15">
       <c r="A145" t="s">
         <v>291</v>
       </c>
@@ -9006,7 +8959,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15">
       <c r="A146" t="s">
         <v>291</v>
       </c>
@@ -9053,7 +9006,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15">
       <c r="A147" t="s">
         <v>298</v>
       </c>
@@ -9094,7 +9047,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15">
       <c r="A148" t="s">
         <v>298</v>
       </c>
@@ -9141,7 +9094,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15">
       <c r="A149" t="s">
         <v>298</v>
       </c>
@@ -9188,7 +9141,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15">
       <c r="A150" t="s">
         <v>298</v>
       </c>
@@ -9235,7 +9188,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15">
       <c r="A151" t="s">
         <v>298</v>
       </c>
@@ -9282,7 +9235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15">
       <c r="A152" t="s">
         <v>309</v>
       </c>
@@ -9323,7 +9276,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15">
       <c r="A153" t="s">
         <v>309</v>
       </c>
@@ -9370,7 +9323,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15">
       <c r="A154" t="s">
         <v>312</v>
       </c>
@@ -9411,7 +9364,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15">
       <c r="A155" t="s">
         <v>312</v>
       </c>
@@ -9458,7 +9411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15">
       <c r="A156" t="s">
         <v>312</v>
       </c>
@@ -9505,7 +9458,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15">
       <c r="A157" t="s">
         <v>312</v>
       </c>
@@ -9552,7 +9505,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15">
       <c r="A158" t="s">
         <v>318</v>
       </c>
@@ -9593,7 +9546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15">
       <c r="A159" t="s">
         <v>322</v>
       </c>
@@ -9634,7 +9587,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15">
       <c r="A160" t="s">
         <v>322</v>
       </c>
@@ -9681,7 +9634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15">
       <c r="A161" t="s">
         <v>322</v>
       </c>
@@ -9728,7 +9681,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15">
       <c r="A162" t="s">
         <v>322</v>
       </c>
@@ -9775,7 +9728,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15">
       <c r="A163" t="s">
         <v>322</v>
       </c>
@@ -9822,7 +9775,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15">
       <c r="A164" t="s">
         <v>331</v>
       </c>
@@ -9863,7 +9816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15">
       <c r="A165" t="s">
         <v>334</v>
       </c>
@@ -9904,7 +9857,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15">
       <c r="A166" t="s">
         <v>334</v>
       </c>
@@ -9951,7 +9904,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15">
       <c r="A167" t="s">
         <v>338</v>
       </c>
@@ -9992,7 +9945,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15">
       <c r="A168" t="s">
         <v>338</v>
       </c>
@@ -10039,7 +9992,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15">
       <c r="A169" t="s">
         <v>338</v>
       </c>
@@ -10086,7 +10039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15">
       <c r="A170" t="s">
         <v>343</v>
       </c>
@@ -10121,7 +10074,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15">
       <c r="A171" t="s">
         <v>343</v>
       </c>
@@ -10162,7 +10115,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15">
       <c r="A172" t="s">
         <v>343</v>
       </c>
@@ -10200,7 +10153,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15">
       <c r="A173" t="s">
         <v>343</v>
       </c>
@@ -10241,7 +10194,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15">
       <c r="A174" t="s">
         <v>343</v>
       </c>
@@ -10282,7 +10235,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15">
       <c r="A175" t="s">
         <v>350</v>
       </c>
@@ -10323,7 +10276,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15">
       <c r="A176" t="s">
         <v>350</v>
       </c>
@@ -10370,7 +10323,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15">
       <c r="A177" t="s">
         <v>350</v>
       </c>
@@ -10417,7 +10370,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15">
       <c r="A178" t="s">
         <v>350</v>
       </c>
@@ -10464,7 +10417,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15">
       <c r="A179" t="s">
         <v>350</v>
       </c>
@@ -10511,7 +10464,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15">
       <c r="A180" t="s">
         <v>350</v>
       </c>
@@ -10558,7 +10511,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15">
       <c r="A181" t="s">
         <v>350</v>
       </c>
@@ -10605,7 +10558,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15">
       <c r="A182" t="s">
         <v>350</v>
       </c>
@@ -10652,7 +10605,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15">
       <c r="A183" t="s">
         <v>350</v>
       </c>
@@ -10699,7 +10652,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15">
       <c r="A184" t="s">
         <v>350</v>
       </c>
@@ -10746,7 +10699,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15">
       <c r="A185" t="s">
         <v>350</v>
       </c>
@@ -10793,7 +10746,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15">
       <c r="A186" t="s">
         <v>350</v>
       </c>
@@ -10840,7 +10793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15">
       <c r="A187" t="s">
         <v>350</v>
       </c>
@@ -10887,7 +10840,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15">
       <c r="A188" t="s">
         <v>350</v>
       </c>
@@ -10934,7 +10887,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15">
       <c r="A189" t="s">
         <v>350</v>
       </c>
@@ -10981,7 +10934,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15">
       <c r="A190" t="s">
         <v>350</v>
       </c>
@@ -11028,7 +10981,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15">
       <c r="A191" t="s">
         <v>350</v>
       </c>
@@ -11075,7 +11028,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15">
       <c r="A192" t="s">
         <v>350</v>
       </c>
@@ -11122,7 +11075,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15">
       <c r="A193" t="s">
         <v>388</v>
       </c>
@@ -11163,7 +11116,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15">
       <c r="A194" t="s">
         <v>392</v>
       </c>
@@ -11204,7 +11157,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15">
       <c r="A195" t="s">
         <v>392</v>
       </c>
@@ -11251,7 +11204,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15">
       <c r="A196" t="s">
         <v>392</v>
       </c>
@@ -11298,7 +11251,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15">
       <c r="A197" t="s">
         <v>392</v>
       </c>
@@ -11345,7 +11298,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15">
       <c r="A198" t="s">
         <v>392</v>
       </c>
@@ -11392,7 +11345,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15">
       <c r="A199" t="s">
         <v>398</v>
       </c>
@@ -11433,7 +11386,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15">
       <c r="A200" t="s">
         <v>398</v>
       </c>
@@ -11480,7 +11433,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15">
       <c r="A201" t="s">
         <v>398</v>
       </c>
@@ -11527,7 +11480,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15">
       <c r="A202" t="s">
         <v>398</v>
       </c>
@@ -11574,7 +11527,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15">
       <c r="A203" t="s">
         <v>398</v>
       </c>
@@ -11621,7 +11574,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15">
       <c r="A204" t="s">
         <v>398</v>
       </c>
@@ -11668,7 +11621,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15">
       <c r="A205" t="s">
         <v>398</v>
       </c>
@@ -11715,7 +11668,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15">
       <c r="A206" t="s">
         <v>407</v>
       </c>
@@ -11750,7 +11703,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15">
       <c r="A207" t="s">
         <v>407</v>
       </c>
@@ -11791,7 +11744,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15">
       <c r="A208" t="s">
         <v>407</v>
       </c>
@@ -11829,7 +11782,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15">
       <c r="A209" t="s">
         <v>407</v>
       </c>
@@ -11870,7 +11823,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15">
       <c r="A210" t="s">
         <v>421</v>
       </c>
@@ -11911,7 +11864,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:15">
       <c r="A211" t="s">
         <v>421</v>
       </c>
@@ -11958,7 +11911,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15">
       <c r="A212" t="s">
         <v>421</v>
       </c>
@@ -12005,7 +11958,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15">
       <c r="A213" t="s">
         <v>421</v>
       </c>
@@ -12052,7 +12005,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15">
       <c r="A214" t="s">
         <v>421</v>
       </c>
@@ -12099,7 +12052,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:15">
       <c r="A215" t="s">
         <v>421</v>
       </c>
@@ -12146,7 +12099,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15">
       <c r="A216" t="s">
         <v>429</v>
       </c>
@@ -12187,7 +12140,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15">
       <c r="A217" t="s">
         <v>429</v>
       </c>
@@ -12234,7 +12187,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15">
       <c r="A218" t="s">
         <v>433</v>
       </c>
@@ -12275,7 +12228,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15">
       <c r="A219" t="s">
         <v>433</v>
       </c>
@@ -12322,7 +12275,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:15">
       <c r="A220" t="s">
         <v>436</v>
       </c>
@@ -12363,7 +12316,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15">
       <c r="A221" t="s">
         <v>436</v>
       </c>
@@ -12410,7 +12363,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15">
       <c r="A222" t="s">
         <v>436</v>
       </c>
@@ -12457,7 +12410,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15">
       <c r="A223" t="s">
         <v>436</v>
       </c>
@@ -12504,7 +12457,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15">
       <c r="A224" t="s">
         <v>436</v>
       </c>
@@ -12551,7 +12504,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:15">
       <c r="A225" t="s">
         <v>436</v>
       </c>
@@ -12598,7 +12551,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:15">
       <c r="A226" t="s">
         <v>449</v>
       </c>
@@ -12639,7 +12592,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:15">
       <c r="A227" t="s">
         <v>449</v>
       </c>
@@ -12686,7 +12639,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:15">
       <c r="A228" t="s">
         <v>452</v>
       </c>
@@ -12727,7 +12680,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15">
       <c r="A229" t="s">
         <v>452</v>
       </c>
@@ -12774,7 +12727,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15">
       <c r="A230" t="s">
         <v>452</v>
       </c>
@@ -12815,7 +12768,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15">
       <c r="A231" t="s">
         <v>456</v>
       </c>
@@ -12856,7 +12809,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:15">
       <c r="A232" t="s">
         <v>456</v>
       </c>
@@ -12903,7 +12856,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15">
       <c r="A233" t="s">
         <v>456</v>
       </c>
@@ -12950,7 +12903,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15">
       <c r="A234" t="s">
         <v>462</v>
       </c>
@@ -12991,7 +12944,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15">
       <c r="A235" t="s">
         <v>462</v>
       </c>
@@ -13038,7 +12991,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15">
       <c r="A236" t="s">
         <v>465</v>
       </c>
@@ -13079,7 +13032,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15">
       <c r="A237" t="s">
         <v>465</v>
       </c>
@@ -13126,7 +13079,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:15">
       <c r="A238" t="s">
         <v>465</v>
       </c>
@@ -13173,7 +13126,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:15">
       <c r="A239" t="s">
         <v>465</v>
       </c>
@@ -13220,7 +13173,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15">
       <c r="A240" t="s">
         <v>471</v>
       </c>
@@ -13261,7 +13214,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:15">
       <c r="A241" t="s">
         <v>471</v>
       </c>
@@ -13308,7 +13261,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:15">
       <c r="A242" t="s">
         <v>474</v>
       </c>
@@ -13349,7 +13302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:15">
       <c r="A243" t="s">
         <v>474</v>
       </c>
@@ -13396,7 +13349,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:15">
       <c r="A244" t="s">
         <v>474</v>
       </c>
@@ -13443,7 +13396,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:15">
       <c r="A245" t="s">
         <v>474</v>
       </c>
@@ -13490,7 +13443,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:15">
       <c r="A246" t="s">
         <v>481</v>
       </c>
@@ -13531,7 +13484,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:15">
       <c r="A247" t="s">
         <v>481</v>
       </c>
@@ -13578,7 +13531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:15">
       <c r="A248" t="s">
         <v>481</v>
       </c>
@@ -13619,7 +13572,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:15">
       <c r="A249" t="s">
         <v>485</v>
       </c>
@@ -13660,7 +13613,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:15">
       <c r="A250" t="s">
         <v>488</v>
       </c>
@@ -13701,7 +13654,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:15">
       <c r="A251" t="s">
         <v>488</v>
       </c>
@@ -13748,7 +13701,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:15">
       <c r="A252" t="s">
         <v>488</v>
       </c>
@@ -13795,7 +13748,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:15">
       <c r="A253" t="s">
         <v>492</v>
       </c>
@@ -13836,7 +13789,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:15">
       <c r="A254" t="s">
         <v>492</v>
       </c>
@@ -13883,7 +13836,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:15">
       <c r="A255" t="s">
         <v>495</v>
       </c>
@@ -13924,7 +13877,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:15">
       <c r="A256" t="s">
         <v>495</v>
       </c>
@@ -13971,7 +13924,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:15">
       <c r="A257" t="s">
         <v>495</v>
       </c>
@@ -14012,7 +13965,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:15">
       <c r="A258" t="s">
         <v>499</v>
       </c>
@@ -14053,7 +14006,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:15">
       <c r="A259" t="s">
         <v>499</v>
       </c>
@@ -14100,7 +14053,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:15">
       <c r="A260" t="s">
         <v>499</v>
       </c>
@@ -14141,7 +14094,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:15">
       <c r="A261" t="s">
         <v>504</v>
       </c>
@@ -14182,7 +14135,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:15">
       <c r="A262" t="s">
         <v>506</v>
       </c>
@@ -14223,7 +14176,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:15">
       <c r="A263" t="s">
         <v>506</v>
       </c>
@@ -14270,7 +14223,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:15">
       <c r="A264" t="s">
         <v>506</v>
       </c>
@@ -14317,7 +14270,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:15">
       <c r="A265" t="s">
         <v>510</v>
       </c>
@@ -14358,7 +14311,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:15">
       <c r="A266" t="s">
         <v>510</v>
       </c>
@@ -14405,7 +14358,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:15">
       <c r="A267" t="s">
         <v>510</v>
       </c>
@@ -14452,7 +14405,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:15">
       <c r="A268" t="s">
         <v>515</v>
       </c>
@@ -14493,7 +14446,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:15">
       <c r="A269" t="s">
         <v>515</v>
       </c>
@@ -14540,7 +14493,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:15">
       <c r="A270" t="s">
         <v>518</v>
       </c>
@@ -14581,7 +14534,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:15">
       <c r="A271" t="s">
         <v>520</v>
       </c>
@@ -14622,7 +14575,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:15">
       <c r="A272" t="s">
         <v>520</v>
       </c>
@@ -14669,7 +14622,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:15">
       <c r="A273" t="s">
         <v>524</v>
       </c>
@@ -14710,7 +14663,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:15">
       <c r="A274" t="s">
         <v>527</v>
       </c>
@@ -14751,7 +14704,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:15">
       <c r="A275" t="s">
         <v>527</v>
       </c>
@@ -14798,7 +14751,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:15">
       <c r="A276" t="s">
         <v>527</v>
       </c>
@@ -14845,7 +14798,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:15">
       <c r="A277" t="s">
         <v>531</v>
       </c>
@@ -14886,7 +14839,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:15">
       <c r="A278" t="s">
         <v>534</v>
       </c>
@@ -14927,7 +14880,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:15">
       <c r="A279" t="s">
         <v>534</v>
       </c>
@@ -14974,7 +14927,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:15">
       <c r="A280" t="s">
         <v>538</v>
       </c>
@@ -15015,7 +14968,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:15">
       <c r="A281" t="s">
         <v>538</v>
       </c>
@@ -15062,7 +15015,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:15">
       <c r="A282" t="s">
         <v>538</v>
       </c>
@@ -15103,7 +15056,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:15">
       <c r="A283" t="s">
         <v>543</v>
       </c>
@@ -15144,7 +15097,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:15">
       <c r="A284" t="s">
         <v>543</v>
       </c>
@@ -15191,7 +15144,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:15">
       <c r="A285" t="s">
         <v>543</v>
       </c>
@@ -15238,7 +15191,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:15">
       <c r="A286" t="s">
         <v>543</v>
       </c>
@@ -15285,7 +15238,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:15">
       <c r="A287" t="s">
         <v>549</v>
       </c>
@@ -15326,7 +15279,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:15">
       <c r="A288" t="s">
         <v>549</v>
       </c>
@@ -15373,7 +15326,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:15">
       <c r="A289" t="s">
         <v>549</v>
       </c>
@@ -15420,7 +15373,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:15">
       <c r="A290" t="s">
         <v>549</v>
       </c>
@@ -15461,7 +15414,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:15">
       <c r="A291" t="s">
         <v>553</v>
       </c>
@@ -15502,7 +15455,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:15">
       <c r="A292" t="s">
         <v>553</v>
       </c>
@@ -15549,7 +15502,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:15">
       <c r="A293" t="s">
         <v>557</v>
       </c>
@@ -15590,7 +15543,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:15">
       <c r="A294" t="s">
         <v>557</v>
       </c>
@@ -15637,7 +15590,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:15">
       <c r="A295" t="s">
         <v>560</v>
       </c>
@@ -15678,7 +15631,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:15">
       <c r="A296" t="s">
         <v>560</v>
       </c>
@@ -15725,7 +15678,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:15">
       <c r="A297" t="s">
         <v>560</v>
       </c>
@@ -15772,7 +15725,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:15">
       <c r="A298" t="s">
         <v>564</v>
       </c>
@@ -15813,7 +15766,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:15">
       <c r="A299" t="s">
         <v>564</v>
       </c>
@@ -15860,7 +15813,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:15">
       <c r="A300" t="s">
         <v>568</v>
       </c>
@@ -15901,7 +15854,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:15">
       <c r="A301" t="s">
         <v>568</v>
       </c>
@@ -15948,7 +15901,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:15">
       <c r="A302" t="s">
         <v>568</v>
       </c>
@@ -15995,7 +15948,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:15">
       <c r="A303" t="s">
         <v>573</v>
       </c>
@@ -16036,7 +15989,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:15">
       <c r="A304" t="s">
         <v>573</v>
       </c>
@@ -16083,7 +16036,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:15">
       <c r="A305" t="s">
         <v>573</v>
       </c>
@@ -16130,7 +16083,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:15">
       <c r="A306" t="s">
         <v>573</v>
       </c>
@@ -16177,7 +16130,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:15">
       <c r="A307" t="s">
         <v>573</v>
       </c>
@@ -16224,7 +16177,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:15">
       <c r="A308" t="s">
         <v>573</v>
       </c>
@@ -16271,7 +16224,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:15">
       <c r="A309" t="s">
         <v>573</v>
       </c>
@@ -16318,7 +16271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:15">
       <c r="A310" t="s">
         <v>573</v>
       </c>
@@ -16365,7 +16318,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:15">
       <c r="A311" t="s">
         <v>573</v>
       </c>
@@ -16412,7 +16365,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:15">
       <c r="A312" t="s">
         <v>573</v>
       </c>
@@ -16459,7 +16412,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:15">
       <c r="A313" t="s">
         <v>587</v>
       </c>
@@ -16500,7 +16453,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:15">
       <c r="A314" t="s">
         <v>587</v>
       </c>
@@ -16547,7 +16500,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:15">
       <c r="A315" t="s">
         <v>587</v>
       </c>
@@ -16594,7 +16547,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:15">
       <c r="A316" t="s">
         <v>587</v>
       </c>
@@ -16641,7 +16594,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:15">
       <c r="A317" t="s">
         <v>587</v>
       </c>
@@ -16688,7 +16641,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:15">
       <c r="A318" t="s">
         <v>595</v>
       </c>
@@ -16729,7 +16682,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:15">
       <c r="A319" t="s">
         <v>595</v>
       </c>
@@ -16776,7 +16729,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:15">
       <c r="A320" t="s">
         <v>599</v>
       </c>
@@ -16817,7 +16770,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:15">
       <c r="A321" t="s">
         <v>601</v>
       </c>
@@ -16858,7 +16811,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:15">
       <c r="A322" t="s">
         <v>601</v>
       </c>
@@ -16905,7 +16858,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:15">
       <c r="A323" t="s">
         <v>601</v>
       </c>
@@ -16952,7 +16905,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:15">
       <c r="A324" t="s">
         <v>601</v>
       </c>
@@ -16999,7 +16952,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:15">
       <c r="A325" t="s">
         <v>601</v>
       </c>
@@ -17046,7 +16999,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:15">
       <c r="A326" t="s">
         <v>601</v>
       </c>
@@ -17093,7 +17046,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:15">
       <c r="A327" t="s">
         <v>601</v>
       </c>
@@ -17140,7 +17093,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:15">
       <c r="A328" t="s">
         <v>601</v>
       </c>
@@ -17187,7 +17140,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:15">
       <c r="A329" t="s">
         <v>601</v>
       </c>
@@ -17234,7 +17187,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:15">
       <c r="A330" t="s">
         <v>601</v>
       </c>
@@ -17281,7 +17234,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:15">
       <c r="A331" t="s">
         <v>621</v>
       </c>
@@ -17322,7 +17275,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:15">
       <c r="A332" t="s">
         <v>621</v>
       </c>
@@ -17369,7 +17322,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:15">
       <c r="A333" t="s">
         <v>621</v>
       </c>
@@ -17416,7 +17369,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:15">
       <c r="A334" t="s">
         <v>621</v>
       </c>
@@ -17463,7 +17416,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:15">
       <c r="A335" t="s">
         <v>621</v>
       </c>
@@ -17510,7 +17463,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:15">
       <c r="A336" t="s">
         <v>621</v>
       </c>
@@ -17557,7 +17510,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:15">
       <c r="A337" t="s">
         <v>632</v>
       </c>
@@ -17598,7 +17551,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:15">
       <c r="A338" t="s">
         <v>632</v>
       </c>
@@ -17645,7 +17598,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:15">
       <c r="A339" t="s">
         <v>635</v>
       </c>
@@ -17686,7 +17639,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:15">
       <c r="A340" t="s">
         <v>635</v>
       </c>
@@ -17733,7 +17686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:15">
       <c r="A341" t="s">
         <v>635</v>
       </c>
@@ -17780,7 +17733,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:15">
       <c r="A342" t="s">
         <v>641</v>
       </c>
@@ -17821,7 +17774,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:15">
       <c r="A343" t="s">
         <v>644</v>
       </c>
@@ -17862,7 +17815,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:15">
       <c r="A344" t="s">
         <v>647</v>
       </c>
@@ -17903,7 +17856,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:15">
       <c r="A345" t="s">
         <v>647</v>
       </c>
@@ -17950,7 +17903,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:15">
       <c r="A346" t="s">
         <v>647</v>
       </c>
@@ -17997,7 +17950,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:15">
       <c r="A347" t="s">
         <v>647</v>
       </c>
@@ -18044,7 +17997,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:15">
       <c r="A348" t="s">
         <v>652</v>
       </c>
@@ -18085,7 +18038,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:15">
       <c r="A349" t="s">
         <v>654</v>
       </c>
@@ -18126,7 +18079,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:15">
       <c r="A350" t="s">
         <v>657</v>
       </c>
@@ -18167,7 +18120,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:15">
       <c r="A351" t="s">
         <v>660</v>
       </c>
@@ -18208,7 +18161,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:15">
       <c r="A352" t="s">
         <v>660</v>
       </c>
@@ -18255,7 +18208,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:15">
       <c r="A353" t="s">
         <v>660</v>
       </c>
@@ -18302,7 +18255,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:15">
       <c r="A354" t="s">
         <v>660</v>
       </c>
@@ -18349,7 +18302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:15">
       <c r="A355" t="s">
         <v>665</v>
       </c>
@@ -18390,7 +18343,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:15">
       <c r="A356" t="s">
         <v>665</v>
       </c>
@@ -18437,7 +18390,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:15">
       <c r="A357" t="s">
         <v>665</v>
       </c>
@@ -18484,7 +18437,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:15">
       <c r="A358" t="s">
         <v>669</v>
       </c>
@@ -18525,7 +18478,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:15">
       <c r="A359" t="s">
         <v>669</v>
       </c>
@@ -18572,7 +18525,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:15">
       <c r="A360" t="s">
         <v>672</v>
       </c>
@@ -18613,7 +18566,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:15">
       <c r="A361" t="s">
         <v>672</v>
       </c>
@@ -18660,7 +18613,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:15">
       <c r="A362" t="s">
         <v>676</v>
       </c>
@@ -18702,7 +18655,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P362" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:P362"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>